--- a/masks/code/TKIDModule_spreadsheet_20200507_AW.xlsx
+++ b/masks/code/TKIDModule_spreadsheet_20200507_AW.xlsx
@@ -870,8 +870,8 @@
     <col customWidth="1" max="1" min="1" width="17"/>
     <col customWidth="1" max="2" min="2" width="11"/>
     <col customWidth="1" max="3" min="3" width="44"/>
-    <col customWidth="1" max="4" min="4" width="11"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="4" min="4" width="8"/>
+    <col customWidth="1" max="5" min="5" width="8"/>
     <col customWidth="1" max="6" min="6" width="7"/>
     <col customWidth="1" max="7" min="7" width="7"/>
     <col customWidth="1" max="8" min="8" width="22"/>
@@ -2202,28 +2202,28 @@
         <v>42</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0</v>
+        <v>-3.95</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>0</v>
+        <v>-7.275</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0</v>
+        <v>-3.4</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0</v>
+        <v>-7.075</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0</v>
+        <v>-7.475000000000001</v>
       </c>
       <c r="L27" s="1" t="n"/>
       <c r="M27" s="1" t="n">
@@ -2233,14 +2233,16 @@
         <v>0</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>0</v>
+        <v>-3.95</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>0</v>
+        <v>-7.275</v>
       </c>
       <c r="Q27" s="1" t="n"/>
       <c r="R27" s="1" t="n"/>
-      <c r="S27" s="1" t="s"/>
+      <c r="S27" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T27" s="1" t="n">
         <v>2</v>
       </c>
@@ -2272,28 +2274,28 @@
         <v>42</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0</v>
+        <v>-3.95</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>0</v>
+        <v>-7.275</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0</v>
+        <v>-3.4</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>0</v>
+        <v>-7.075</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0</v>
+        <v>-7.475000000000001</v>
       </c>
       <c r="L28" s="1" t="n"/>
       <c r="M28" s="1" t="n">
@@ -2303,14 +2305,16 @@
         <v>0</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>0</v>
+        <v>-3.95</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>0</v>
+        <v>-7.275</v>
       </c>
       <c r="Q28" s="1" t="n"/>
       <c r="R28" s="1" t="n"/>
-      <c r="S28" s="1" t="s"/>
+      <c r="S28" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T28" s="1" t="n">
         <v>1</v>
       </c>
@@ -2342,28 +2346,28 @@
         <v>42</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0</v>
+        <v>-3.95</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>0</v>
+        <v>-7.275</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>0</v>
+        <v>-3.4</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0</v>
+        <v>-7.075</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0</v>
+        <v>-7.475000000000001</v>
       </c>
       <c r="L29" s="1" t="n"/>
       <c r="M29" s="1" t="n">
@@ -2373,14 +2377,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>0</v>
+        <v>-3.95</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>0</v>
+        <v>-7.275</v>
       </c>
       <c r="Q29" s="1" t="n"/>
       <c r="R29" s="1" t="n"/>
-      <c r="S29" s="1" t="s"/>
+      <c r="S29" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T29" s="1" t="n">
         <v>2</v>
       </c>
@@ -3060,10 +3066,10 @@
         <v>47</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>-1.39999</v>
+        <v>-1.399</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>9.05001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>8.9</v>
@@ -3072,16 +3078,16 @@
         <v>0.4</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>-5.84999</v>
+        <v>-5.849</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>3.05001</v>
+        <v>3.051</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>9.25001</v>
+        <v>9.25</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>8.850010000000001</v>
+        <v>8.850000000000001</v>
       </c>
       <c r="L39" s="1" t="n"/>
       <c r="M39" s="1" t="n">
@@ -3091,10 +3097,10 @@
         <v>0</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>-1.39999</v>
+        <v>-1.399</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>9.05001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q39" s="1" t="n"/>
       <c r="R39" s="1" t="n"/>
@@ -3132,10 +3138,10 @@
         <v>47</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>-1.39999</v>
+        <v>-1.399</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>9.05001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>8.9</v>
@@ -3144,16 +3150,16 @@
         <v>0.4</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>-5.84999</v>
+        <v>-5.849</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>3.05001</v>
+        <v>3.051</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>9.25001</v>
+        <v>9.25</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>8.850010000000001</v>
+        <v>8.850000000000001</v>
       </c>
       <c r="L40" s="1" t="n"/>
       <c r="M40" s="1" t="n">
@@ -3163,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="O40" s="1" t="n">
-        <v>-1.39999</v>
+        <v>-1.399</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>9.05001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q40" s="1" t="n"/>
       <c r="R40" s="1" t="n"/>
@@ -3204,10 +3210,10 @@
         <v>47</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>-1.39999</v>
+        <v>-1.399</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>9.05001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>8.9</v>
@@ -3216,16 +3222,16 @@
         <v>0.4</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>-5.84999</v>
+        <v>-5.849</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>3.05001</v>
+        <v>3.051</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>9.25001</v>
+        <v>9.25</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>8.850010000000001</v>
+        <v>8.850000000000001</v>
       </c>
       <c r="L41" s="1" t="n"/>
       <c r="M41" s="1" t="n">
@@ -3235,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>-1.39999</v>
+        <v>-1.399</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>9.05001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q41" s="1" t="n"/>
       <c r="R41" s="1" t="n"/>
@@ -7606,28 +7612,28 @@
         <v>100</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>0</v>
+        <v>-10.05</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>0</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="F102" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G102" s="1" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H102" s="1" t="n">
-        <v>0</v>
+        <v>-10.25</v>
       </c>
       <c r="I102" s="1" t="n">
-        <v>0</v>
+        <v>-9.850000000000001</v>
       </c>
       <c r="J102" s="1" t="n">
-        <v>0</v>
+        <v>11.175</v>
       </c>
       <c r="K102" s="1" t="n">
-        <v>0</v>
+        <v>6.975</v>
       </c>
       <c r="L102" s="1" t="n"/>
       <c r="M102" s="1" t="n">
@@ -7637,14 +7643,16 @@
         <v>0</v>
       </c>
       <c r="O102" s="1" t="n">
-        <v>0</v>
+        <v>-10.05</v>
       </c>
       <c r="P102" s="1" t="n">
-        <v>0</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="Q102" s="1" t="n"/>
       <c r="R102" s="1" t="n"/>
-      <c r="S102" s="1" t="s"/>
+      <c r="S102" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T102" s="1" t="n">
         <v>1</v>
       </c>
@@ -7676,28 +7684,28 @@
         <v>100</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>0</v>
+        <v>-10.05</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>0</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="F103" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G103" s="1" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H103" s="1" t="n">
-        <v>0</v>
+        <v>-10.25</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>0</v>
+        <v>-9.850000000000001</v>
       </c>
       <c r="J103" s="1" t="n">
-        <v>0</v>
+        <v>11.175</v>
       </c>
       <c r="K103" s="1" t="n">
-        <v>0</v>
+        <v>6.975</v>
       </c>
       <c r="L103" s="1" t="n"/>
       <c r="M103" s="1" t="n">
@@ -7707,14 +7715,16 @@
         <v>0</v>
       </c>
       <c r="O103" s="1" t="n">
-        <v>0</v>
+        <v>-10.05</v>
       </c>
       <c r="P103" s="1" t="n">
-        <v>0</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="Q103" s="1" t="n"/>
       <c r="R103" s="1" t="n"/>
-      <c r="S103" s="1" t="s"/>
+      <c r="S103" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T103" s="1" t="n">
         <v>1</v>
       </c>
@@ -8038,28 +8048,28 @@
         <v>102</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>0</v>
+        <v>-3.549</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>0</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F108" s="1" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="G108" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H108" s="1" t="n">
-        <v>0</v>
+        <v>-5.849</v>
       </c>
       <c r="I108" s="1" t="n">
-        <v>0</v>
+        <v>-1.249</v>
       </c>
       <c r="J108" s="1" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K108" s="1" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L108" s="1" t="n"/>
       <c r="M108" s="1" t="n">
@@ -8069,14 +8079,16 @@
         <v>0</v>
       </c>
       <c r="O108" s="1" t="n">
-        <v>0</v>
+        <v>-3.549</v>
       </c>
       <c r="P108" s="1" t="n">
-        <v>0</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="Q108" s="1" t="n"/>
       <c r="R108" s="1" t="n"/>
-      <c r="S108" s="1" t="s"/>
+      <c r="S108" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T108" s="1" t="n">
         <v>3</v>
       </c>
@@ -8108,28 +8120,28 @@
         <v>102</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>0</v>
+        <v>-3.549</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>0</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F109" s="1" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="G109" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H109" s="1" t="n">
-        <v>0</v>
+        <v>-5.849</v>
       </c>
       <c r="I109" s="1" t="n">
-        <v>0</v>
+        <v>-1.249</v>
       </c>
       <c r="J109" s="1" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K109" s="1" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L109" s="1" t="n"/>
       <c r="M109" s="1" t="n">
@@ -8139,14 +8151,16 @@
         <v>0</v>
       </c>
       <c r="O109" s="1" t="n">
-        <v>0</v>
+        <v>-3.549</v>
       </c>
       <c r="P109" s="1" t="n">
-        <v>0</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="Q109" s="1" t="n"/>
       <c r="R109" s="1" t="n"/>
-      <c r="S109" s="1" t="s"/>
+      <c r="S109" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T109" s="1" t="n">
         <v>2</v>
       </c>
@@ -8178,28 +8192,28 @@
         <v>102</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>0</v>
+        <v>-3.549</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>0</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F110" s="1" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="G110" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H110" s="1" t="n">
-        <v>0</v>
+        <v>-5.849</v>
       </c>
       <c r="I110" s="1" t="n">
-        <v>0</v>
+        <v>-1.249</v>
       </c>
       <c r="J110" s="1" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K110" s="1" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L110" s="1" t="n"/>
       <c r="M110" s="1" t="n">
@@ -8209,14 +8223,16 @@
         <v>0</v>
       </c>
       <c r="O110" s="1" t="n">
-        <v>0</v>
+        <v>-3.549</v>
       </c>
       <c r="P110" s="1" t="n">
-        <v>0</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="Q110" s="1" t="n"/>
       <c r="R110" s="1" t="n"/>
-      <c r="S110" s="1" t="s"/>
+      <c r="S110" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T110" s="1" t="n">
         <v>2</v>
       </c>
@@ -8248,28 +8264,28 @@
         <v>103</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
       <c r="E111" s="1" t="n">
-        <v>0</v>
+        <v>-7.275</v>
       </c>
       <c r="F111" s="1" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G111" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H111" s="1" t="n">
-        <v>0</v>
+        <v>-3.35</v>
       </c>
       <c r="I111" s="1" t="n">
-        <v>0</v>
+        <v>-2.45</v>
       </c>
       <c r="J111" s="1" t="n">
-        <v>0</v>
+        <v>-7.075</v>
       </c>
       <c r="K111" s="1" t="n">
-        <v>0</v>
+        <v>-7.475000000000001</v>
       </c>
       <c r="L111" s="1" t="n"/>
       <c r="M111" s="1" t="n">
@@ -8279,14 +8295,16 @@
         <v>0</v>
       </c>
       <c r="O111" s="1" t="n">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
       <c r="P111" s="1" t="n">
-        <v>0</v>
+        <v>-7.275</v>
       </c>
       <c r="Q111" s="1" t="n"/>
       <c r="R111" s="1" t="n"/>
-      <c r="S111" s="1" t="s"/>
+      <c r="S111" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T111" s="1" t="n">
         <v>2</v>
       </c>
@@ -8318,28 +8336,28 @@
         <v>103</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>0</v>
+        <v>-7.275</v>
       </c>
       <c r="F112" s="1" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G112" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H112" s="1" t="n">
-        <v>0</v>
+        <v>-3.35</v>
       </c>
       <c r="I112" s="1" t="n">
-        <v>0</v>
+        <v>-2.45</v>
       </c>
       <c r="J112" s="1" t="n">
-        <v>0</v>
+        <v>-7.075</v>
       </c>
       <c r="K112" s="1" t="n">
-        <v>0</v>
+        <v>-7.475000000000001</v>
       </c>
       <c r="L112" s="1" t="n"/>
       <c r="M112" s="1" t="n">
@@ -8349,14 +8367,16 @@
         <v>0</v>
       </c>
       <c r="O112" s="1" t="n">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
       <c r="P112" s="1" t="n">
-        <v>0</v>
+        <v>-7.275</v>
       </c>
       <c r="Q112" s="1" t="n"/>
       <c r="R112" s="1" t="n"/>
-      <c r="S112" s="1" t="s"/>
+      <c r="S112" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T112" s="1" t="n">
         <v>1</v>
       </c>
@@ -8388,28 +8408,28 @@
         <v>103</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>0</v>
+        <v>-7.275</v>
       </c>
       <c r="F113" s="1" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G113" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H113" s="1" t="n">
-        <v>0</v>
+        <v>-3.35</v>
       </c>
       <c r="I113" s="1" t="n">
-        <v>0</v>
+        <v>-2.45</v>
       </c>
       <c r="J113" s="1" t="n">
-        <v>0</v>
+        <v>-7.075</v>
       </c>
       <c r="K113" s="1" t="n">
-        <v>0</v>
+        <v>-7.475000000000001</v>
       </c>
       <c r="L113" s="1" t="n"/>
       <c r="M113" s="1" t="n">
@@ -8419,14 +8439,16 @@
         <v>0</v>
       </c>
       <c r="O113" s="1" t="n">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
       <c r="P113" s="1" t="n">
-        <v>0</v>
+        <v>-7.275</v>
       </c>
       <c r="Q113" s="1" t="n"/>
       <c r="R113" s="1" t="n"/>
-      <c r="S113" s="1" t="s"/>
+      <c r="S113" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T113" s="1" t="n">
         <v>2</v>
       </c>
@@ -9394,28 +9416,28 @@
         <v>110</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="E127" s="1" t="n">
-        <v>0</v>
+        <v>-7.275</v>
       </c>
       <c r="F127" s="1" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G127" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H127" s="1" t="n">
-        <v>0</v>
+        <v>-2.4</v>
       </c>
       <c r="I127" s="1" t="n">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="J127" s="1" t="n">
-        <v>0</v>
+        <v>-7.075</v>
       </c>
       <c r="K127" s="1" t="n">
-        <v>0</v>
+        <v>-7.475000000000001</v>
       </c>
       <c r="L127" s="1" t="n"/>
       <c r="M127" s="1" t="n">
@@ -9425,14 +9447,16 @@
         <v>0</v>
       </c>
       <c r="O127" s="1" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="P127" s="1" t="n">
-        <v>0</v>
+        <v>-7.275</v>
       </c>
       <c r="Q127" s="1" t="n"/>
       <c r="R127" s="1" t="n"/>
-      <c r="S127" s="1" t="s"/>
+      <c r="S127" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T127" s="1" t="n">
         <v>1</v>
       </c>
@@ -9464,28 +9488,28 @@
         <v>110</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>0</v>
+        <v>-7.275</v>
       </c>
       <c r="F128" s="1" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G128" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H128" s="1" t="n">
-        <v>0</v>
+        <v>-2.4</v>
       </c>
       <c r="I128" s="1" t="n">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="J128" s="1" t="n">
-        <v>0</v>
+        <v>-7.075</v>
       </c>
       <c r="K128" s="1" t="n">
-        <v>0</v>
+        <v>-7.475000000000001</v>
       </c>
       <c r="L128" s="1" t="n"/>
       <c r="M128" s="1" t="n">
@@ -9495,14 +9519,16 @@
         <v>0</v>
       </c>
       <c r="O128" s="1" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="P128" s="1" t="n">
-        <v>0</v>
+        <v>-7.275</v>
       </c>
       <c r="Q128" s="1" t="n"/>
       <c r="R128" s="1" t="n"/>
-      <c r="S128" s="1" t="s"/>
+      <c r="S128" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T128" s="1" t="n">
         <v>1</v>
       </c>
@@ -12342,7 +12368,7 @@
         <v>140</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>-2.020052</v>
+        <v>-2.02</v>
       </c>
       <c r="E168" s="1" t="n">
         <v>-6.2</v>
@@ -12354,10 +12380,10 @@
         <v>0.6</v>
       </c>
       <c r="H168" s="1" t="n">
-        <v>-4.220052000000001</v>
+        <v>-4.220000000000001</v>
       </c>
       <c r="I168" s="1" t="n">
-        <v>0.179948</v>
+        <v>0.1800000000000002</v>
       </c>
       <c r="J168" s="1" t="n">
         <v>-5.9</v>
@@ -12373,7 +12399,7 @@
         <v>3.916</v>
       </c>
       <c r="O168" s="1" t="n">
-        <v>-2.020052</v>
+        <v>-2.02</v>
       </c>
       <c r="P168" s="1" t="n">
         <v>-10.116</v>

--- a/masks/code/TKIDModule_spreadsheet_20200507_AW.xlsx
+++ b/masks/code/TKIDModule_spreadsheet_20200507_AW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>AGA Marks</t>
   </si>
@@ -381,9 +381,6 @@
     <t>cap2bolo_corner4</t>
   </si>
   <si>
-    <t>heater_bias_lines_from_feed_corner1</t>
-  </si>
-  <si>
     <t>heaterbus_corner1</t>
   </si>
   <si>
@@ -432,16 +429,10 @@
     <t>Al_RES_PRO</t>
   </si>
   <si>
-    <t>Heater_RES_PRO</t>
-  </si>
-  <si>
     <t>pixel_even_PRO</t>
   </si>
   <si>
     <t>pixel_odd_PRO</t>
-  </si>
-  <si>
-    <t>term_RES_PRO</t>
   </si>
   <si>
     <t>XeF2</t>
@@ -859,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB179"/>
+  <dimension ref="A1:AB169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4865,44 +4856,44 @@
       </c>
       <c r="B64" s="1" t="n"/>
       <c r="C64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>-4.05</v>
+        <v>-2.25</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>-0.35</v>
+        <v>-4.7</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>-4.25</v>
+        <v>-4.45</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>-3.85</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>-0.15</v>
+        <v>-4.4</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>-0.55</v>
+        <v>-5</v>
       </c>
       <c r="L64" s="1" t="n"/>
       <c r="M64" s="1" t="n">
-        <v>1.938</v>
+        <v>0</v>
       </c>
       <c r="N64" s="1" t="n">
-        <v>3.925</v>
+        <v>-3.916</v>
       </c>
       <c r="O64" s="1" t="n">
-        <v>-5.988</v>
+        <v>-2.25</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>-4.274999999999999</v>
+        <v>-0.7840000000000003</v>
       </c>
       <c r="Q64" s="1" t="n"/>
       <c r="R64" s="1" t="n"/>
@@ -4910,22 +4901,22 @@
         <v>32</v>
       </c>
       <c r="T64" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U64" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V64" s="1" t="n">
-        <v>29.4</v>
+        <v>4.2</v>
       </c>
       <c r="W64" s="1" t="n">
-        <v>-4.542</v>
+        <v>-0.342</v>
       </c>
       <c r="X64" s="1" t="n">
-        <v>3.788</v>
+        <v>16.8</v>
       </c>
       <c r="Y64" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z64" s="1" t="n"/>
       <c r="AA64" s="1" t="n"/>
@@ -4937,44 +4928,44 @@
       </c>
       <c r="B65" s="1" t="n"/>
       <c r="C65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>-4.05</v>
+        <v>2.2</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>-0.35</v>
+        <v>-4.7</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>-4.25</v>
+        <v>0</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>-3.85</v>
+        <v>4.4</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>-0.15</v>
+        <v>-4.4</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>-0.55</v>
+        <v>-5</v>
       </c>
       <c r="L65" s="1" t="n"/>
       <c r="M65" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N65" s="1" t="n">
-        <v>0</v>
+        <v>3.916</v>
       </c>
       <c r="O65" s="1" t="n">
-        <v>-4.05</v>
+        <v>2.2</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>-0.35</v>
+        <v>-8.616</v>
       </c>
       <c r="Q65" s="1" t="n"/>
       <c r="R65" s="1" t="n"/>
@@ -4982,22 +4973,22 @@
         <v>32</v>
       </c>
       <c r="T65" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U65" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V65" s="1" t="n">
-        <v>22.938</v>
+        <v>-4.2</v>
       </c>
       <c r="W65" s="1" t="n">
-        <v>-33.649</v>
+        <v>-0.342</v>
       </c>
       <c r="X65" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Y65" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z65" s="1" t="n"/>
       <c r="AA65" s="1" t="n"/>
@@ -5005,48 +4996,48 @@
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>-4.05</v>
+        <v>2.45</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>-0.35</v>
+        <v>-10.35</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>0.4</v>
+        <v>15.4</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>0.4</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>-4.25</v>
+        <v>-5.25</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>-3.85</v>
+        <v>10.15</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>-0.15</v>
+        <v>-10.15</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>-0.55</v>
+        <v>-10.55</v>
       </c>
       <c r="L66" s="1" t="n"/>
       <c r="M66" s="1" t="n">
-        <v>-1.938</v>
+        <v>0</v>
       </c>
       <c r="N66" s="1" t="n">
-        <v>-3.907</v>
+        <v>0</v>
       </c>
       <c r="O66" s="1" t="n">
-        <v>-2.112</v>
+        <v>2.45</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>3.557</v>
+        <v>-10.35</v>
       </c>
       <c r="Q66" s="1" t="n"/>
       <c r="R66" s="1" t="n"/>
@@ -5054,22 +5045,22 @@
         <v>32</v>
       </c>
       <c r="T66" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U66" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V66" s="1" t="n">
-        <v>-29.4</v>
+        <v>-0.5</v>
       </c>
       <c r="W66" s="1" t="n">
-        <v>-4.542</v>
+        <v>0</v>
       </c>
       <c r="X66" s="1" t="n">
-        <v>3.788</v>
+        <v>15</v>
       </c>
       <c r="Y66" s="1" t="n">
-        <v>16.8</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="Z66" s="1" t="n"/>
       <c r="AA66" s="1" t="n"/>
@@ -5077,48 +5068,48 @@
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B67" s="1" t="n"/>
       <c r="C67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>-2.25</v>
+        <v>-10.59</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>-4.7</v>
+        <v>-3.075</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>0.6</v>
+        <v>15.4</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>-4.45</v>
+        <v>-10.79</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>-0.04999999999999982</v>
+        <v>-10.39</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>-4.4</v>
+        <v>4.625</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>-5</v>
+        <v>-10.775</v>
       </c>
       <c r="L67" s="1" t="n"/>
       <c r="M67" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N67" s="1" t="n">
-        <v>-3.916</v>
+        <v>0</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>-2.25</v>
+        <v>-10.59</v>
       </c>
       <c r="P67" s="1" t="n">
-        <v>-0.7840000000000003</v>
+        <v>-3.075</v>
       </c>
       <c r="Q67" s="1" t="n"/>
       <c r="R67" s="1" t="n"/>
@@ -5126,22 +5117,22 @@
         <v>32</v>
       </c>
       <c r="T67" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U67" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V67" s="1" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="W67" s="1" t="n">
-        <v>-0.342</v>
+        <v>-1</v>
       </c>
       <c r="X67" s="1" t="n">
-        <v>16.8</v>
+        <v>74</v>
       </c>
       <c r="Y67" s="1" t="n">
-        <v>8.4</v>
+        <v>15</v>
       </c>
       <c r="Z67" s="1" t="n"/>
       <c r="AA67" s="1" t="n"/>
@@ -5149,68 +5140,68 @@
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B68" s="1" t="n"/>
       <c r="C68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>2.2</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>-4.7</v>
+        <v>0.575</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>0</v>
+        <v>7.624999999999999</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>4.4</v>
+        <v>8.524999999999999</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>-4.4</v>
+        <v>1.125</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>-5</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="L68" s="1" t="n"/>
       <c r="M68" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N68" s="1" t="n">
-        <v>3.916</v>
+        <v>-3.463</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>2.2</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>-8.616</v>
+        <v>4.038</v>
       </c>
       <c r="Q68" s="1" t="n"/>
       <c r="R68" s="1" t="n"/>
       <c r="S68" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="T68" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U68" s="1" t="n">
         <v>8</v>
       </c>
       <c r="V68" s="1" t="n">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="W68" s="1" t="n">
-        <v>-0.342</v>
+        <v>-0.341</v>
       </c>
       <c r="X68" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="Y68" s="1" t="n">
         <v>8.4</v>
@@ -5225,67 +5216,67 @@
       </c>
       <c r="B69" s="1" t="n"/>
       <c r="C69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>2.45</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>-10.35</v>
+        <v>-0.575</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>15.4</v>
+        <v>0.9</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>-5.25</v>
+        <v>7.624999999999999</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>10.15</v>
+        <v>8.524999999999999</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>-10.15</v>
+        <v>-0.02499999999999991</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>-10.55</v>
+        <v>-1.125</v>
       </c>
       <c r="L69" s="1" t="n"/>
       <c r="M69" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N69" s="1" t="n">
-        <v>0</v>
+        <v>3.463</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>2.45</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="P69" s="1" t="n">
-        <v>-10.35</v>
+        <v>-4.038</v>
       </c>
       <c r="Q69" s="1" t="n"/>
       <c r="R69" s="1" t="n"/>
       <c r="S69" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="T69" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U69" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V69" s="1" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="W69" s="1" t="n">
-        <v>0</v>
+        <v>-0.341</v>
       </c>
       <c r="X69" s="1" t="n">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="Y69" s="1" t="n">
-        <v>72.68000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z69" s="1" t="n"/>
       <c r="AA69" s="1" t="n"/>
@@ -5297,139 +5288,141 @@
       </c>
       <c r="B70" s="1" t="n"/>
       <c r="C70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>-10.59</v>
+        <v>8.175000000000001</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>-3.075</v>
+        <v>3.125</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>15.4</v>
+        <v>3.5</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>-10.79</v>
+        <v>7.825000000000001</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>-10.39</v>
+        <v>8.525</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>4.625</v>
+        <v>4.875</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>-10.775</v>
+        <v>1.375</v>
       </c>
       <c r="L70" s="1" t="n"/>
       <c r="M70" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N70" s="1" t="n">
-        <v>0</v>
+        <v>-0.013</v>
       </c>
       <c r="O70" s="1" t="n">
-        <v>-10.59</v>
+        <v>8.175000000000001</v>
       </c>
       <c r="P70" s="1" t="n">
-        <v>-3.075</v>
+        <v>3.138</v>
       </c>
       <c r="Q70" s="1" t="n"/>
       <c r="R70" s="1" t="n"/>
       <c r="S70" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="T70" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U70" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="V70" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W70" s="1" t="n">
-        <v>-1</v>
+        <v>-0.328</v>
       </c>
       <c r="X70" s="1" t="n">
-        <v>74</v>
+        <v>8.4</v>
       </c>
       <c r="Y70" s="1" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Z70" s="1" t="n"/>
       <c r="AA70" s="1" t="n"/>
-      <c r="AB70" s="1" t="s"/>
+      <c r="AB70" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="71" spans="1:28">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B71" s="1" t="n"/>
       <c r="C71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>8.074999999999999</v>
+        <v>-3.15</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>0.575</v>
+        <v>-0.96</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>0.9</v>
+        <v>1.634</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>1.1</v>
+        <v>0.62</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>7.624999999999999</v>
+        <v>-3.967</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>8.524999999999999</v>
+        <v>-2.333</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>1.125</v>
+        <v>-0.6499999999999999</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>0.02499999999999991</v>
+        <v>-1.27</v>
       </c>
       <c r="L71" s="1" t="n"/>
       <c r="M71" s="1" t="n">
-        <v>0</v>
+        <v>-1.629</v>
       </c>
       <c r="N71" s="1" t="n">
-        <v>-3.463</v>
+        <v>-3.916</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>8.074999999999999</v>
+        <v>-1.521</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>4.038</v>
+        <v>2.956</v>
       </c>
       <c r="Q71" s="1" t="n"/>
       <c r="R71" s="1" t="n"/>
       <c r="S71" s="1" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="T71" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U71" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V71" s="1" t="n">
-        <v>0</v>
+        <v>-29.4</v>
       </c>
       <c r="W71" s="1" t="n">
-        <v>-0.341</v>
+        <v>-4.542</v>
       </c>
       <c r="X71" s="1" t="n">
-        <v>8.4</v>
+        <v>3.788</v>
       </c>
       <c r="Y71" s="1" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="Z71" s="1" t="n"/>
       <c r="AA71" s="1" t="n"/>
@@ -5437,71 +5430,71 @@
     </row>
     <row r="72" spans="1:28">
       <c r="A72" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B72" s="1" t="n"/>
       <c r="C72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>8.074999999999999</v>
+        <v>-3.15</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>-0.575</v>
+        <v>-1.63</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>0.9</v>
+        <v>1.634</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>1.1</v>
+        <v>0.62</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>7.624999999999999</v>
+        <v>-3.967</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>8.524999999999999</v>
+        <v>-2.333</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>-0.02499999999999991</v>
+        <v>-1.32</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>-1.125</v>
+        <v>-1.94</v>
       </c>
       <c r="L72" s="1" t="n"/>
       <c r="M72" s="1" t="n">
-        <v>0</v>
+        <v>1.629</v>
       </c>
       <c r="N72" s="1" t="n">
-        <v>3.463</v>
+        <v>3.916</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>8.074999999999999</v>
+        <v>-4.779</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>-4.038</v>
+        <v>-5.545999999999999</v>
       </c>
       <c r="Q72" s="1" t="n"/>
       <c r="R72" s="1" t="n"/>
       <c r="S72" s="1" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="T72" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U72" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V72" s="1" t="n">
-        <v>0</v>
+        <v>29.4</v>
       </c>
       <c r="W72" s="1" t="n">
-        <v>-0.341</v>
+        <v>-4.542</v>
       </c>
       <c r="X72" s="1" t="n">
-        <v>8.4</v>
+        <v>3.788</v>
       </c>
       <c r="Y72" s="1" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="Z72" s="1" t="n"/>
       <c r="AA72" s="1" t="n"/>
@@ -5509,77 +5502,75 @@
     </row>
     <row r="73" spans="1:28">
       <c r="A73" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B73" s="1" t="n"/>
       <c r="C73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>8.175000000000001</v>
+        <v>-3.15</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>3.125</v>
+        <v>-1.63</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>0.7</v>
+        <v>1.634</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>3.5</v>
+        <v>0.62</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>7.825000000000001</v>
+        <v>-3.967</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>8.525</v>
+        <v>-2.333</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>4.875</v>
+        <v>-1.32</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>1.375</v>
+        <v>-1.94</v>
       </c>
       <c r="L73" s="1" t="n"/>
       <c r="M73" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N73" s="1" t="n">
-        <v>-0.013</v>
+        <v>0</v>
       </c>
       <c r="O73" s="1" t="n">
-        <v>8.175000000000001</v>
+        <v>-3.15</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>3.138</v>
+        <v>-1.63</v>
       </c>
       <c r="Q73" s="1" t="n"/>
       <c r="R73" s="1" t="n"/>
       <c r="S73" s="1" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="T73" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U73" s="1" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="V73" s="1" t="n">
-        <v>0</v>
+        <v>22.629</v>
       </c>
       <c r="W73" s="1" t="n">
-        <v>-0.328</v>
+        <v>-33.658</v>
       </c>
       <c r="X73" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Y73" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z73" s="1" t="n"/>
       <c r="AA73" s="1" t="n"/>
-      <c r="AB73" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AB73" s="1" t="s"/>
     </row>
     <row r="74" spans="1:28">
       <c r="A74" s="1" t="s">
@@ -5587,44 +5578,44 @@
       </c>
       <c r="B74" s="1" t="n"/>
       <c r="C74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>-3.15</v>
+        <v>1.354</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>-0.96</v>
+        <v>-5.36</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>1.634</v>
+        <v>4.892</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>0.62</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>-3.967</v>
+        <v>-1.092</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>-2.333</v>
+        <v>3.8</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>-0.6499999999999999</v>
+        <v>-5.050000000000001</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>-1.27</v>
+        <v>-5.67</v>
       </c>
       <c r="L74" s="1" t="n"/>
       <c r="M74" s="1" t="n">
-        <v>-1.629</v>
+        <v>0</v>
       </c>
       <c r="N74" s="1" t="n">
-        <v>-3.916</v>
+        <v>3.916</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>-1.521</v>
+        <v>1.354</v>
       </c>
       <c r="P74" s="1" t="n">
-        <v>2.956</v>
+        <v>-9.276</v>
       </c>
       <c r="Q74" s="1" t="n"/>
       <c r="R74" s="1" t="n"/>
@@ -5632,22 +5623,22 @@
         <v>32</v>
       </c>
       <c r="T74" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U74" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V74" s="1" t="n">
-        <v>-29.4</v>
+        <v>-4.2</v>
       </c>
       <c r="W74" s="1" t="n">
-        <v>-4.542</v>
+        <v>-0.342</v>
       </c>
       <c r="X74" s="1" t="n">
-        <v>3.788</v>
+        <v>16.8</v>
       </c>
       <c r="Y74" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z74" s="1" t="n"/>
       <c r="AA74" s="1" t="n"/>
@@ -5659,44 +5650,44 @@
       </c>
       <c r="B75" s="1" t="n"/>
       <c r="C75" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>-3.15</v>
+        <v>1.354</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>-1.63</v>
+        <v>-5.36</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>1.634</v>
+        <v>4.892</v>
       </c>
       <c r="G75" s="1" t="n">
         <v>0.62</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>-3.967</v>
+        <v>-1.092</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>-2.333</v>
+        <v>3.8</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>-1.32</v>
+        <v>-5.050000000000001</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>-1.94</v>
+        <v>-5.67</v>
       </c>
       <c r="L75" s="1" t="n"/>
       <c r="M75" s="1" t="n">
-        <v>1.629</v>
+        <v>0</v>
       </c>
       <c r="N75" s="1" t="n">
-        <v>3.916</v>
+        <v>-3.916</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>-4.779</v>
+        <v>1.354</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>-5.545999999999999</v>
+        <v>-1.444</v>
       </c>
       <c r="Q75" s="1" t="n"/>
       <c r="R75" s="1" t="n"/>
@@ -5704,22 +5695,22 @@
         <v>32</v>
       </c>
       <c r="T75" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U75" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V75" s="1" t="n">
-        <v>29.4</v>
+        <v>4.2</v>
       </c>
       <c r="W75" s="1" t="n">
-        <v>-4.542</v>
+        <v>-0.342</v>
       </c>
       <c r="X75" s="1" t="n">
-        <v>3.788</v>
+        <v>16.8</v>
       </c>
       <c r="Y75" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z75" s="1" t="n"/>
       <c r="AA75" s="1" t="n"/>
@@ -5727,48 +5718,48 @@
     </row>
     <row r="76" spans="1:28">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76" s="1" t="n"/>
       <c r="C76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>-3.15</v>
+        <v>-6.45</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>-1.63</v>
+        <v>7.45</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>1.634</v>
+        <v>1.1</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>0.62</v>
+        <v>4</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>-3.967</v>
+        <v>-7</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>-2.333</v>
+        <v>-5.9</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>-1.32</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>-1.94</v>
+        <v>5.45</v>
       </c>
       <c r="L76" s="1" t="n"/>
       <c r="M76" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N76" s="1" t="n">
-        <v>0</v>
+        <v>-0.013</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>-3.15</v>
+        <v>-6.45</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>-1.63</v>
+        <v>7.463</v>
       </c>
       <c r="Q76" s="1" t="n"/>
       <c r="R76" s="1" t="n"/>
@@ -5776,71 +5767,73 @@
         <v>32</v>
       </c>
       <c r="T76" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U76" s="1" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="V76" s="1" t="n">
-        <v>22.629</v>
+        <v>0</v>
       </c>
       <c r="W76" s="1" t="n">
-        <v>-33.658</v>
+        <v>-0.328</v>
       </c>
       <c r="X76" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y76" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z76" s="1" t="n"/>
       <c r="AA76" s="1" t="n"/>
-      <c r="AB76" s="1" t="s"/>
+      <c r="AB76" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="77" spans="1:28">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B77" s="1" t="n"/>
       <c r="C77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>1.354</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>-5.36</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>4.892</v>
+        <v>1.2</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>0.62</v>
+        <v>4.2</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>-1.092</v>
+        <v>-9.799999999999999</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>3.8</v>
+        <v>-8.6</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>-5.050000000000001</v>
+        <v>11.175</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>-5.67</v>
+        <v>6.975</v>
       </c>
       <c r="L77" s="1" t="n"/>
       <c r="M77" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N77" s="1" t="n">
-        <v>3.916</v>
+        <v>-0.013</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>1.354</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>-9.276</v>
+        <v>9.087999999999999</v>
       </c>
       <c r="Q77" s="1" t="n"/>
       <c r="R77" s="1" t="n"/>
@@ -5848,71 +5841,73 @@
         <v>32</v>
       </c>
       <c r="T77" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U77" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" s="1" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="X77" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y77" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="U77" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V77" s="1" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="W77" s="1" t="n">
-        <v>-0.342</v>
-      </c>
-      <c r="X77" s="1" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="Y77" s="1" t="n">
-        <v>8.4</v>
       </c>
       <c r="Z77" s="1" t="n"/>
       <c r="AA77" s="1" t="n"/>
-      <c r="AB77" s="1" t="s"/>
+      <c r="AB77" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B78" s="1" t="n"/>
       <c r="C78" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>1.354</v>
+        <v>-0.15</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>-5.36</v>
+        <v>-0.85</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>4.892</v>
+        <v>0.9</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>-1.092</v>
+        <v>-0.6</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>-5.050000000000001</v>
+        <v>-0.6</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>-5.67</v>
+        <v>-1.1</v>
       </c>
       <c r="L78" s="1" t="n"/>
       <c r="M78" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N78" s="1" t="n">
-        <v>-3.916</v>
+        <v>0</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>1.354</v>
+        <v>-0.15</v>
       </c>
       <c r="P78" s="1" t="n">
-        <v>-1.444</v>
+        <v>-0.85</v>
       </c>
       <c r="Q78" s="1" t="n"/>
       <c r="R78" s="1" t="n"/>
@@ -5926,10 +5921,10 @@
         <v>8</v>
       </c>
       <c r="V78" s="1" t="n">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="W78" s="1" t="n">
-        <v>-0.342</v>
+        <v>3.558</v>
       </c>
       <c r="X78" s="1" t="n">
         <v>16.8</v>
@@ -5943,48 +5938,48 @@
     </row>
     <row r="79" spans="1:28">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79" s="1" t="n"/>
       <c r="C79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>-6.45</v>
+        <v>-0.15</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>7.45</v>
+        <v>-0.85</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>-7</v>
+        <v>-0.6</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>-5.9</v>
+        <v>0.3</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>9.449999999999999</v>
+        <v>-0.6</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>5.45</v>
+        <v>-1.1</v>
       </c>
       <c r="L79" s="1" t="n"/>
       <c r="M79" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N79" s="1" t="n">
-        <v>-0.013</v>
+        <v>0</v>
       </c>
       <c r="O79" s="1" t="n">
-        <v>-6.45</v>
+        <v>-0.15</v>
       </c>
       <c r="P79" s="1" t="n">
-        <v>7.463</v>
+        <v>-0.85</v>
       </c>
       <c r="Q79" s="1" t="n"/>
       <c r="R79" s="1" t="n"/>
@@ -5992,73 +5987,71 @@
         <v>32</v>
       </c>
       <c r="T79" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U79" s="1" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="V79" s="1" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="W79" s="1" t="n">
-        <v>-0.328</v>
+        <v>-4.242</v>
       </c>
       <c r="X79" s="1" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="Y79" s="1" t="n">
         <v>8.4</v>
-      </c>
-      <c r="Y79" s="1" t="n">
-        <v>4</v>
       </c>
       <c r="Z79" s="1" t="n"/>
       <c r="AA79" s="1" t="n"/>
-      <c r="AB79" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AB79" s="1" t="s"/>
     </row>
     <row r="80" spans="1:28">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80" s="1" t="n"/>
       <c r="C80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-0.35</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>9.074999999999999</v>
+        <v>-0.3</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>-9.799999999999999</v>
+        <v>-0.7</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>-8.6</v>
+        <v>0</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>11.175</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K80" s="1" t="n">
-        <v>6.975</v>
+        <v>-0.55</v>
       </c>
       <c r="L80" s="1" t="n"/>
       <c r="M80" s="1" t="n">
-        <v>0</v>
+        <v>-1.47</v>
       </c>
       <c r="N80" s="1" t="n">
-        <v>-0.013</v>
+        <v>-3.916</v>
       </c>
       <c r="O80" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>9.087999999999999</v>
+        <v>3.616</v>
       </c>
       <c r="Q80" s="1" t="n"/>
       <c r="R80" s="1" t="n"/>
@@ -6066,28 +6059,26 @@
         <v>32</v>
       </c>
       <c r="T80" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U80" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="V80" s="1" t="n">
-        <v>0</v>
+        <v>-29.4</v>
       </c>
       <c r="W80" s="1" t="n">
-        <v>-0.328</v>
+        <v>-4.542</v>
       </c>
       <c r="X80" s="1" t="n">
-        <v>8.4</v>
+        <v>3.788</v>
       </c>
       <c r="Y80" s="1" t="n">
-        <v>4</v>
+        <v>16.8</v>
       </c>
       <c r="Z80" s="1" t="n"/>
       <c r="AA80" s="1" t="n"/>
-      <c r="AB80" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AB80" s="1" t="s"/>
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="1" t="s">
@@ -6095,44 +6086,44 @@
       </c>
       <c r="B81" s="1" t="n"/>
       <c r="C81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>-0.15</v>
+        <v>0.4</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>-0.85</v>
+        <v>-0.3</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>-0.6</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>-0.6</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K81" s="1" t="n">
-        <v>-1.1</v>
+        <v>-0.55</v>
       </c>
       <c r="L81" s="1" t="n"/>
       <c r="M81" s="1" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="N81" s="1" t="n">
-        <v>0</v>
+        <v>3.916</v>
       </c>
       <c r="O81" s="1" t="n">
-        <v>-0.15</v>
+        <v>-1.07</v>
       </c>
       <c r="P81" s="1" t="n">
-        <v>-0.85</v>
+        <v>-4.216</v>
       </c>
       <c r="Q81" s="1" t="n"/>
       <c r="R81" s="1" t="n"/>
@@ -6140,22 +6131,22 @@
         <v>32</v>
       </c>
       <c r="T81" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U81" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V81" s="1" t="n">
-        <v>-4.2</v>
+        <v>29.4</v>
       </c>
       <c r="W81" s="1" t="n">
-        <v>3.558</v>
+        <v>-4.542</v>
       </c>
       <c r="X81" s="1" t="n">
+        <v>3.788</v>
+      </c>
+      <c r="Y81" s="1" t="n">
         <v>16.8</v>
-      </c>
-      <c r="Y81" s="1" t="n">
-        <v>8.4</v>
       </c>
       <c r="Z81" s="1" t="n"/>
       <c r="AA81" s="1" t="n"/>
@@ -6167,31 +6158,31 @@
       </c>
       <c r="B82" s="1" t="n"/>
       <c r="C82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>-0.15</v>
+        <v>0.4</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>-0.85</v>
+        <v>-0.3</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>-0.6</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>-0.6</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K82" s="1" t="n">
-        <v>-1.1</v>
+        <v>-0.55</v>
       </c>
       <c r="L82" s="1" t="n"/>
       <c r="M82" s="1" t="n">
@@ -6201,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="O82" s="1" t="n">
-        <v>-0.15</v>
+        <v>0.4</v>
       </c>
       <c r="P82" s="1" t="n">
-        <v>-0.85</v>
+        <v>-0.3</v>
       </c>
       <c r="Q82" s="1" t="n"/>
       <c r="R82" s="1" t="n"/>
@@ -6212,22 +6203,22 @@
         <v>32</v>
       </c>
       <c r="T82" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U82" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V82" s="1" t="n">
-        <v>4.2</v>
+        <v>22.47</v>
       </c>
       <c r="W82" s="1" t="n">
-        <v>-4.242</v>
+        <v>-33.658</v>
       </c>
       <c r="X82" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Y82" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z82" s="1" t="n"/>
       <c r="AA82" s="1" t="n"/>
@@ -6239,44 +6230,44 @@
       </c>
       <c r="B83" s="1" t="n"/>
       <c r="C83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>-0.35</v>
+        <v>-2.942</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>-0.3</v>
+        <v>-5.3</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="G83" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>-0.7</v>
+        <v>-4.742</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>0</v>
+        <v>-1.142</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>-0.04999999999999999</v>
+        <v>-5.05</v>
       </c>
       <c r="K83" s="1" t="n">
-        <v>-0.55</v>
+        <v>-5.55</v>
       </c>
       <c r="L83" s="1" t="n"/>
       <c r="M83" s="1" t="n">
-        <v>-1.47</v>
+        <v>0</v>
       </c>
       <c r="N83" s="1" t="n">
-        <v>-3.916</v>
+        <v>3.916</v>
       </c>
       <c r="O83" s="1" t="n">
-        <v>1.12</v>
+        <v>-2.942</v>
       </c>
       <c r="P83" s="1" t="n">
-        <v>3.616</v>
+        <v>-9.215999999999999</v>
       </c>
       <c r="Q83" s="1" t="n"/>
       <c r="R83" s="1" t="n"/>
@@ -6284,22 +6275,22 @@
         <v>32</v>
       </c>
       <c r="T83" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U83" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V83" s="1" t="n">
-        <v>-29.4</v>
+        <v>-4.2</v>
       </c>
       <c r="W83" s="1" t="n">
-        <v>-4.542</v>
+        <v>-0.342</v>
       </c>
       <c r="X83" s="1" t="n">
-        <v>3.788</v>
+        <v>16.8</v>
       </c>
       <c r="Y83" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z83" s="1" t="n"/>
       <c r="AA83" s="1" t="n"/>
@@ -6311,44 +6302,44 @@
       </c>
       <c r="B84" s="1" t="n"/>
       <c r="C84" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>0.4</v>
+        <v>-2.942</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>-0.3</v>
+        <v>-5.3</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>0.05000000000000004</v>
+        <v>-4.742</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>0.75</v>
+        <v>-1.142</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>-0.04999999999999999</v>
+        <v>-5.05</v>
       </c>
       <c r="K84" s="1" t="n">
-        <v>-0.55</v>
+        <v>-5.55</v>
       </c>
       <c r="L84" s="1" t="n"/>
       <c r="M84" s="1" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="N84" s="1" t="n">
-        <v>3.916</v>
+        <v>-3.916</v>
       </c>
       <c r="O84" s="1" t="n">
-        <v>-1.07</v>
+        <v>-2.942</v>
       </c>
       <c r="P84" s="1" t="n">
-        <v>-4.216</v>
+        <v>-1.384</v>
       </c>
       <c r="Q84" s="1" t="n"/>
       <c r="R84" s="1" t="n"/>
@@ -6356,22 +6347,22 @@
         <v>32</v>
       </c>
       <c r="T84" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U84" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V84" s="1" t="n">
-        <v>29.4</v>
+        <v>4.2</v>
       </c>
       <c r="W84" s="1" t="n">
-        <v>-4.542</v>
+        <v>-0.342</v>
       </c>
       <c r="X84" s="1" t="n">
-        <v>3.788</v>
+        <v>16.8</v>
       </c>
       <c r="Y84" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z84" s="1" t="n"/>
       <c r="AA84" s="1" t="n"/>
@@ -6379,35 +6370,35 @@
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B85" s="1" t="n"/>
       <c r="C85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D85" s="1" t="n">
+        <v>-5.45</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>-6.375</v>
+      </c>
+      <c r="F85" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="E85" s="1" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="F85" s="1" t="n">
-        <v>0.7</v>
-      </c>
       <c r="G85" s="1" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>0.05000000000000004</v>
+        <v>-5.65</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>0.75</v>
+        <v>-5.25</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>-0.04999999999999999</v>
+        <v>-4.975</v>
       </c>
       <c r="K85" s="1" t="n">
-        <v>-0.55</v>
+        <v>-7.775</v>
       </c>
       <c r="L85" s="1" t="n"/>
       <c r="M85" s="1" t="n">
@@ -6417,10 +6408,10 @@
         <v>0</v>
       </c>
       <c r="O85" s="1" t="n">
-        <v>0.4</v>
+        <v>-5.45</v>
       </c>
       <c r="P85" s="1" t="n">
-        <v>-0.3</v>
+        <v>-6.375</v>
       </c>
       <c r="Q85" s="1" t="n"/>
       <c r="R85" s="1" t="n"/>
@@ -6434,10 +6425,10 @@
         <v>1</v>
       </c>
       <c r="V85" s="1" t="n">
-        <v>22.47</v>
+        <v>17.5</v>
       </c>
       <c r="W85" s="1" t="n">
-        <v>-33.658</v>
+        <v>34.858</v>
       </c>
       <c r="X85" s="1" t="n">
         <v>0</v>
@@ -6451,48 +6442,48 @@
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B86" s="1" t="n"/>
       <c r="C86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>-2.942</v>
+        <v>0.4</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>-5.3</v>
+        <v>-2.35</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>-4.742</v>
+        <v>0.1</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>-1.142</v>
+        <v>0.7</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>-5.05</v>
+        <v>-2.15</v>
       </c>
       <c r="K86" s="1" t="n">
-        <v>-5.55</v>
+        <v>-2.55</v>
       </c>
       <c r="L86" s="1" t="n"/>
       <c r="M86" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N86" s="1" t="n">
-        <v>3.916</v>
+        <v>0</v>
       </c>
       <c r="O86" s="1" t="n">
-        <v>-2.942</v>
+        <v>0.4</v>
       </c>
       <c r="P86" s="1" t="n">
-        <v>-9.215999999999999</v>
+        <v>-2.35</v>
       </c>
       <c r="Q86" s="1" t="n"/>
       <c r="R86" s="1" t="n"/>
@@ -6500,22 +6491,22 @@
         <v>32</v>
       </c>
       <c r="T86" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U86" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V86" s="1" t="n">
-        <v>-4.2</v>
+        <v>-17.1</v>
       </c>
       <c r="W86" s="1" t="n">
-        <v>-0.342</v>
+        <v>33.258</v>
       </c>
       <c r="X86" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Y86" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z86" s="1" t="n"/>
       <c r="AA86" s="1" t="n"/>
@@ -6523,48 +6514,48 @@
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B87" s="1" t="n"/>
       <c r="C87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>-2.942</v>
+        <v>-0.77</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>-5.3</v>
+        <v>-2.45</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>-4.742</v>
+        <v>-0.97</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>-1.142</v>
+        <v>-0.5700000000000001</v>
       </c>
       <c r="J87" s="1" t="n">
-        <v>-5.05</v>
+        <v>-2.15</v>
       </c>
       <c r="K87" s="1" t="n">
-        <v>-5.55</v>
+        <v>-2.75</v>
       </c>
       <c r="L87" s="1" t="n"/>
       <c r="M87" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N87" s="1" t="n">
-        <v>-3.916</v>
+        <v>0</v>
       </c>
       <c r="O87" s="1" t="n">
-        <v>-2.942</v>
+        <v>-0.77</v>
       </c>
       <c r="P87" s="1" t="n">
-        <v>-1.384</v>
+        <v>-2.45</v>
       </c>
       <c r="Q87" s="1" t="n"/>
       <c r="R87" s="1" t="n"/>
@@ -6572,22 +6563,22 @@
         <v>32</v>
       </c>
       <c r="T87" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U87" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V87" s="1" t="n">
-        <v>4.2</v>
+        <v>-17.2</v>
       </c>
       <c r="W87" s="1" t="n">
-        <v>-0.342</v>
+        <v>33.358</v>
       </c>
       <c r="X87" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Y87" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z87" s="1" t="n"/>
       <c r="AA87" s="1" t="n"/>
@@ -6599,13 +6590,13 @@
       </c>
       <c r="B88" s="1" t="n"/>
       <c r="C88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>-5.45</v>
+        <v>-9.69</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>-6.375</v>
+        <v>5.525</v>
       </c>
       <c r="F88" s="1" t="n">
         <v>0.4</v>
@@ -6614,16 +6605,16 @@
         <v>2.8</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>-5.65</v>
+        <v>-9.889999999999999</v>
       </c>
       <c r="I88" s="1" t="n">
-        <v>-5.25</v>
+        <v>-9.49</v>
       </c>
       <c r="J88" s="1" t="n">
-        <v>-4.975</v>
+        <v>6.925000000000001</v>
       </c>
       <c r="K88" s="1" t="n">
-        <v>-7.775</v>
+        <v>4.125</v>
       </c>
       <c r="L88" s="1" t="n"/>
       <c r="M88" s="1" t="n">
@@ -6633,10 +6624,10 @@
         <v>0</v>
       </c>
       <c r="O88" s="1" t="n">
-        <v>-5.45</v>
+        <v>-9.69</v>
       </c>
       <c r="P88" s="1" t="n">
-        <v>-6.375</v>
+        <v>5.525</v>
       </c>
       <c r="Q88" s="1" t="n"/>
       <c r="R88" s="1" t="n"/>
@@ -6650,10 +6641,10 @@
         <v>1</v>
       </c>
       <c r="V88" s="1" t="n">
-        <v>17.5</v>
+        <v>-17.2</v>
       </c>
       <c r="W88" s="1" t="n">
-        <v>34.858</v>
+        <v>34.658</v>
       </c>
       <c r="X88" s="1" t="n">
         <v>0</v>
@@ -6671,31 +6662,31 @@
       </c>
       <c r="B89" s="1" t="n"/>
       <c r="C89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>0.4</v>
+        <v>-2.9</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>-2.35</v>
+        <v>-6.8</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>0.1</v>
+        <v>-4.6</v>
       </c>
       <c r="I89" s="1" t="n">
-        <v>0.7</v>
+        <v>-1.2</v>
       </c>
       <c r="J89" s="1" t="n">
-        <v>-2.15</v>
+        <v>-6.55</v>
       </c>
       <c r="K89" s="1" t="n">
-        <v>-2.55</v>
+        <v>-7.05</v>
       </c>
       <c r="L89" s="1" t="n"/>
       <c r="M89" s="1" t="n">
@@ -6705,10 +6696,10 @@
         <v>0</v>
       </c>
       <c r="O89" s="1" t="n">
-        <v>0.4</v>
+        <v>-2.9</v>
       </c>
       <c r="P89" s="1" t="n">
-        <v>-2.35</v>
+        <v>-6.8</v>
       </c>
       <c r="Q89" s="1" t="n"/>
       <c r="R89" s="1" t="n"/>
@@ -6722,10 +6713,10 @@
         <v>1</v>
       </c>
       <c r="V89" s="1" t="n">
-        <v>-17.1</v>
+        <v>-24.208</v>
       </c>
       <c r="W89" s="1" t="n">
-        <v>33.258</v>
+        <v>33.662</v>
       </c>
       <c r="X89" s="1" t="n">
         <v>0</v>
@@ -6743,31 +6734,31 @@
       </c>
       <c r="B90" s="1" t="n"/>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>-0.77</v>
+        <v>8</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>-2.45</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>-0.97</v>
+        <v>7.15</v>
       </c>
       <c r="I90" s="1" t="n">
-        <v>-0.5700000000000001</v>
+        <v>8.85</v>
       </c>
       <c r="J90" s="1" t="n">
-        <v>-2.15</v>
+        <v>-7.499999999999999</v>
       </c>
       <c r="K90" s="1" t="n">
-        <v>-2.75</v>
+        <v>-8.899999999999999</v>
       </c>
       <c r="L90" s="1" t="n"/>
       <c r="M90" s="1" t="n">
@@ -6777,10 +6768,10 @@
         <v>0</v>
       </c>
       <c r="O90" s="1" t="n">
-        <v>-0.77</v>
+        <v>8</v>
       </c>
       <c r="P90" s="1" t="n">
-        <v>-2.45</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q90" s="1" t="n"/>
       <c r="R90" s="1" t="n"/>
@@ -6791,19 +6782,19 @@
         <v>1</v>
       </c>
       <c r="U90" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V90" s="1" t="n">
-        <v>-17.2</v>
+        <v>-35.765</v>
       </c>
       <c r="W90" s="1" t="n">
-        <v>33.358</v>
+        <v>7.57</v>
       </c>
       <c r="X90" s="1" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Y90" s="1" t="n">
-        <v>0</v>
+        <v>42.76</v>
       </c>
       <c r="Z90" s="1" t="n"/>
       <c r="AA90" s="1" t="n"/>
@@ -6815,31 +6806,31 @@
       </c>
       <c r="B91" s="1" t="n"/>
       <c r="C91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>-9.69</v>
+        <v>8</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>5.525</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>-9.889999999999999</v>
+        <v>7.15</v>
       </c>
       <c r="I91" s="1" t="n">
-        <v>-9.49</v>
+        <v>8.85</v>
       </c>
       <c r="J91" s="1" t="n">
-        <v>6.925000000000001</v>
+        <v>-7.499999999999999</v>
       </c>
       <c r="K91" s="1" t="n">
-        <v>4.125</v>
+        <v>-8.899999999999999</v>
       </c>
       <c r="L91" s="1" t="n"/>
       <c r="M91" s="1" t="n">
@@ -6849,10 +6840,10 @@
         <v>0</v>
       </c>
       <c r="O91" s="1" t="n">
-        <v>-9.69</v>
+        <v>8</v>
       </c>
       <c r="P91" s="1" t="n">
-        <v>5.525</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q91" s="1" t="n"/>
       <c r="R91" s="1" t="n"/>
@@ -6863,19 +6854,19 @@
         <v>1</v>
       </c>
       <c r="U91" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V91" s="1" t="n">
-        <v>-17.2</v>
+        <v>-35.775</v>
       </c>
       <c r="W91" s="1" t="n">
-        <v>34.658</v>
+        <v>0.42</v>
       </c>
       <c r="X91" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y91" s="1" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Z91" s="1" t="n"/>
       <c r="AA91" s="1" t="n"/>
@@ -6887,31 +6878,31 @@
       </c>
       <c r="B92" s="1" t="n"/>
       <c r="C92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>-2.9</v>
+        <v>6.8</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>-6.8</v>
+        <v>8.65</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>3.4</v>
+        <v>7.4</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>-4.6</v>
+        <v>3.1</v>
       </c>
       <c r="I92" s="1" t="n">
-        <v>-1.2</v>
+        <v>10.5</v>
       </c>
       <c r="J92" s="1" t="n">
-        <v>-6.55</v>
+        <v>9.450000000000001</v>
       </c>
       <c r="K92" s="1" t="n">
-        <v>-7.05</v>
+        <v>7.850000000000001</v>
       </c>
       <c r="L92" s="1" t="n"/>
       <c r="M92" s="1" t="n">
@@ -6921,10 +6912,10 @@
         <v>0</v>
       </c>
       <c r="O92" s="1" t="n">
-        <v>-2.9</v>
+        <v>6.8</v>
       </c>
       <c r="P92" s="1" t="n">
-        <v>-6.8</v>
+        <v>8.65</v>
       </c>
       <c r="Q92" s="1" t="n"/>
       <c r="R92" s="1" t="n"/>
@@ -6932,22 +6923,22 @@
         <v>32</v>
       </c>
       <c r="T92" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U92" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V92" s="1" t="n">
-        <v>-24.208</v>
+        <v>-4.352</v>
       </c>
       <c r="W92" s="1" t="n">
-        <v>33.662</v>
+        <v>35.331</v>
       </c>
       <c r="X92" s="1" t="n">
-        <v>0</v>
+        <v>34.692</v>
       </c>
       <c r="Y92" s="1" t="n">
-        <v>0</v>
+        <v>1.225</v>
       </c>
       <c r="Z92" s="1" t="n"/>
       <c r="AA92" s="1" t="n"/>
@@ -6959,31 +6950,31 @@
       </c>
       <c r="B93" s="1" t="n"/>
       <c r="C93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>8</v>
+        <v>-0.17</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>-8.199999999999999</v>
+        <v>-3.225</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>7.15</v>
+        <v>-0.52</v>
       </c>
       <c r="I93" s="1" t="n">
-        <v>8.85</v>
+        <v>0.18</v>
       </c>
       <c r="J93" s="1" t="n">
-        <v>-7.499999999999999</v>
+        <v>-3.025</v>
       </c>
       <c r="K93" s="1" t="n">
-        <v>-8.899999999999999</v>
+        <v>-3.425</v>
       </c>
       <c r="L93" s="1" t="n"/>
       <c r="M93" s="1" t="n">
@@ -6993,10 +6984,10 @@
         <v>0</v>
       </c>
       <c r="O93" s="1" t="n">
-        <v>8</v>
+        <v>-0.17</v>
       </c>
       <c r="P93" s="1" t="n">
-        <v>-8.199999999999999</v>
+        <v>-3.225</v>
       </c>
       <c r="Q93" s="1" t="n"/>
       <c r="R93" s="1" t="n"/>
@@ -7007,19 +6998,19 @@
         <v>1</v>
       </c>
       <c r="U93" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V93" s="1" t="n">
-        <v>-35.765</v>
+        <v>34.25</v>
       </c>
       <c r="W93" s="1" t="n">
-        <v>7.57</v>
+        <v>-26.142</v>
       </c>
       <c r="X93" s="1" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="Y93" s="1" t="n">
-        <v>42.76</v>
+        <v>0</v>
       </c>
       <c r="Z93" s="1" t="n"/>
       <c r="AA93" s="1" t="n"/>
@@ -7031,31 +7022,31 @@
       </c>
       <c r="B94" s="1" t="n"/>
       <c r="C94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>8</v>
+        <v>-9.24</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.725</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>7.15</v>
+        <v>-9.44</v>
       </c>
       <c r="I94" s="1" t="n">
-        <v>8.85</v>
+        <v>-9.040000000000001</v>
       </c>
       <c r="J94" s="1" t="n">
-        <v>-7.499999999999999</v>
+        <v>-6.675</v>
       </c>
       <c r="K94" s="1" t="n">
-        <v>-8.899999999999999</v>
+        <v>-10.775</v>
       </c>
       <c r="L94" s="1" t="n"/>
       <c r="M94" s="1" t="n">
@@ -7065,10 +7056,10 @@
         <v>0</v>
       </c>
       <c r="O94" s="1" t="n">
-        <v>8</v>
+        <v>-9.24</v>
       </c>
       <c r="P94" s="1" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.725</v>
       </c>
       <c r="Q94" s="1" t="n"/>
       <c r="R94" s="1" t="n"/>
@@ -7079,19 +7070,19 @@
         <v>1</v>
       </c>
       <c r="U94" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V94" s="1" t="n">
-        <v>-35.775</v>
+        <v>34.029</v>
       </c>
       <c r="W94" s="1" t="n">
-        <v>0.42</v>
+        <v>2.008</v>
       </c>
       <c r="X94" s="1" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Y94" s="1" t="n">
-        <v>1.4</v>
+        <v>16.8</v>
       </c>
       <c r="Z94" s="1" t="n"/>
       <c r="AA94" s="1" t="n"/>
@@ -7103,31 +7094,31 @@
       </c>
       <c r="B95" s="1" t="n"/>
       <c r="C95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>6.8</v>
+        <v>-9.24</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>8.65</v>
+        <v>-8.725</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>7.4</v>
+        <v>0.4</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>3.1</v>
+        <v>-9.44</v>
       </c>
       <c r="I95" s="1" t="n">
-        <v>10.5</v>
+        <v>-9.040000000000001</v>
       </c>
       <c r="J95" s="1" t="n">
-        <v>9.450000000000001</v>
+        <v>-6.675</v>
       </c>
       <c r="K95" s="1" t="n">
-        <v>7.850000000000001</v>
+        <v>-10.775</v>
       </c>
       <c r="L95" s="1" t="n"/>
       <c r="M95" s="1" t="n">
@@ -7137,10 +7128,10 @@
         <v>0</v>
       </c>
       <c r="O95" s="1" t="n">
-        <v>6.8</v>
+        <v>-9.24</v>
       </c>
       <c r="P95" s="1" t="n">
-        <v>8.65</v>
+        <v>-8.725</v>
       </c>
       <c r="Q95" s="1" t="n"/>
       <c r="R95" s="1" t="n"/>
@@ -7148,22 +7139,22 @@
         <v>32</v>
       </c>
       <c r="T95" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U95" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V95" s="1" t="n">
-        <v>-4.352</v>
+        <v>-34.029</v>
       </c>
       <c r="W95" s="1" t="n">
-        <v>35.331</v>
+        <v>-2.694</v>
       </c>
       <c r="X95" s="1" t="n">
-        <v>34.692</v>
+        <v>0.005</v>
       </c>
       <c r="Y95" s="1" t="n">
-        <v>1.225</v>
+        <v>16.8</v>
       </c>
       <c r="Z95" s="1" t="n"/>
       <c r="AA95" s="1" t="n"/>
@@ -7175,31 +7166,31 @@
       </c>
       <c r="B96" s="1" t="n"/>
       <c r="C96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>-0.17</v>
+        <v>-6.3</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>-3.225</v>
+        <v>-2.169</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>-0.52</v>
+        <v>-6.899999999999999</v>
       </c>
       <c r="I96" s="1" t="n">
-        <v>0.18</v>
+        <v>-5.7</v>
       </c>
       <c r="J96" s="1" t="n">
-        <v>-3.025</v>
+        <v>-0.1190000000000002</v>
       </c>
       <c r="K96" s="1" t="n">
-        <v>-3.425</v>
+        <v>-4.218999999999999</v>
       </c>
       <c r="L96" s="1" t="n"/>
       <c r="M96" s="1" t="n">
@@ -7209,10 +7200,10 @@
         <v>0</v>
       </c>
       <c r="O96" s="1" t="n">
-        <v>-0.17</v>
+        <v>-6.3</v>
       </c>
       <c r="P96" s="1" t="n">
-        <v>-3.225</v>
+        <v>-2.169</v>
       </c>
       <c r="Q96" s="1" t="n"/>
       <c r="R96" s="1" t="n"/>
@@ -7220,26 +7211,28 @@
         <v>32</v>
       </c>
       <c r="T96" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U96" s="1" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="V96" s="1" t="n">
-        <v>34.25</v>
+        <v>0</v>
       </c>
       <c r="W96" s="1" t="n">
-        <v>-26.142</v>
+        <v>-0.343</v>
       </c>
       <c r="X96" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y96" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z96" s="1" t="n"/>
       <c r="AA96" s="1" t="n"/>
-      <c r="AB96" s="1" t="s"/>
+      <c r="AB96" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="97" spans="1:28">
       <c r="A97" s="1" t="s">
@@ -7247,31 +7240,31 @@
       </c>
       <c r="B97" s="1" t="n"/>
       <c r="C97" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>-9.24</v>
+        <v>-6.3</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>-8.725</v>
+        <v>-2.169</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="G97" s="1" t="n">
         <v>4.1</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>-9.44</v>
+        <v>-6.899999999999999</v>
       </c>
       <c r="I97" s="1" t="n">
-        <v>-9.040000000000001</v>
+        <v>-5.7</v>
       </c>
       <c r="J97" s="1" t="n">
-        <v>-6.675</v>
+        <v>-0.1190000000000002</v>
       </c>
       <c r="K97" s="1" t="n">
-        <v>-10.775</v>
+        <v>-4.218999999999999</v>
       </c>
       <c r="L97" s="1" t="n"/>
       <c r="M97" s="1" t="n">
@@ -7281,10 +7274,10 @@
         <v>0</v>
       </c>
       <c r="O97" s="1" t="n">
-        <v>-9.24</v>
+        <v>-6.3</v>
       </c>
       <c r="P97" s="1" t="n">
-        <v>-8.725</v>
+        <v>-2.169</v>
       </c>
       <c r="Q97" s="1" t="n"/>
       <c r="R97" s="1" t="n"/>
@@ -7298,13 +7291,13 @@
         <v>3</v>
       </c>
       <c r="V97" s="1" t="n">
-        <v>34.029</v>
+        <v>33.6</v>
       </c>
       <c r="W97" s="1" t="n">
-        <v>2.008</v>
+        <v>1.909</v>
       </c>
       <c r="X97" s="1" t="n">
-        <v>0.005</v>
+        <v>0.843</v>
       </c>
       <c r="Y97" s="1" t="n">
         <v>16.8</v>
@@ -7319,31 +7312,31 @@
       </c>
       <c r="B98" s="1" t="n"/>
       <c r="C98" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>-9.24</v>
+        <v>-6.3</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>-8.725</v>
+        <v>-2.169</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="G98" s="1" t="n">
         <v>4.1</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>-9.44</v>
+        <v>-6.899999999999999</v>
       </c>
       <c r="I98" s="1" t="n">
-        <v>-9.040000000000001</v>
+        <v>-5.7</v>
       </c>
       <c r="J98" s="1" t="n">
-        <v>-6.675</v>
+        <v>-0.1190000000000002</v>
       </c>
       <c r="K98" s="1" t="n">
-        <v>-10.775</v>
+        <v>-4.218999999999999</v>
       </c>
       <c r="L98" s="1" t="n"/>
       <c r="M98" s="1" t="n">
@@ -7353,10 +7346,10 @@
         <v>0</v>
       </c>
       <c r="O98" s="1" t="n">
-        <v>-9.24</v>
+        <v>-6.3</v>
       </c>
       <c r="P98" s="1" t="n">
-        <v>-8.725</v>
+        <v>-2.169</v>
       </c>
       <c r="Q98" s="1" t="n"/>
       <c r="R98" s="1" t="n"/>
@@ -7370,13 +7363,13 @@
         <v>3</v>
       </c>
       <c r="V98" s="1" t="n">
-        <v>-34.029</v>
+        <v>-33.6</v>
       </c>
       <c r="W98" s="1" t="n">
-        <v>-2.694</v>
+        <v>-2.585</v>
       </c>
       <c r="X98" s="1" t="n">
-        <v>0.005</v>
+        <v>0.843</v>
       </c>
       <c r="Y98" s="1" t="n">
         <v>16.8</v>
@@ -7391,31 +7384,31 @@
       </c>
       <c r="B99" s="1" t="n"/>
       <c r="C99" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>-6.3</v>
+        <v>-10.05</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>-2.169</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>-6.899999999999999</v>
+        <v>-10.25</v>
       </c>
       <c r="I99" s="1" t="n">
-        <v>-5.7</v>
+        <v>-9.850000000000001</v>
       </c>
       <c r="J99" s="1" t="n">
-        <v>-0.1190000000000002</v>
+        <v>11.175</v>
       </c>
       <c r="K99" s="1" t="n">
-        <v>-4.218999999999999</v>
+        <v>6.975</v>
       </c>
       <c r="L99" s="1" t="n"/>
       <c r="M99" s="1" t="n">
@@ -7425,10 +7418,10 @@
         <v>0</v>
       </c>
       <c r="O99" s="1" t="n">
-        <v>-6.3</v>
+        <v>-10.05</v>
       </c>
       <c r="P99" s="1" t="n">
-        <v>-2.169</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="Q99" s="1" t="n"/>
       <c r="R99" s="1" t="n"/>
@@ -7436,28 +7429,26 @@
         <v>32</v>
       </c>
       <c r="T99" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U99" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="V99" s="1" t="n">
-        <v>0</v>
+        <v>33.181</v>
       </c>
       <c r="W99" s="1" t="n">
-        <v>-0.343</v>
+        <v>5.745</v>
       </c>
       <c r="X99" s="1" t="n">
-        <v>8.4</v>
+        <v>0.005</v>
       </c>
       <c r="Y99" s="1" t="n">
-        <v>4</v>
+        <v>16.8</v>
       </c>
       <c r="Z99" s="1" t="n"/>
       <c r="AA99" s="1" t="n"/>
-      <c r="AB99" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AB99" s="1" t="s"/>
     </row>
     <row r="100" spans="1:28">
       <c r="A100" s="1" t="s">
@@ -7465,31 +7456,31 @@
       </c>
       <c r="B100" s="1" t="n"/>
       <c r="C100" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>-6.3</v>
+        <v>-10.05</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>-2.169</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H100" s="1" t="n">
-        <v>-6.899999999999999</v>
+        <v>-10.25</v>
       </c>
       <c r="I100" s="1" t="n">
-        <v>-5.7</v>
+        <v>-9.850000000000001</v>
       </c>
       <c r="J100" s="1" t="n">
-        <v>-0.1190000000000002</v>
+        <v>11.175</v>
       </c>
       <c r="K100" s="1" t="n">
-        <v>-4.218999999999999</v>
+        <v>6.975</v>
       </c>
       <c r="L100" s="1" t="n"/>
       <c r="M100" s="1" t="n">
@@ -7499,10 +7490,10 @@
         <v>0</v>
       </c>
       <c r="O100" s="1" t="n">
-        <v>-6.3</v>
+        <v>-10.05</v>
       </c>
       <c r="P100" s="1" t="n">
-        <v>-2.169</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="Q100" s="1" t="n"/>
       <c r="R100" s="1" t="n"/>
@@ -7516,13 +7507,13 @@
         <v>3</v>
       </c>
       <c r="V100" s="1" t="n">
-        <v>33.6</v>
+        <v>-33.181</v>
       </c>
       <c r="W100" s="1" t="n">
-        <v>1.909</v>
+        <v>-6.431</v>
       </c>
       <c r="X100" s="1" t="n">
-        <v>0.843</v>
+        <v>0.005</v>
       </c>
       <c r="Y100" s="1" t="n">
         <v>16.8</v>
@@ -7537,31 +7528,31 @@
       </c>
       <c r="B101" s="1" t="n"/>
       <c r="C101" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>-6.3</v>
+        <v>-5.9</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>-2.169</v>
+        <v>-6.575</v>
       </c>
       <c r="F101" s="1" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="G101" s="1" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>-6.899999999999999</v>
+        <v>-6.100000000000001</v>
       </c>
       <c r="I101" s="1" t="n">
         <v>-5.7</v>
       </c>
       <c r="J101" s="1" t="n">
-        <v>-0.1190000000000002</v>
+        <v>-4.375</v>
       </c>
       <c r="K101" s="1" t="n">
-        <v>-4.218999999999999</v>
+        <v>-8.775</v>
       </c>
       <c r="L101" s="1" t="n"/>
       <c r="M101" s="1" t="n">
@@ -7571,10 +7562,10 @@
         <v>0</v>
       </c>
       <c r="O101" s="1" t="n">
-        <v>-6.3</v>
+        <v>-5.9</v>
       </c>
       <c r="P101" s="1" t="n">
-        <v>-2.169</v>
+        <v>-6.575</v>
       </c>
       <c r="Q101" s="1" t="n"/>
       <c r="R101" s="1" t="n"/>
@@ -7582,26 +7573,28 @@
         <v>32</v>
       </c>
       <c r="T101" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U101" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V101" s="1" t="n">
-        <v>-33.6</v>
+        <v>4.2</v>
       </c>
       <c r="W101" s="1" t="n">
-        <v>-2.585</v>
+        <v>1.432</v>
       </c>
       <c r="X101" s="1" t="n">
-        <v>0.843</v>
+        <v>8</v>
       </c>
       <c r="Y101" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z101" s="1" t="n"/>
       <c r="AA101" s="1" t="n"/>
-      <c r="AB101" s="1" t="s"/>
+      <c r="AB101" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="1" t="s">
@@ -7609,31 +7602,31 @@
       </c>
       <c r="B102" s="1" t="n"/>
       <c r="C102" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>-10.05</v>
+        <v>-5.9</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>9.074999999999999</v>
+        <v>-6.575</v>
       </c>
       <c r="F102" s="1" t="n">
         <v>0.4</v>
       </c>
       <c r="G102" s="1" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H102" s="1" t="n">
-        <v>-10.25</v>
+        <v>-6.100000000000001</v>
       </c>
       <c r="I102" s="1" t="n">
-        <v>-9.850000000000001</v>
+        <v>-5.7</v>
       </c>
       <c r="J102" s="1" t="n">
-        <v>11.175</v>
+        <v>-4.375</v>
       </c>
       <c r="K102" s="1" t="n">
-        <v>6.975</v>
+        <v>-8.775</v>
       </c>
       <c r="L102" s="1" t="n"/>
       <c r="M102" s="1" t="n">
@@ -7643,10 +7636,10 @@
         <v>0</v>
       </c>
       <c r="O102" s="1" t="n">
-        <v>-10.05</v>
+        <v>-5.9</v>
       </c>
       <c r="P102" s="1" t="n">
-        <v>9.074999999999999</v>
+        <v>-6.575</v>
       </c>
       <c r="Q102" s="1" t="n"/>
       <c r="R102" s="1" t="n"/>
@@ -7654,26 +7647,28 @@
         <v>32</v>
       </c>
       <c r="T102" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U102" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V102" s="1" t="n">
-        <v>33.181</v>
+        <v>-4.2</v>
       </c>
       <c r="W102" s="1" t="n">
-        <v>5.745</v>
+        <v>-2.117</v>
       </c>
       <c r="X102" s="1" t="n">
-        <v>0.005</v>
+        <v>8</v>
       </c>
       <c r="Y102" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z102" s="1" t="n"/>
       <c r="AA102" s="1" t="n"/>
-      <c r="AB102" s="1" t="s"/>
+      <c r="AB102" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="103" spans="1:28">
       <c r="A103" s="1" t="s">
@@ -7681,31 +7676,31 @@
       </c>
       <c r="B103" s="1" t="n"/>
       <c r="C103" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>-10.05</v>
+        <v>-5.9</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>9.074999999999999</v>
+        <v>-6.575</v>
       </c>
       <c r="F103" s="1" t="n">
         <v>0.4</v>
       </c>
       <c r="G103" s="1" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H103" s="1" t="n">
-        <v>-10.25</v>
+        <v>-6.100000000000001</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>-9.850000000000001</v>
+        <v>-5.7</v>
       </c>
       <c r="J103" s="1" t="n">
-        <v>11.175</v>
+        <v>-4.375</v>
       </c>
       <c r="K103" s="1" t="n">
-        <v>6.975</v>
+        <v>-8.775</v>
       </c>
       <c r="L103" s="1" t="n"/>
       <c r="M103" s="1" t="n">
@@ -7715,10 +7710,10 @@
         <v>0</v>
       </c>
       <c r="O103" s="1" t="n">
-        <v>-10.05</v>
+        <v>-5.9</v>
       </c>
       <c r="P103" s="1" t="n">
-        <v>9.074999999999999</v>
+        <v>-6.575</v>
       </c>
       <c r="Q103" s="1" t="n"/>
       <c r="R103" s="1" t="n"/>
@@ -7732,10 +7727,10 @@
         <v>3</v>
       </c>
       <c r="V103" s="1" t="n">
-        <v>-33.181</v>
+        <v>33.181</v>
       </c>
       <c r="W103" s="1" t="n">
-        <v>-6.431</v>
+        <v>-2.752</v>
       </c>
       <c r="X103" s="1" t="n">
         <v>0.005</v>
@@ -7798,28 +7793,26 @@
         <v>32</v>
       </c>
       <c r="T104" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U104" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V104" s="1" t="n">
-        <v>4.2</v>
+        <v>-33.181</v>
       </c>
       <c r="W104" s="1" t="n">
-        <v>1.432</v>
+        <v>2.067</v>
       </c>
       <c r="X104" s="1" t="n">
-        <v>8</v>
+        <v>66.36199999999999</v>
       </c>
       <c r="Y104" s="1" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="Z104" s="1" t="n"/>
       <c r="AA104" s="1" t="n"/>
-      <c r="AB104" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AB104" s="1" t="s"/>
     </row>
     <row r="105" spans="1:28">
       <c r="A105" s="1" t="s">
@@ -7827,31 +7820,31 @@
       </c>
       <c r="B105" s="1" t="n"/>
       <c r="C105" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>-5.9</v>
+        <v>-3.549</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>-6.575</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F105" s="1" t="n">
-        <v>0.4</v>
+        <v>4.6</v>
       </c>
       <c r="G105" s="1" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H105" s="1" t="n">
-        <v>-6.100000000000001</v>
+        <v>-5.849</v>
       </c>
       <c r="I105" s="1" t="n">
-        <v>-5.7</v>
+        <v>-1.249</v>
       </c>
       <c r="J105" s="1" t="n">
-        <v>-4.375</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K105" s="1" t="n">
-        <v>-8.775</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L105" s="1" t="n"/>
       <c r="M105" s="1" t="n">
@@ -7861,10 +7854,10 @@
         <v>0</v>
       </c>
       <c r="O105" s="1" t="n">
-        <v>-5.9</v>
+        <v>-3.549</v>
       </c>
       <c r="P105" s="1" t="n">
-        <v>-6.575</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="Q105" s="1" t="n"/>
       <c r="R105" s="1" t="n"/>
@@ -7872,28 +7865,26 @@
         <v>32</v>
       </c>
       <c r="T105" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U105" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V105" s="1" t="n">
-        <v>-4.2</v>
+        <v>19.458</v>
       </c>
       <c r="W105" s="1" t="n">
-        <v>-2.117</v>
+        <v>33.662</v>
       </c>
       <c r="X105" s="1" t="n">
-        <v>8</v>
+        <v>4.15</v>
       </c>
       <c r="Y105" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z105" s="1" t="n"/>
       <c r="AA105" s="1" t="n"/>
-      <c r="AB105" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AB105" s="1" t="s"/>
     </row>
     <row r="106" spans="1:28">
       <c r="A106" s="1" t="s">
@@ -7901,31 +7892,31 @@
       </c>
       <c r="B106" s="1" t="n"/>
       <c r="C106" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>-5.9</v>
+        <v>-3.549</v>
       </c>
       <c r="E106" s="1" t="n">
-        <v>-6.575</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F106" s="1" t="n">
-        <v>0.4</v>
+        <v>4.6</v>
       </c>
       <c r="G106" s="1" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H106" s="1" t="n">
-        <v>-6.100000000000001</v>
+        <v>-5.849</v>
       </c>
       <c r="I106" s="1" t="n">
-        <v>-5.7</v>
+        <v>-1.249</v>
       </c>
       <c r="J106" s="1" t="n">
-        <v>-4.375</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K106" s="1" t="n">
-        <v>-8.775</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L106" s="1" t="n"/>
       <c r="M106" s="1" t="n">
@@ -7935,10 +7926,10 @@
         <v>0</v>
       </c>
       <c r="O106" s="1" t="n">
-        <v>-5.9</v>
+        <v>-3.549</v>
       </c>
       <c r="P106" s="1" t="n">
-        <v>-6.575</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="Q106" s="1" t="n"/>
       <c r="R106" s="1" t="n"/>
@@ -7946,22 +7937,22 @@
         <v>32</v>
       </c>
       <c r="T106" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U106" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="U106" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="V106" s="1" t="n">
-        <v>33.181</v>
+        <v>29.958</v>
       </c>
       <c r="W106" s="1" t="n">
-        <v>-2.752</v>
+        <v>25.152</v>
       </c>
       <c r="X106" s="1" t="n">
-        <v>0.005</v>
+        <v>4.1</v>
       </c>
       <c r="Y106" s="1" t="n">
-        <v>16.8</v>
+        <v>2.4</v>
       </c>
       <c r="Z106" s="1" t="n"/>
       <c r="AA106" s="1" t="n"/>
@@ -7973,31 +7964,31 @@
       </c>
       <c r="B107" s="1" t="n"/>
       <c r="C107" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>-5.9</v>
+        <v>-3.549</v>
       </c>
       <c r="E107" s="1" t="n">
-        <v>-6.575</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F107" s="1" t="n">
-        <v>0.4</v>
+        <v>4.6</v>
       </c>
       <c r="G107" s="1" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H107" s="1" t="n">
-        <v>-6.100000000000001</v>
+        <v>-5.849</v>
       </c>
       <c r="I107" s="1" t="n">
-        <v>-5.7</v>
+        <v>-1.249</v>
       </c>
       <c r="J107" s="1" t="n">
-        <v>-4.375</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K107" s="1" t="n">
-        <v>-8.775</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L107" s="1" t="n"/>
       <c r="M107" s="1" t="n">
@@ -8007,10 +7998,10 @@
         <v>0</v>
       </c>
       <c r="O107" s="1" t="n">
-        <v>-5.9</v>
+        <v>-3.549</v>
       </c>
       <c r="P107" s="1" t="n">
-        <v>-6.575</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="Q107" s="1" t="n"/>
       <c r="R107" s="1" t="n"/>
@@ -8018,22 +8009,22 @@
         <v>32</v>
       </c>
       <c r="T107" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U107" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="U107" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="V107" s="1" t="n">
-        <v>-33.181</v>
+        <v>-29.958</v>
       </c>
       <c r="W107" s="1" t="n">
-        <v>2.067</v>
+        <v>25.152</v>
       </c>
       <c r="X107" s="1" t="n">
-        <v>66.36199999999999</v>
+        <v>4.1</v>
       </c>
       <c r="Y107" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Z107" s="1" t="n"/>
       <c r="AA107" s="1" t="n"/>
@@ -8045,31 +8036,31 @@
       </c>
       <c r="B108" s="1" t="n"/>
       <c r="C108" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>-3.549</v>
+        <v>-2.9</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>9.550000000000001</v>
+        <v>-7.275</v>
       </c>
       <c r="F108" s="1" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="G108" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H108" s="1" t="n">
-        <v>-5.849</v>
+        <v>-3.35</v>
       </c>
       <c r="I108" s="1" t="n">
-        <v>-1.249</v>
+        <v>-2.45</v>
       </c>
       <c r="J108" s="1" t="n">
-        <v>9.800000000000001</v>
+        <v>-7.075</v>
       </c>
       <c r="K108" s="1" t="n">
-        <v>9.300000000000001</v>
+        <v>-7.475000000000001</v>
       </c>
       <c r="L108" s="1" t="n"/>
       <c r="M108" s="1" t="n">
@@ -8079,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O108" s="1" t="n">
-        <v>-3.549</v>
+        <v>-2.9</v>
       </c>
       <c r="P108" s="1" t="n">
-        <v>9.550000000000001</v>
+        <v>-7.275</v>
       </c>
       <c r="Q108" s="1" t="n"/>
       <c r="R108" s="1" t="n"/>
@@ -8090,22 +8081,22 @@
         <v>32</v>
       </c>
       <c r="T108" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U108" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V108" s="1" t="n">
-        <v>19.458</v>
+        <v>0</v>
       </c>
       <c r="W108" s="1" t="n">
-        <v>33.662</v>
+        <v>-33.942</v>
       </c>
       <c r="X108" s="1" t="n">
-        <v>4.15</v>
+        <v>50.9</v>
       </c>
       <c r="Y108" s="1" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Z108" s="1" t="n"/>
       <c r="AA108" s="1" t="n"/>
@@ -8117,31 +8108,31 @@
       </c>
       <c r="B109" s="1" t="n"/>
       <c r="C109" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>-3.549</v>
+        <v>-2.9</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>9.550000000000001</v>
+        <v>-7.275</v>
       </c>
       <c r="F109" s="1" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="G109" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H109" s="1" t="n">
-        <v>-5.849</v>
+        <v>-3.35</v>
       </c>
       <c r="I109" s="1" t="n">
-        <v>-1.249</v>
+        <v>-2.45</v>
       </c>
       <c r="J109" s="1" t="n">
-        <v>9.800000000000001</v>
+        <v>-7.075</v>
       </c>
       <c r="K109" s="1" t="n">
-        <v>9.300000000000001</v>
+        <v>-7.475000000000001</v>
       </c>
       <c r="L109" s="1" t="n"/>
       <c r="M109" s="1" t="n">
@@ -8151,10 +8142,10 @@
         <v>0</v>
       </c>
       <c r="O109" s="1" t="n">
-        <v>-3.549</v>
+        <v>-2.9</v>
       </c>
       <c r="P109" s="1" t="n">
-        <v>9.550000000000001</v>
+        <v>-7.275</v>
       </c>
       <c r="Q109" s="1" t="n"/>
       <c r="R109" s="1" t="n"/>
@@ -8162,22 +8153,22 @@
         <v>32</v>
       </c>
       <c r="T109" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U109" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="U109" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="V109" s="1" t="n">
-        <v>29.958</v>
+        <v>25.45</v>
       </c>
       <c r="W109" s="1" t="n">
-        <v>25.152</v>
+        <v>29.058</v>
       </c>
       <c r="X109" s="1" t="n">
-        <v>4.1</v>
+        <v>0.32</v>
       </c>
       <c r="Y109" s="1" t="n">
-        <v>2.4</v>
+        <v>8.4</v>
       </c>
       <c r="Z109" s="1" t="n"/>
       <c r="AA109" s="1" t="n"/>
@@ -8189,31 +8180,31 @@
       </c>
       <c r="B110" s="1" t="n"/>
       <c r="C110" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>-3.549</v>
+        <v>-2.9</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>9.550000000000001</v>
+        <v>-7.275</v>
       </c>
       <c r="F110" s="1" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="G110" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H110" s="1" t="n">
-        <v>-5.849</v>
+        <v>-3.35</v>
       </c>
       <c r="I110" s="1" t="n">
-        <v>-1.249</v>
+        <v>-2.45</v>
       </c>
       <c r="J110" s="1" t="n">
-        <v>9.800000000000001</v>
+        <v>-7.075</v>
       </c>
       <c r="K110" s="1" t="n">
-        <v>9.300000000000001</v>
+        <v>-7.475000000000001</v>
       </c>
       <c r="L110" s="1" t="n"/>
       <c r="M110" s="1" t="n">
@@ -8223,10 +8214,10 @@
         <v>0</v>
       </c>
       <c r="O110" s="1" t="n">
-        <v>-3.549</v>
+        <v>-2.9</v>
       </c>
       <c r="P110" s="1" t="n">
-        <v>9.550000000000001</v>
+        <v>-7.275</v>
       </c>
       <c r="Q110" s="1" t="n"/>
       <c r="R110" s="1" t="n"/>
@@ -8237,19 +8228,19 @@
         <v>2</v>
       </c>
       <c r="U110" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V110" s="1" t="n">
-        <v>-29.958</v>
+        <v>0</v>
       </c>
       <c r="W110" s="1" t="n">
-        <v>25.152</v>
+        <v>-0.342</v>
       </c>
       <c r="X110" s="1" t="n">
-        <v>4.1</v>
+        <v>67.7</v>
       </c>
       <c r="Y110" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z110" s="1" t="n"/>
       <c r="AA110" s="1" t="n"/>
@@ -8261,31 +8252,31 @@
       </c>
       <c r="B111" s="1" t="n"/>
       <c r="C111" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D111" s="1" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="E111" s="1" t="n">
         <v>-2.9</v>
       </c>
-      <c r="E111" s="1" t="n">
-        <v>-7.275</v>
-      </c>
       <c r="F111" s="1" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="G111" s="1" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H111" s="1" t="n">
-        <v>-3.35</v>
+        <v>-1.87</v>
       </c>
       <c r="I111" s="1" t="n">
-        <v>-2.45</v>
+        <v>-1.47</v>
       </c>
       <c r="J111" s="1" t="n">
-        <v>-7.075</v>
+        <v>-2.4</v>
       </c>
       <c r="K111" s="1" t="n">
-        <v>-7.475000000000001</v>
+        <v>-3.4</v>
       </c>
       <c r="L111" s="1" t="n"/>
       <c r="M111" s="1" t="n">
@@ -8295,10 +8286,10 @@
         <v>0</v>
       </c>
       <c r="O111" s="1" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="P111" s="1" t="n">
         <v>-2.9</v>
-      </c>
-      <c r="P111" s="1" t="n">
-        <v>-7.275</v>
       </c>
       <c r="Q111" s="1" t="n"/>
       <c r="R111" s="1" t="n"/>
@@ -8306,22 +8297,22 @@
         <v>32</v>
       </c>
       <c r="T111" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U111" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V111" s="1" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="W111" s="1" t="n">
-        <v>-33.942</v>
+        <v>25.158</v>
       </c>
       <c r="X111" s="1" t="n">
-        <v>50.9</v>
+        <v>0</v>
       </c>
       <c r="Y111" s="1" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Z111" s="1" t="n"/>
       <c r="AA111" s="1" t="n"/>
@@ -8333,31 +8324,31 @@
       </c>
       <c r="B112" s="1" t="n"/>
       <c r="C112" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D112" s="1" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="E112" s="1" t="n">
         <v>-2.9</v>
       </c>
-      <c r="E112" s="1" t="n">
-        <v>-7.275</v>
-      </c>
       <c r="F112" s="1" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="G112" s="1" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H112" s="1" t="n">
-        <v>-3.35</v>
+        <v>-1.87</v>
       </c>
       <c r="I112" s="1" t="n">
-        <v>-2.45</v>
+        <v>-1.47</v>
       </c>
       <c r="J112" s="1" t="n">
-        <v>-7.075</v>
+        <v>-2.4</v>
       </c>
       <c r="K112" s="1" t="n">
-        <v>-7.475000000000001</v>
+        <v>-3.4</v>
       </c>
       <c r="L112" s="1" t="n"/>
       <c r="M112" s="1" t="n">
@@ -8367,10 +8358,10 @@
         <v>0</v>
       </c>
       <c r="O112" s="1" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="P112" s="1" t="n">
         <v>-2.9</v>
-      </c>
-      <c r="P112" s="1" t="n">
-        <v>-7.275</v>
       </c>
       <c r="Q112" s="1" t="n"/>
       <c r="R112" s="1" t="n"/>
@@ -8381,19 +8372,19 @@
         <v>1</v>
       </c>
       <c r="U112" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V112" s="1" t="n">
-        <v>25.45</v>
+        <v>-34.1</v>
       </c>
       <c r="W112" s="1" t="n">
-        <v>29.058</v>
+        <v>-25.842</v>
       </c>
       <c r="X112" s="1" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="Y112" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z112" s="1" t="n"/>
       <c r="AA112" s="1" t="n"/>
@@ -8405,31 +8396,31 @@
       </c>
       <c r="B113" s="1" t="n"/>
       <c r="C113" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>-2.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>-7.275</v>
+        <v>2.675</v>
       </c>
       <c r="F113" s="1" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="G113" s="1" t="n">
-        <v>0.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H113" s="1" t="n">
-        <v>-3.35</v>
+        <v>-9</v>
       </c>
       <c r="I113" s="1" t="n">
-        <v>-2.45</v>
+        <v>-8.600000000000001</v>
       </c>
       <c r="J113" s="1" t="n">
-        <v>-7.075</v>
+        <v>6.774999999999999</v>
       </c>
       <c r="K113" s="1" t="n">
-        <v>-7.475000000000001</v>
+        <v>-1.425</v>
       </c>
       <c r="L113" s="1" t="n"/>
       <c r="M113" s="1" t="n">
@@ -8439,10 +8430,10 @@
         <v>0</v>
       </c>
       <c r="O113" s="1" t="n">
-        <v>-2.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="P113" s="1" t="n">
-        <v>-7.275</v>
+        <v>2.675</v>
       </c>
       <c r="Q113" s="1" t="n"/>
       <c r="R113" s="1" t="n"/>
@@ -8453,19 +8444,19 @@
         <v>2</v>
       </c>
       <c r="U113" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V113" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W113" s="1" t="n">
-        <v>-0.342</v>
+        <v>-30.042</v>
       </c>
       <c r="X113" s="1" t="n">
-        <v>67.7</v>
+        <v>51.4</v>
       </c>
       <c r="Y113" s="1" t="n">
-        <v>8.4</v>
+        <v>3.6</v>
       </c>
       <c r="Z113" s="1" t="n"/>
       <c r="AA113" s="1" t="n"/>
@@ -8477,44 +8468,44 @@
       </c>
       <c r="B114" s="1" t="n"/>
       <c r="C114" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>-1.67</v>
+        <v>-0.34</v>
       </c>
       <c r="E114" s="1" t="n">
-        <v>-2.9</v>
+        <v>-8.15</v>
       </c>
       <c r="F114" s="1" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G114" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="G114" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="H114" s="1" t="n">
-        <v>-1.87</v>
+        <v>-4.74</v>
       </c>
       <c r="I114" s="1" t="n">
-        <v>-1.47</v>
+        <v>4.06</v>
       </c>
       <c r="J114" s="1" t="n">
-        <v>-2.4</v>
+        <v>-7.95</v>
       </c>
       <c r="K114" s="1" t="n">
-        <v>-3.4</v>
+        <v>-8.35</v>
       </c>
       <c r="L114" s="1" t="n"/>
       <c r="M114" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N114" s="1" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O114" s="1" t="n">
-        <v>-1.67</v>
+        <v>-0.34</v>
       </c>
       <c r="P114" s="1" t="n">
-        <v>-2.9</v>
+        <v>-12.35</v>
       </c>
       <c r="Q114" s="1" t="n"/>
       <c r="R114" s="1" t="n"/>
@@ -8522,22 +8513,22 @@
         <v>32</v>
       </c>
       <c r="T114" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U114" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V114" s="1" t="n">
-        <v>34.4</v>
+        <v>-4.2</v>
       </c>
       <c r="W114" s="1" t="n">
-        <v>25.158</v>
+        <v>-0.342</v>
       </c>
       <c r="X114" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Y114" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z114" s="1" t="n"/>
       <c r="AA114" s="1" t="n"/>
@@ -8549,44 +8540,44 @@
       </c>
       <c r="B115" s="1" t="n"/>
       <c r="C115" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>-1.67</v>
+        <v>-0.34</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>-2.9</v>
+        <v>-8.15</v>
       </c>
       <c r="F115" s="1" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G115" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="G115" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="H115" s="1" t="n">
-        <v>-1.87</v>
+        <v>-4.74</v>
       </c>
       <c r="I115" s="1" t="n">
-        <v>-1.47</v>
+        <v>4.06</v>
       </c>
       <c r="J115" s="1" t="n">
-        <v>-2.4</v>
+        <v>-7.95</v>
       </c>
       <c r="K115" s="1" t="n">
-        <v>-3.4</v>
+        <v>-8.35</v>
       </c>
       <c r="L115" s="1" t="n"/>
       <c r="M115" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N115" s="1" t="n">
-        <v>0</v>
+        <v>-4.2</v>
       </c>
       <c r="O115" s="1" t="n">
-        <v>-1.67</v>
+        <v>-0.34</v>
       </c>
       <c r="P115" s="1" t="n">
-        <v>-2.9</v>
+        <v>-3.95</v>
       </c>
       <c r="Q115" s="1" t="n"/>
       <c r="R115" s="1" t="n"/>
@@ -8594,22 +8585,22 @@
         <v>32</v>
       </c>
       <c r="T115" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U115" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V115" s="1" t="n">
-        <v>-34.1</v>
+        <v>4.2</v>
       </c>
       <c r="W115" s="1" t="n">
-        <v>-25.842</v>
+        <v>-0.342</v>
       </c>
       <c r="X115" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Y115" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z115" s="1" t="n"/>
       <c r="AA115" s="1" t="n"/>
@@ -8621,31 +8612,31 @@
       </c>
       <c r="B116" s="1" t="n"/>
       <c r="C116" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>-8.800000000000001</v>
+        <v>-0.34</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>2.675</v>
+        <v>-8.15</v>
       </c>
       <c r="F116" s="1" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G116" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="G116" s="1" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="H116" s="1" t="n">
-        <v>-9</v>
+        <v>-4.74</v>
       </c>
       <c r="I116" s="1" t="n">
-        <v>-8.600000000000001</v>
+        <v>4.06</v>
       </c>
       <c r="J116" s="1" t="n">
-        <v>6.774999999999999</v>
+        <v>-7.95</v>
       </c>
       <c r="K116" s="1" t="n">
-        <v>-1.425</v>
+        <v>-8.35</v>
       </c>
       <c r="L116" s="1" t="n"/>
       <c r="M116" s="1" t="n">
@@ -8655,10 +8646,10 @@
         <v>0</v>
       </c>
       <c r="O116" s="1" t="n">
-        <v>-8.800000000000001</v>
+        <v>-0.34</v>
       </c>
       <c r="P116" s="1" t="n">
-        <v>2.675</v>
+        <v>-8.15</v>
       </c>
       <c r="Q116" s="1" t="n"/>
       <c r="R116" s="1" t="n"/>
@@ -8675,13 +8666,13 @@
         <v>0</v>
       </c>
       <c r="W116" s="1" t="n">
-        <v>-30.042</v>
+        <v>-26.142</v>
       </c>
       <c r="X116" s="1" t="n">
-        <v>51.4</v>
+        <v>59.8</v>
       </c>
       <c r="Y116" s="1" t="n">
-        <v>3.6</v>
+        <v>0.02</v>
       </c>
       <c r="Z116" s="1" t="n"/>
       <c r="AA116" s="1" t="n"/>
@@ -8724,13 +8715,13 @@
         <v>0</v>
       </c>
       <c r="N117" s="1" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O117" s="1" t="n">
         <v>-0.34</v>
       </c>
       <c r="P117" s="1" t="n">
-        <v>-12.35</v>
+        <v>-8.15</v>
       </c>
       <c r="Q117" s="1" t="n"/>
       <c r="R117" s="1" t="n"/>
@@ -8738,22 +8729,22 @@
         <v>32</v>
       </c>
       <c r="T117" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U117" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V117" s="1" t="n">
-        <v>-4.2</v>
+        <v>30.2</v>
       </c>
       <c r="W117" s="1" t="n">
-        <v>-0.342</v>
+        <v>25.458</v>
       </c>
       <c r="X117" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Y117" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z117" s="1" t="n"/>
       <c r="AA117" s="1" t="n"/>
@@ -8765,44 +8756,44 @@
       </c>
       <c r="B118" s="1" t="n"/>
       <c r="C118" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>-0.34</v>
+        <v>-5.65</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>-8.15</v>
+        <v>4.4</v>
       </c>
       <c r="F118" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G118" s="1" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G118" s="1" t="n">
-        <v>0.4</v>
-      </c>
       <c r="H118" s="1" t="n">
-        <v>-4.74</v>
+        <v>-5.850000000000001</v>
       </c>
       <c r="I118" s="1" t="n">
-        <v>4.06</v>
+        <v>-5.45</v>
       </c>
       <c r="J118" s="1" t="n">
-        <v>-7.95</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K118" s="1" t="n">
-        <v>-8.35</v>
+        <v>0</v>
       </c>
       <c r="L118" s="1" t="n"/>
       <c r="M118" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N118" s="1" t="n">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="O118" s="1" t="n">
-        <v>-0.34</v>
+        <v>-5.65</v>
       </c>
       <c r="P118" s="1" t="n">
-        <v>-3.95</v>
+        <v>4.4</v>
       </c>
       <c r="Q118" s="1" t="n"/>
       <c r="R118" s="1" t="n"/>
@@ -8810,22 +8801,22 @@
         <v>32</v>
       </c>
       <c r="T118" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U118" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V118" s="1" t="n">
-        <v>4.2</v>
+        <v>26</v>
       </c>
       <c r="W118" s="1" t="n">
-        <v>-0.342</v>
+        <v>29.658</v>
       </c>
       <c r="X118" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Y118" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z118" s="1" t="n"/>
       <c r="AA118" s="1" t="n"/>
@@ -8837,31 +8828,31 @@
       </c>
       <c r="B119" s="1" t="n"/>
       <c r="C119" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>-0.34</v>
+        <v>-5.65</v>
       </c>
       <c r="E119" s="1" t="n">
-        <v>-8.15</v>
+        <v>4.4</v>
       </c>
       <c r="F119" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G119" s="1" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G119" s="1" t="n">
-        <v>0.4</v>
-      </c>
       <c r="H119" s="1" t="n">
-        <v>-4.74</v>
+        <v>-5.850000000000001</v>
       </c>
       <c r="I119" s="1" t="n">
-        <v>4.06</v>
+        <v>-5.45</v>
       </c>
       <c r="J119" s="1" t="n">
-        <v>-7.95</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K119" s="1" t="n">
-        <v>-8.35</v>
+        <v>0</v>
       </c>
       <c r="L119" s="1" t="n"/>
       <c r="M119" s="1" t="n">
@@ -8871,10 +8862,10 @@
         <v>0</v>
       </c>
       <c r="O119" s="1" t="n">
-        <v>-0.34</v>
+        <v>-5.65</v>
       </c>
       <c r="P119" s="1" t="n">
-        <v>-8.15</v>
+        <v>4.4</v>
       </c>
       <c r="Q119" s="1" t="n"/>
       <c r="R119" s="1" t="n"/>
@@ -8882,22 +8873,22 @@
         <v>32</v>
       </c>
       <c r="T119" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U119" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V119" s="1" t="n">
-        <v>0</v>
+        <v>25.7</v>
       </c>
       <c r="W119" s="1" t="n">
-        <v>-26.142</v>
+        <v>29.058</v>
       </c>
       <c r="X119" s="1" t="n">
-        <v>59.8</v>
+        <v>0</v>
       </c>
       <c r="Y119" s="1" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Z119" s="1" t="n"/>
       <c r="AA119" s="1" t="n"/>
@@ -8909,31 +8900,31 @@
       </c>
       <c r="B120" s="1" t="n"/>
       <c r="C120" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>-0.34</v>
+        <v>-5.65</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>-8.15</v>
+        <v>4.4</v>
       </c>
       <c r="F120" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G120" s="1" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G120" s="1" t="n">
-        <v>0.4</v>
-      </c>
       <c r="H120" s="1" t="n">
-        <v>-4.74</v>
+        <v>-5.850000000000001</v>
       </c>
       <c r="I120" s="1" t="n">
-        <v>4.06</v>
+        <v>-5.45</v>
       </c>
       <c r="J120" s="1" t="n">
-        <v>-7.95</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K120" s="1" t="n">
-        <v>-8.35</v>
+        <v>0</v>
       </c>
       <c r="L120" s="1" t="n"/>
       <c r="M120" s="1" t="n">
@@ -8943,10 +8934,10 @@
         <v>0</v>
       </c>
       <c r="O120" s="1" t="n">
-        <v>-0.34</v>
+        <v>-5.65</v>
       </c>
       <c r="P120" s="1" t="n">
-        <v>-8.15</v>
+        <v>4.4</v>
       </c>
       <c r="Q120" s="1" t="n"/>
       <c r="R120" s="1" t="n"/>
@@ -8954,22 +8945,22 @@
         <v>32</v>
       </c>
       <c r="T120" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U120" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V120" s="1" t="n">
-        <v>30.2</v>
+        <v>0</v>
       </c>
       <c r="W120" s="1" t="n">
-        <v>25.458</v>
+        <v>-0.342</v>
       </c>
       <c r="X120" s="1" t="n">
-        <v>0</v>
+        <v>68.2</v>
       </c>
       <c r="Y120" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z120" s="1" t="n"/>
       <c r="AA120" s="1" t="n"/>
@@ -8981,31 +8972,31 @@
       </c>
       <c r="B121" s="1" t="n"/>
       <c r="C121" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>-5.65</v>
+        <v>-1.72</v>
       </c>
       <c r="E121" s="1" t="n">
-        <v>4.4</v>
+        <v>-2.175</v>
       </c>
       <c r="F121" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G121" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="G121" s="1" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="H121" s="1" t="n">
-        <v>-5.850000000000001</v>
+        <v>-2.32</v>
       </c>
       <c r="I121" s="1" t="n">
-        <v>-5.45</v>
+        <v>-1.12</v>
       </c>
       <c r="J121" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>-1.975</v>
       </c>
       <c r="K121" s="1" t="n">
-        <v>0</v>
+        <v>-2.375</v>
       </c>
       <c r="L121" s="1" t="n"/>
       <c r="M121" s="1" t="n">
@@ -9015,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="O121" s="1" t="n">
-        <v>-5.65</v>
+        <v>-1.72</v>
       </c>
       <c r="P121" s="1" t="n">
-        <v>4.4</v>
+        <v>-2.175</v>
       </c>
       <c r="Q121" s="1" t="n"/>
       <c r="R121" s="1" t="n"/>
@@ -9029,19 +9020,19 @@
         <v>1</v>
       </c>
       <c r="U121" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V121" s="1" t="n">
-        <v>26</v>
+        <v>33.6</v>
       </c>
       <c r="W121" s="1" t="n">
-        <v>29.658</v>
+        <v>3.748</v>
       </c>
       <c r="X121" s="1" t="n">
-        <v>0</v>
+        <v>0.843</v>
       </c>
       <c r="Y121" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Z121" s="1" t="n"/>
       <c r="AA121" s="1" t="n"/>
@@ -9053,31 +9044,31 @@
       </c>
       <c r="B122" s="1" t="n"/>
       <c r="C122" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>-5.65</v>
+        <v>-1.72</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>4.4</v>
+        <v>-2.175</v>
       </c>
       <c r="F122" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G122" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="G122" s="1" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="H122" s="1" t="n">
-        <v>-5.850000000000001</v>
+        <v>-2.32</v>
       </c>
       <c r="I122" s="1" t="n">
-        <v>-5.45</v>
+        <v>-1.12</v>
       </c>
       <c r="J122" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>-1.975</v>
       </c>
       <c r="K122" s="1" t="n">
-        <v>0</v>
+        <v>-2.375</v>
       </c>
       <c r="L122" s="1" t="n"/>
       <c r="M122" s="1" t="n">
@@ -9087,10 +9078,10 @@
         <v>0</v>
       </c>
       <c r="O122" s="1" t="n">
-        <v>-5.65</v>
+        <v>-1.72</v>
       </c>
       <c r="P122" s="1" t="n">
-        <v>4.4</v>
+        <v>-2.175</v>
       </c>
       <c r="Q122" s="1" t="n"/>
       <c r="R122" s="1" t="n"/>
@@ -9101,19 +9092,19 @@
         <v>1</v>
       </c>
       <c r="U122" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V122" s="1" t="n">
-        <v>25.7</v>
+        <v>-33.6</v>
       </c>
       <c r="W122" s="1" t="n">
-        <v>29.058</v>
+        <v>-4.424</v>
       </c>
       <c r="X122" s="1" t="n">
-        <v>0</v>
+        <v>0.843</v>
       </c>
       <c r="Y122" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Z122" s="1" t="n"/>
       <c r="AA122" s="1" t="n"/>
@@ -9125,31 +9116,31 @@
       </c>
       <c r="B123" s="1" t="n"/>
       <c r="C123" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>-5.65</v>
+        <v>-4.617</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>4.4</v>
+        <v>-1.615</v>
       </c>
       <c r="F123" s="1" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="G123" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H123" s="1" t="n">
-        <v>-5.850000000000001</v>
+        <v>-5.217</v>
       </c>
       <c r="I123" s="1" t="n">
-        <v>-5.45</v>
+        <v>-4.017</v>
       </c>
       <c r="J123" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>-1.315</v>
       </c>
       <c r="K123" s="1" t="n">
-        <v>0</v>
+        <v>-1.915</v>
       </c>
       <c r="L123" s="1" t="n"/>
       <c r="M123" s="1" t="n">
@@ -9159,10 +9150,10 @@
         <v>0</v>
       </c>
       <c r="O123" s="1" t="n">
-        <v>-5.65</v>
+        <v>-4.617</v>
       </c>
       <c r="P123" s="1" t="n">
-        <v>4.4</v>
+        <v>-1.615</v>
       </c>
       <c r="Q123" s="1" t="n"/>
       <c r="R123" s="1" t="n"/>
@@ -9170,7 +9161,7 @@
         <v>32</v>
       </c>
       <c r="T123" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U123" s="1" t="n">
         <v>6</v>
@@ -9179,10 +9170,10 @@
         <v>0</v>
       </c>
       <c r="W123" s="1" t="n">
-        <v>-0.342</v>
+        <v>-0.343</v>
       </c>
       <c r="X123" s="1" t="n">
-        <v>68.2</v>
+        <v>8.4</v>
       </c>
       <c r="Y123" s="1" t="n">
         <v>8.4</v>
@@ -9197,13 +9188,13 @@
       </c>
       <c r="B124" s="1" t="n"/>
       <c r="C124" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>-1.72</v>
+        <v>-1.8</v>
       </c>
       <c r="E124" s="1" t="n">
-        <v>-2.175</v>
+        <v>-7.275</v>
       </c>
       <c r="F124" s="1" t="n">
         <v>1.2</v>
@@ -9212,16 +9203,16 @@
         <v>0.4</v>
       </c>
       <c r="H124" s="1" t="n">
-        <v>-2.32</v>
+        <v>-2.4</v>
       </c>
       <c r="I124" s="1" t="n">
-        <v>-1.12</v>
+        <v>-1.2</v>
       </c>
       <c r="J124" s="1" t="n">
-        <v>-1.975</v>
+        <v>-7.075</v>
       </c>
       <c r="K124" s="1" t="n">
-        <v>-2.375</v>
+        <v>-7.475000000000001</v>
       </c>
       <c r="L124" s="1" t="n"/>
       <c r="M124" s="1" t="n">
@@ -9231,10 +9222,10 @@
         <v>0</v>
       </c>
       <c r="O124" s="1" t="n">
-        <v>-1.72</v>
+        <v>-1.8</v>
       </c>
       <c r="P124" s="1" t="n">
-        <v>-2.175</v>
+        <v>-7.275</v>
       </c>
       <c r="Q124" s="1" t="n"/>
       <c r="R124" s="1" t="n"/>
@@ -9248,13 +9239,13 @@
         <v>3</v>
       </c>
       <c r="V124" s="1" t="n">
-        <v>33.6</v>
+        <v>33.605</v>
       </c>
       <c r="W124" s="1" t="n">
-        <v>3.748</v>
+        <v>3.847</v>
       </c>
       <c r="X124" s="1" t="n">
-        <v>0.843</v>
+        <v>0.848</v>
       </c>
       <c r="Y124" s="1" t="n">
         <v>16.8</v>
@@ -9269,13 +9260,13 @@
       </c>
       <c r="B125" s="1" t="n"/>
       <c r="C125" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>-1.72</v>
+        <v>-1.8</v>
       </c>
       <c r="E125" s="1" t="n">
-        <v>-2.175</v>
+        <v>-7.275</v>
       </c>
       <c r="F125" s="1" t="n">
         <v>1.2</v>
@@ -9284,16 +9275,16 @@
         <v>0.4</v>
       </c>
       <c r="H125" s="1" t="n">
-        <v>-2.32</v>
+        <v>-2.4</v>
       </c>
       <c r="I125" s="1" t="n">
-        <v>-1.12</v>
+        <v>-1.2</v>
       </c>
       <c r="J125" s="1" t="n">
-        <v>-1.975</v>
+        <v>-7.075</v>
       </c>
       <c r="K125" s="1" t="n">
-        <v>-2.375</v>
+        <v>-7.475000000000001</v>
       </c>
       <c r="L125" s="1" t="n"/>
       <c r="M125" s="1" t="n">
@@ -9303,10 +9294,10 @@
         <v>0</v>
       </c>
       <c r="O125" s="1" t="n">
-        <v>-1.72</v>
+        <v>-1.8</v>
       </c>
       <c r="P125" s="1" t="n">
-        <v>-2.175</v>
+        <v>-7.275</v>
       </c>
       <c r="Q125" s="1" t="n"/>
       <c r="R125" s="1" t="n"/>
@@ -9320,13 +9311,13 @@
         <v>3</v>
       </c>
       <c r="V125" s="1" t="n">
-        <v>-33.6</v>
+        <v>-33.605</v>
       </c>
       <c r="W125" s="1" t="n">
-        <v>-4.424</v>
+        <v>-4.532</v>
       </c>
       <c r="X125" s="1" t="n">
-        <v>0.843</v>
+        <v>0.848</v>
       </c>
       <c r="Y125" s="1" t="n">
         <v>16.8</v>
@@ -9341,31 +9332,31 @@
       </c>
       <c r="B126" s="1" t="n"/>
       <c r="C126" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>-4.617</v>
+        <v>-0.39</v>
       </c>
       <c r="E126" s="1" t="n">
-        <v>-1.615</v>
+        <v>-8.6</v>
       </c>
       <c r="F126" s="1" t="n">
-        <v>1.2</v>
+        <v>8.9</v>
       </c>
       <c r="G126" s="1" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H126" s="1" t="n">
-        <v>-5.217</v>
+        <v>-4.84</v>
       </c>
       <c r="I126" s="1" t="n">
-        <v>-4.017</v>
+        <v>4.06</v>
       </c>
       <c r="J126" s="1" t="n">
-        <v>-1.315</v>
+        <v>-8.4</v>
       </c>
       <c r="K126" s="1" t="n">
-        <v>-1.915</v>
+        <v>-8.799999999999999</v>
       </c>
       <c r="L126" s="1" t="n"/>
       <c r="M126" s="1" t="n">
@@ -9375,10 +9366,10 @@
         <v>0</v>
       </c>
       <c r="O126" s="1" t="n">
-        <v>-4.617</v>
+        <v>-0.39</v>
       </c>
       <c r="P126" s="1" t="n">
-        <v>-1.615</v>
+        <v>-8.6</v>
       </c>
       <c r="Q126" s="1" t="n"/>
       <c r="R126" s="1" t="n"/>
@@ -9386,22 +9377,22 @@
         <v>32</v>
       </c>
       <c r="T126" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U126" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V126" s="1" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="W126" s="1" t="n">
-        <v>-0.343</v>
+        <v>-33.942</v>
       </c>
       <c r="X126" s="1" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="Y126" s="1" t="n">
-        <v>8.4</v>
+        <v>0.02</v>
       </c>
       <c r="Z126" s="1" t="n"/>
       <c r="AA126" s="1" t="n"/>
@@ -9413,31 +9404,31 @@
       </c>
       <c r="B127" s="1" t="n"/>
       <c r="C127" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>-1.8</v>
+        <v>-0.39</v>
       </c>
       <c r="E127" s="1" t="n">
-        <v>-7.275</v>
+        <v>-8.6</v>
       </c>
       <c r="F127" s="1" t="n">
-        <v>1.2</v>
+        <v>8.9</v>
       </c>
       <c r="G127" s="1" t="n">
         <v>0.4</v>
       </c>
       <c r="H127" s="1" t="n">
-        <v>-2.4</v>
+        <v>-4.84</v>
       </c>
       <c r="I127" s="1" t="n">
-        <v>-1.2</v>
+        <v>4.06</v>
       </c>
       <c r="J127" s="1" t="n">
-        <v>-7.075</v>
+        <v>-8.4</v>
       </c>
       <c r="K127" s="1" t="n">
-        <v>-7.475000000000001</v>
+        <v>-8.799999999999999</v>
       </c>
       <c r="L127" s="1" t="n"/>
       <c r="M127" s="1" t="n">
@@ -9447,10 +9438,10 @@
         <v>0</v>
       </c>
       <c r="O127" s="1" t="n">
-        <v>-1.8</v>
+        <v>-0.39</v>
       </c>
       <c r="P127" s="1" t="n">
-        <v>-7.275</v>
+        <v>-8.6</v>
       </c>
       <c r="Q127" s="1" t="n"/>
       <c r="R127" s="1" t="n"/>
@@ -9458,22 +9449,22 @@
         <v>32</v>
       </c>
       <c r="T127" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U127" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="U127" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="V127" s="1" t="n">
-        <v>33.605</v>
+        <v>4.25</v>
       </c>
       <c r="W127" s="1" t="n">
-        <v>3.847</v>
+        <v>33.258</v>
       </c>
       <c r="X127" s="1" t="n">
-        <v>0.848</v>
+        <v>16.8</v>
       </c>
       <c r="Y127" s="1" t="n">
-        <v>16.8</v>
+        <v>0.02</v>
       </c>
       <c r="Z127" s="1" t="n"/>
       <c r="AA127" s="1" t="n"/>
@@ -9485,31 +9476,31 @@
       </c>
       <c r="B128" s="1" t="n"/>
       <c r="C128" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>-1.8</v>
+        <v>-0.39</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>-7.275</v>
+        <v>-8.6</v>
       </c>
       <c r="F128" s="1" t="n">
-        <v>1.2</v>
+        <v>8.9</v>
       </c>
       <c r="G128" s="1" t="n">
         <v>0.4</v>
       </c>
       <c r="H128" s="1" t="n">
-        <v>-2.4</v>
+        <v>-4.84</v>
       </c>
       <c r="I128" s="1" t="n">
-        <v>-1.2</v>
+        <v>4.06</v>
       </c>
       <c r="J128" s="1" t="n">
-        <v>-7.075</v>
+        <v>-8.4</v>
       </c>
       <c r="K128" s="1" t="n">
-        <v>-7.475000000000001</v>
+        <v>-8.799999999999999</v>
       </c>
       <c r="L128" s="1" t="n"/>
       <c r="M128" s="1" t="n">
@@ -9519,10 +9510,10 @@
         <v>0</v>
       </c>
       <c r="O128" s="1" t="n">
-        <v>-1.8</v>
+        <v>-0.39</v>
       </c>
       <c r="P128" s="1" t="n">
-        <v>-7.275</v>
+        <v>-8.6</v>
       </c>
       <c r="Q128" s="1" t="n"/>
       <c r="R128" s="1" t="n"/>
@@ -9533,19 +9524,19 @@
         <v>1</v>
       </c>
       <c r="U128" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V128" s="1" t="n">
-        <v>-33.605</v>
+        <v>21.75</v>
       </c>
       <c r="W128" s="1" t="n">
-        <v>-4.532</v>
+        <v>33.858</v>
       </c>
       <c r="X128" s="1" t="n">
-        <v>0.848</v>
+        <v>0</v>
       </c>
       <c r="Y128" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Z128" s="1" t="n"/>
       <c r="AA128" s="1" t="n"/>
@@ -9557,31 +9548,31 @@
       </c>
       <c r="B129" s="1" t="n"/>
       <c r="C129" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>-0.39</v>
+        <v>-9.69</v>
       </c>
       <c r="E129" s="1" t="n">
-        <v>-8.6</v>
+        <v>-6.325</v>
       </c>
       <c r="F129" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G129" s="1" t="n">
         <v>8.9</v>
       </c>
-      <c r="G129" s="1" t="n">
-        <v>0.4</v>
-      </c>
       <c r="H129" s="1" t="n">
-        <v>-4.84</v>
+        <v>-9.889999999999999</v>
       </c>
       <c r="I129" s="1" t="n">
-        <v>4.06</v>
+        <v>-9.49</v>
       </c>
       <c r="J129" s="1" t="n">
-        <v>-8.4</v>
+        <v>-1.875</v>
       </c>
       <c r="K129" s="1" t="n">
-        <v>-8.799999999999999</v>
+        <v>-10.775</v>
       </c>
       <c r="L129" s="1" t="n"/>
       <c r="M129" s="1" t="n">
@@ -9591,10 +9582,10 @@
         <v>0</v>
       </c>
       <c r="O129" s="1" t="n">
-        <v>-0.39</v>
+        <v>-9.69</v>
       </c>
       <c r="P129" s="1" t="n">
-        <v>-8.6</v>
+        <v>-6.325</v>
       </c>
       <c r="Q129" s="1" t="n"/>
       <c r="R129" s="1" t="n"/>
@@ -9602,22 +9593,22 @@
         <v>32</v>
       </c>
       <c r="T129" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U129" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V129" s="1" t="n">
-        <v>4.15</v>
+        <v>34.4</v>
       </c>
       <c r="W129" s="1" t="n">
-        <v>-33.942</v>
+        <v>-0.642</v>
       </c>
       <c r="X129" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Y129" s="1" t="n">
-        <v>0.02</v>
+        <v>8.5</v>
       </c>
       <c r="Z129" s="1" t="n"/>
       <c r="AA129" s="1" t="n"/>
@@ -9629,31 +9620,31 @@
       </c>
       <c r="B130" s="1" t="n"/>
       <c r="C130" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>-0.39</v>
+        <v>6.35</v>
       </c>
       <c r="E130" s="1" t="n">
-        <v>-8.6</v>
+        <v>-8.25</v>
       </c>
       <c r="F130" s="1" t="n">
-        <v>8.9</v>
+        <v>1.5</v>
       </c>
       <c r="G130" s="1" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H130" s="1" t="n">
-        <v>-4.84</v>
+        <v>5.6</v>
       </c>
       <c r="I130" s="1" t="n">
-        <v>4.06</v>
+        <v>7.1</v>
       </c>
       <c r="J130" s="1" t="n">
-        <v>-8.4</v>
+        <v>-7.5</v>
       </c>
       <c r="K130" s="1" t="n">
-        <v>-8.799999999999999</v>
+        <v>-9</v>
       </c>
       <c r="L130" s="1" t="n"/>
       <c r="M130" s="1" t="n">
@@ -9663,10 +9654,10 @@
         <v>0</v>
       </c>
       <c r="O130" s="1" t="n">
-        <v>-0.39</v>
+        <v>6.35</v>
       </c>
       <c r="P130" s="1" t="n">
-        <v>-8.6</v>
+        <v>-8.25</v>
       </c>
       <c r="Q130" s="1" t="n"/>
       <c r="R130" s="1" t="n"/>
@@ -9674,22 +9665,22 @@
         <v>32</v>
       </c>
       <c r="T130" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U130" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V130" s="1" t="n">
-        <v>4.25</v>
+        <v>-22.189</v>
       </c>
       <c r="W130" s="1" t="n">
-        <v>33.258</v>
+        <v>34.188</v>
       </c>
       <c r="X130" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Y130" s="1" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Z130" s="1" t="n"/>
       <c r="AA130" s="1" t="n"/>
@@ -9701,31 +9692,31 @@
       </c>
       <c r="B131" s="1" t="n"/>
       <c r="C131" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>-0.39</v>
+        <v>-5.25</v>
       </c>
       <c r="E131" s="1" t="n">
-        <v>-8.6</v>
+        <v>-4.2</v>
       </c>
       <c r="F131" s="1" t="n">
-        <v>8.9</v>
+        <v>0.8</v>
       </c>
       <c r="G131" s="1" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H131" s="1" t="n">
-        <v>-4.84</v>
+        <v>-5.65</v>
       </c>
       <c r="I131" s="1" t="n">
-        <v>4.06</v>
+        <v>-4.85</v>
       </c>
       <c r="J131" s="1" t="n">
-        <v>-8.4</v>
+        <v>-3.45</v>
       </c>
       <c r="K131" s="1" t="n">
-        <v>-8.799999999999999</v>
+        <v>-4.95</v>
       </c>
       <c r="L131" s="1" t="n"/>
       <c r="M131" s="1" t="n">
@@ -9735,10 +9726,10 @@
         <v>0</v>
       </c>
       <c r="O131" s="1" t="n">
-        <v>-0.39</v>
+        <v>-5.25</v>
       </c>
       <c r="P131" s="1" t="n">
-        <v>-8.6</v>
+        <v>-4.2</v>
       </c>
       <c r="Q131" s="1" t="n"/>
       <c r="R131" s="1" t="n"/>
@@ -9752,10 +9743,10 @@
         <v>1</v>
       </c>
       <c r="V131" s="1" t="n">
-        <v>21.75</v>
+        <v>13.087</v>
       </c>
       <c r="W131" s="1" t="n">
-        <v>33.858</v>
+        <v>34.188</v>
       </c>
       <c r="X131" s="1" t="n">
         <v>0</v>
@@ -9773,31 +9764,31 @@
       </c>
       <c r="B132" s="1" t="n"/>
       <c r="C132" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>-9.69</v>
+        <v>5.45</v>
       </c>
       <c r="E132" s="1" t="n">
-        <v>-6.325</v>
+        <v>10.25</v>
       </c>
       <c r="F132" s="1" t="n">
-        <v>0.4</v>
+        <v>10.1</v>
       </c>
       <c r="G132" s="1" t="n">
-        <v>8.9</v>
+        <v>1.5</v>
       </c>
       <c r="H132" s="1" t="n">
-        <v>-9.889999999999999</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="I132" s="1" t="n">
-        <v>-9.49</v>
+        <v>10.5</v>
       </c>
       <c r="J132" s="1" t="n">
-        <v>-1.875</v>
+        <v>11</v>
       </c>
       <c r="K132" s="1" t="n">
-        <v>-10.775</v>
+        <v>9.5</v>
       </c>
       <c r="L132" s="1" t="n"/>
       <c r="M132" s="1" t="n">
@@ -9807,10 +9798,10 @@
         <v>0</v>
       </c>
       <c r="O132" s="1" t="n">
-        <v>-9.69</v>
+        <v>5.45</v>
       </c>
       <c r="P132" s="1" t="n">
-        <v>-6.325</v>
+        <v>10.25</v>
       </c>
       <c r="Q132" s="1" t="n"/>
       <c r="R132" s="1" t="n"/>
@@ -9818,22 +9809,22 @@
         <v>32</v>
       </c>
       <c r="T132" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U132" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="U132" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="V132" s="1" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
       <c r="W132" s="1" t="n">
-        <v>-0.642</v>
+        <v>-35.645</v>
       </c>
       <c r="X132" s="1" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="Y132" s="1" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="Z132" s="1" t="n"/>
       <c r="AA132" s="1" t="n"/>
@@ -9845,31 +9836,31 @@
       </c>
       <c r="B133" s="1" t="n"/>
       <c r="C133" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>6.35</v>
+        <v>5.45</v>
       </c>
       <c r="E133" s="1" t="n">
-        <v>-8.25</v>
+        <v>10.25</v>
       </c>
       <c r="F133" s="1" t="n">
-        <v>1.5</v>
+        <v>10.1</v>
       </c>
       <c r="G133" s="1" t="n">
         <v>1.5</v>
       </c>
       <c r="H133" s="1" t="n">
-        <v>5.6</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="I133" s="1" t="n">
-        <v>7.1</v>
+        <v>10.5</v>
       </c>
       <c r="J133" s="1" t="n">
-        <v>-7.5</v>
+        <v>11</v>
       </c>
       <c r="K133" s="1" t="n">
-        <v>-9</v>
+        <v>9.5</v>
       </c>
       <c r="L133" s="1" t="n"/>
       <c r="M133" s="1" t="n">
@@ -9879,10 +9870,10 @@
         <v>0</v>
       </c>
       <c r="O133" s="1" t="n">
-        <v>6.35</v>
+        <v>5.45</v>
       </c>
       <c r="P133" s="1" t="n">
-        <v>-8.25</v>
+        <v>10.25</v>
       </c>
       <c r="Q133" s="1" t="n"/>
       <c r="R133" s="1" t="n"/>
@@ -9890,19 +9881,19 @@
         <v>32</v>
       </c>
       <c r="T133" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U133" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V133" s="1" t="n">
-        <v>-22.189</v>
+        <v>-3.85</v>
       </c>
       <c r="W133" s="1" t="n">
-        <v>34.188</v>
+        <v>35.645</v>
       </c>
       <c r="X133" s="1" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="Y133" s="1" t="n">
         <v>0</v>
@@ -9917,31 +9908,31 @@
       </c>
       <c r="B134" s="1" t="n"/>
       <c r="C134" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>-5.25</v>
+        <v>-1</v>
       </c>
       <c r="E134" s="1" t="n">
-        <v>-4.2</v>
+        <v>3.9</v>
       </c>
       <c r="F134" s="1" t="n">
-        <v>0.8</v>
+        <v>7.9</v>
       </c>
       <c r="G134" s="1" t="n">
-        <v>1.5</v>
+        <v>7.8</v>
       </c>
       <c r="H134" s="1" t="n">
-        <v>-5.65</v>
+        <v>-4.95</v>
       </c>
       <c r="I134" s="1" t="n">
-        <v>-4.85</v>
+        <v>2.95</v>
       </c>
       <c r="J134" s="1" t="n">
-        <v>-3.45</v>
+        <v>7.8</v>
       </c>
       <c r="K134" s="1" t="n">
-        <v>-4.95</v>
+        <v>0</v>
       </c>
       <c r="L134" s="1" t="n"/>
       <c r="M134" s="1" t="n">
@@ -9951,10 +9942,10 @@
         <v>0</v>
       </c>
       <c r="O134" s="1" t="n">
-        <v>-5.25</v>
+        <v>-1</v>
       </c>
       <c r="P134" s="1" t="n">
-        <v>-4.2</v>
+        <v>3.9</v>
       </c>
       <c r="Q134" s="1" t="n"/>
       <c r="R134" s="1" t="n"/>
@@ -9962,22 +9953,22 @@
         <v>32</v>
       </c>
       <c r="T134" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U134" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V134" s="1" t="n">
-        <v>13.087</v>
+        <v>0</v>
       </c>
       <c r="W134" s="1" t="n">
-        <v>34.188</v>
+        <v>-0.342</v>
       </c>
       <c r="X134" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y134" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z134" s="1" t="n"/>
       <c r="AA134" s="1" t="n"/>
@@ -9989,31 +9980,31 @@
       </c>
       <c r="B135" s="1" t="n"/>
       <c r="C135" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>5.45</v>
+        <v>-1.65</v>
       </c>
       <c r="E135" s="1" t="n">
-        <v>10.25</v>
+        <v>-3.9</v>
       </c>
       <c r="F135" s="1" t="n">
-        <v>10.1</v>
+        <v>0.9</v>
       </c>
       <c r="G135" s="1" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H135" s="1" t="n">
-        <v>0.4000000000000004</v>
+        <v>-2.1</v>
       </c>
       <c r="I135" s="1" t="n">
-        <v>10.5</v>
+        <v>-1.2</v>
       </c>
       <c r="J135" s="1" t="n">
-        <v>11</v>
+        <v>-3.45</v>
       </c>
       <c r="K135" s="1" t="n">
-        <v>9.5</v>
+        <v>-4.35</v>
       </c>
       <c r="L135" s="1" t="n"/>
       <c r="M135" s="1" t="n">
@@ -10023,10 +10014,10 @@
         <v>0</v>
       </c>
       <c r="O135" s="1" t="n">
-        <v>5.45</v>
+        <v>-1.65</v>
       </c>
       <c r="P135" s="1" t="n">
-        <v>10.25</v>
+        <v>-3.9</v>
       </c>
       <c r="Q135" s="1" t="n"/>
       <c r="R135" s="1" t="n"/>
@@ -10034,19 +10025,19 @@
         <v>32</v>
       </c>
       <c r="T135" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U135" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V135" s="1" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="W135" s="1" t="n">
-        <v>-35.645</v>
+        <v>35.945</v>
       </c>
       <c r="X135" s="1" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="Y135" s="1" t="n">
         <v>0</v>
@@ -10061,31 +10052,31 @@
       </c>
       <c r="B136" s="1" t="n"/>
       <c r="C136" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>5.45</v>
+        <v>-1.65</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>10.25</v>
+        <v>-3.9</v>
       </c>
       <c r="F136" s="1" t="n">
-        <v>10.1</v>
+        <v>0.9</v>
       </c>
       <c r="G136" s="1" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H136" s="1" t="n">
-        <v>0.4000000000000004</v>
+        <v>-2.1</v>
       </c>
       <c r="I136" s="1" t="n">
-        <v>10.5</v>
+        <v>-1.2</v>
       </c>
       <c r="J136" s="1" t="n">
-        <v>11</v>
+        <v>-3.45</v>
       </c>
       <c r="K136" s="1" t="n">
-        <v>9.5</v>
+        <v>-4.35</v>
       </c>
       <c r="L136" s="1" t="n"/>
       <c r="M136" s="1" t="n">
@@ -10095,10 +10086,10 @@
         <v>0</v>
       </c>
       <c r="O136" s="1" t="n">
-        <v>5.45</v>
+        <v>-1.65</v>
       </c>
       <c r="P136" s="1" t="n">
-        <v>10.25</v>
+        <v>-3.9</v>
       </c>
       <c r="Q136" s="1" t="n"/>
       <c r="R136" s="1" t="n"/>
@@ -10106,19 +10097,19 @@
         <v>32</v>
       </c>
       <c r="T136" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U136" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V136" s="1" t="n">
-        <v>-3.85</v>
+        <v>-21.2</v>
       </c>
       <c r="W136" s="1" t="n">
-        <v>35.645</v>
+        <v>35.945</v>
       </c>
       <c r="X136" s="1" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="Y136" s="1" t="n">
         <v>0</v>
@@ -10133,31 +10124,31 @@
       </c>
       <c r="B137" s="1" t="n"/>
       <c r="C137" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>3.9</v>
+        <v>-0.5</v>
       </c>
       <c r="F137" s="1" t="n">
-        <v>7.9</v>
+        <v>4</v>
       </c>
       <c r="G137" s="1" t="n">
-        <v>7.8</v>
+        <v>0.9</v>
       </c>
       <c r="H137" s="1" t="n">
-        <v>-4.95</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="I137" s="1" t="n">
-        <v>2.95</v>
+        <v>4.8</v>
       </c>
       <c r="J137" s="1" t="n">
-        <v>7.8</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K137" s="1" t="n">
-        <v>0</v>
+        <v>-0.95</v>
       </c>
       <c r="L137" s="1" t="n"/>
       <c r="M137" s="1" t="n">
@@ -10167,10 +10158,10 @@
         <v>0</v>
       </c>
       <c r="O137" s="1" t="n">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="P137" s="1" t="n">
-        <v>3.9</v>
+        <v>-0.5</v>
       </c>
       <c r="Q137" s="1" t="n"/>
       <c r="R137" s="1" t="n"/>
@@ -10178,22 +10169,22 @@
         <v>32</v>
       </c>
       <c r="T137" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U137" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V137" s="1" t="n">
-        <v>0</v>
+        <v>23.731</v>
       </c>
       <c r="W137" s="1" t="n">
-        <v>-0.342</v>
+        <v>-33.685</v>
       </c>
       <c r="X137" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Y137" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z137" s="1" t="n"/>
       <c r="AA137" s="1" t="n"/>
@@ -10205,44 +10196,44 @@
       </c>
       <c r="B138" s="1" t="n"/>
       <c r="C138" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>-1.65</v>
+        <v>6.85</v>
       </c>
       <c r="E138" s="1" t="n">
-        <v>-3.9</v>
+        <v>-0.5</v>
       </c>
       <c r="F138" s="1" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="G138" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="H138" s="1" t="n">
-        <v>-2.1</v>
+        <v>4.85</v>
       </c>
       <c r="I138" s="1" t="n">
-        <v>-1.2</v>
+        <v>8.85</v>
       </c>
       <c r="J138" s="1" t="n">
-        <v>-3.45</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K138" s="1" t="n">
-        <v>-4.35</v>
+        <v>-0.95</v>
       </c>
       <c r="L138" s="1" t="n"/>
       <c r="M138" s="1" t="n">
-        <v>0</v>
+        <v>2.731</v>
       </c>
       <c r="N138" s="1" t="n">
-        <v>0</v>
+        <v>3.943</v>
       </c>
       <c r="O138" s="1" t="n">
-        <v>-1.65</v>
+        <v>4.119</v>
       </c>
       <c r="P138" s="1" t="n">
-        <v>-3.9</v>
+        <v>-4.443</v>
       </c>
       <c r="Q138" s="1" t="n"/>
       <c r="R138" s="1" t="n"/>
@@ -10250,22 +10241,22 @@
         <v>32</v>
       </c>
       <c r="T138" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U138" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V138" s="1" t="n">
-        <v>13.5</v>
+        <v>29.4</v>
       </c>
       <c r="W138" s="1" t="n">
-        <v>35.945</v>
+        <v>-4.542</v>
       </c>
       <c r="X138" s="1" t="n">
-        <v>1</v>
+        <v>3.788</v>
       </c>
       <c r="Y138" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Z138" s="1" t="n"/>
       <c r="AA138" s="1" t="n"/>
@@ -10277,44 +10268,44 @@
       </c>
       <c r="B139" s="1" t="n"/>
       <c r="C139" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>-1.65</v>
+        <v>6.85</v>
       </c>
       <c r="E139" s="1" t="n">
-        <v>-3.9</v>
+        <v>-1.45</v>
       </c>
       <c r="F139" s="1" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="G139" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="H139" s="1" t="n">
-        <v>-2.1</v>
+        <v>4.85</v>
       </c>
       <c r="I139" s="1" t="n">
-        <v>-1.2</v>
+        <v>8.85</v>
       </c>
       <c r="J139" s="1" t="n">
-        <v>-3.45</v>
+        <v>-1</v>
       </c>
       <c r="K139" s="1" t="n">
-        <v>-4.35</v>
+        <v>-1.9</v>
       </c>
       <c r="L139" s="1" t="n"/>
       <c r="M139" s="1" t="n">
-        <v>0</v>
+        <v>-2.731</v>
       </c>
       <c r="N139" s="1" t="n">
-        <v>0</v>
+        <v>-3.943</v>
       </c>
       <c r="O139" s="1" t="n">
-        <v>-1.65</v>
+        <v>9.581</v>
       </c>
       <c r="P139" s="1" t="n">
-        <v>-3.9</v>
+        <v>2.493</v>
       </c>
       <c r="Q139" s="1" t="n"/>
       <c r="R139" s="1" t="n"/>
@@ -10322,22 +10313,22 @@
         <v>32</v>
       </c>
       <c r="T139" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U139" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V139" s="1" t="n">
-        <v>-21.2</v>
+        <v>-29.4</v>
       </c>
       <c r="W139" s="1" t="n">
-        <v>35.945</v>
+        <v>-4.542</v>
       </c>
       <c r="X139" s="1" t="n">
-        <v>1</v>
+        <v>3.788</v>
       </c>
       <c r="Y139" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Z139" s="1" t="n"/>
       <c r="AA139" s="1" t="n"/>
@@ -10349,31 +10340,31 @@
       </c>
       <c r="B140" s="1" t="n"/>
       <c r="C140" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>2.8</v>
+        <v>0.45</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>-0.5</v>
+        <v>-1.85</v>
       </c>
       <c r="F140" s="1" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G140" s="1" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H140" s="1" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="I140" s="1" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="J140" s="1" t="n">
-        <v>-0.04999999999999999</v>
+        <v>-1.6</v>
       </c>
       <c r="K140" s="1" t="n">
-        <v>-0.95</v>
+        <v>-2.1</v>
       </c>
       <c r="L140" s="1" t="n"/>
       <c r="M140" s="1" t="n">
@@ -10383,10 +10374,10 @@
         <v>0</v>
       </c>
       <c r="O140" s="1" t="n">
-        <v>2.8</v>
+        <v>0.45</v>
       </c>
       <c r="P140" s="1" t="n">
-        <v>-0.5</v>
+        <v>-1.85</v>
       </c>
       <c r="Q140" s="1" t="n"/>
       <c r="R140" s="1" t="n"/>
@@ -10400,10 +10391,10 @@
         <v>1</v>
       </c>
       <c r="V140" s="1" t="n">
-        <v>23.731</v>
+        <v>-25.758</v>
       </c>
       <c r="W140" s="1" t="n">
-        <v>-33.685</v>
+        <v>25.152</v>
       </c>
       <c r="X140" s="1" t="n">
         <v>0</v>
@@ -10421,44 +10412,44 @@
       </c>
       <c r="B141" s="1" t="n"/>
       <c r="C141" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>6.85</v>
+        <v>-0.1</v>
       </c>
       <c r="E141" s="1" t="n">
-        <v>-0.5</v>
+        <v>-1.85</v>
       </c>
       <c r="F141" s="1" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G141" s="1" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H141" s="1" t="n">
-        <v>4.85</v>
+        <v>-0.35</v>
       </c>
       <c r="I141" s="1" t="n">
-        <v>8.85</v>
+        <v>0.15</v>
       </c>
       <c r="J141" s="1" t="n">
-        <v>-0.04999999999999999</v>
+        <v>-1.6</v>
       </c>
       <c r="K141" s="1" t="n">
-        <v>-0.95</v>
+        <v>-2.1</v>
       </c>
       <c r="L141" s="1" t="n"/>
       <c r="M141" s="1" t="n">
-        <v>2.731</v>
+        <v>0</v>
       </c>
       <c r="N141" s="1" t="n">
-        <v>3.943</v>
+        <v>0</v>
       </c>
       <c r="O141" s="1" t="n">
-        <v>4.119</v>
+        <v>-0.1</v>
       </c>
       <c r="P141" s="1" t="n">
-        <v>-4.443</v>
+        <v>-1.85</v>
       </c>
       <c r="Q141" s="1" t="n"/>
       <c r="R141" s="1" t="n"/>
@@ -10469,19 +10460,19 @@
         <v>1</v>
       </c>
       <c r="U141" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V141" s="1" t="n">
-        <v>29.4</v>
+        <v>34.158</v>
       </c>
       <c r="W141" s="1" t="n">
-        <v>-4.542</v>
+        <v>25.152</v>
       </c>
       <c r="X141" s="1" t="n">
-        <v>3.788</v>
+        <v>0</v>
       </c>
       <c r="Y141" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Z141" s="1" t="n"/>
       <c r="AA141" s="1" t="n"/>
@@ -10493,44 +10484,44 @@
       </c>
       <c r="B142" s="1" t="n"/>
       <c r="C142" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>6.85</v>
+        <v>-0.1</v>
       </c>
       <c r="E142" s="1" t="n">
-        <v>-1.45</v>
+        <v>-1.85</v>
       </c>
       <c r="F142" s="1" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G142" s="1" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H142" s="1" t="n">
-        <v>4.85</v>
+        <v>-0.35</v>
       </c>
       <c r="I142" s="1" t="n">
-        <v>8.85</v>
+        <v>0.15</v>
       </c>
       <c r="J142" s="1" t="n">
-        <v>-1</v>
+        <v>-1.6</v>
       </c>
       <c r="K142" s="1" t="n">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="L142" s="1" t="n"/>
       <c r="M142" s="1" t="n">
-        <v>-2.731</v>
+        <v>0</v>
       </c>
       <c r="N142" s="1" t="n">
-        <v>-3.943</v>
+        <v>0</v>
       </c>
       <c r="O142" s="1" t="n">
-        <v>9.581</v>
+        <v>-0.1</v>
       </c>
       <c r="P142" s="1" t="n">
-        <v>2.493</v>
+        <v>-1.85</v>
       </c>
       <c r="Q142" s="1" t="n"/>
       <c r="R142" s="1" t="n"/>
@@ -10541,19 +10532,19 @@
         <v>1</v>
       </c>
       <c r="U142" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V142" s="1" t="n">
-        <v>-29.4</v>
+        <v>25.758</v>
       </c>
       <c r="W142" s="1" t="n">
-        <v>-4.542</v>
+        <v>33.662</v>
       </c>
       <c r="X142" s="1" t="n">
-        <v>3.788</v>
+        <v>0</v>
       </c>
       <c r="Y142" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Z142" s="1" t="n"/>
       <c r="AA142" s="1" t="n"/>
@@ -10565,31 +10556,31 @@
       </c>
       <c r="B143" s="1" t="n"/>
       <c r="C143" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>-3.95</v>
+        <v>1</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>-4.15</v>
+        <v>-2.2</v>
       </c>
       <c r="F143" s="1" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="G143" s="1" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H143" s="1" t="n">
-        <v>-4.8</v>
+        <v>0.75</v>
       </c>
       <c r="I143" s="1" t="n">
-        <v>-3.1</v>
+        <v>1.25</v>
       </c>
       <c r="J143" s="1" t="n">
-        <v>-3.95</v>
+        <v>-1.95</v>
       </c>
       <c r="K143" s="1" t="n">
-        <v>-4.350000000000001</v>
+        <v>-2.45</v>
       </c>
       <c r="L143" s="1" t="n"/>
       <c r="M143" s="1" t="n">
@@ -10599,10 +10590,10 @@
         <v>0</v>
       </c>
       <c r="O143" s="1" t="n">
-        <v>-3.95</v>
+        <v>1</v>
       </c>
       <c r="P143" s="1" t="n">
-        <v>-4.15</v>
+        <v>-2.2</v>
       </c>
       <c r="Q143" s="1" t="n"/>
       <c r="R143" s="1" t="n"/>
@@ -10616,10 +10607,10 @@
         <v>1</v>
       </c>
       <c r="V143" s="1" t="n">
-        <v>24.117</v>
+        <v>-34.158</v>
       </c>
       <c r="W143" s="1" t="n">
-        <v>-33.6</v>
+        <v>25.152</v>
       </c>
       <c r="X143" s="1" t="n">
         <v>0</v>
@@ -10637,13 +10628,13 @@
       </c>
       <c r="B144" s="1" t="n"/>
       <c r="C144" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>-1.85</v>
+        <v>-2.2</v>
       </c>
       <c r="F144" s="1" t="n">
         <v>0.5</v>
@@ -10652,16 +10643,16 @@
         <v>0.5</v>
       </c>
       <c r="H144" s="1" t="n">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="I144" s="1" t="n">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="J144" s="1" t="n">
-        <v>-1.6</v>
+        <v>-1.95</v>
       </c>
       <c r="K144" s="1" t="n">
-        <v>-2.1</v>
+        <v>-2.45</v>
       </c>
       <c r="L144" s="1" t="n"/>
       <c r="M144" s="1" t="n">
@@ -10671,10 +10662,10 @@
         <v>0</v>
       </c>
       <c r="O144" s="1" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="P144" s="1" t="n">
-        <v>-1.85</v>
+        <v>-2.2</v>
       </c>
       <c r="Q144" s="1" t="n"/>
       <c r="R144" s="1" t="n"/>
@@ -10691,7 +10682,7 @@
         <v>-25.758</v>
       </c>
       <c r="W144" s="1" t="n">
-        <v>25.152</v>
+        <v>33.662</v>
       </c>
       <c r="X144" s="1" t="n">
         <v>0</v>
@@ -10709,13 +10700,13 @@
       </c>
       <c r="B145" s="1" t="n"/>
       <c r="C145" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>-0.1</v>
+        <v>1.55</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>-1.85</v>
+        <v>-2.2</v>
       </c>
       <c r="F145" s="1" t="n">
         <v>0.5</v>
@@ -10724,16 +10715,16 @@
         <v>0.5</v>
       </c>
       <c r="H145" s="1" t="n">
-        <v>-0.35</v>
+        <v>1.3</v>
       </c>
       <c r="I145" s="1" t="n">
-        <v>0.15</v>
+        <v>1.8</v>
       </c>
       <c r="J145" s="1" t="n">
-        <v>-1.6</v>
+        <v>-1.95</v>
       </c>
       <c r="K145" s="1" t="n">
-        <v>-2.1</v>
+        <v>-2.45</v>
       </c>
       <c r="L145" s="1" t="n"/>
       <c r="M145" s="1" t="n">
@@ -10743,10 +10734,10 @@
         <v>0</v>
       </c>
       <c r="O145" s="1" t="n">
-        <v>-0.1</v>
+        <v>1.55</v>
       </c>
       <c r="P145" s="1" t="n">
-        <v>-1.85</v>
+        <v>-2.2</v>
       </c>
       <c r="Q145" s="1" t="n"/>
       <c r="R145" s="1" t="n"/>
@@ -10760,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="V145" s="1" t="n">
-        <v>34.158</v>
+        <v>25.758</v>
       </c>
       <c r="W145" s="1" t="n">
         <v>25.152</v>
@@ -10781,44 +10772,44 @@
       </c>
       <c r="B146" s="1" t="n"/>
       <c r="C146" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>-0.1</v>
+        <v>-6.4</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>-1.85</v>
+        <v>-6.625</v>
       </c>
       <c r="F146" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="G146" s="1" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H146" s="1" t="n">
-        <v>-0.35</v>
+        <v>-6.65</v>
       </c>
       <c r="I146" s="1" t="n">
-        <v>0.15</v>
+        <v>-6.15</v>
       </c>
       <c r="J146" s="1" t="n">
-        <v>-1.6</v>
+        <v>-4.475</v>
       </c>
       <c r="K146" s="1" t="n">
-        <v>-2.1</v>
+        <v>-8.775</v>
       </c>
       <c r="L146" s="1" t="n"/>
       <c r="M146" s="1" t="n">
-        <v>0</v>
+        <v>3.746</v>
       </c>
       <c r="N146" s="1" t="n">
-        <v>0</v>
+        <v>-1.931</v>
       </c>
       <c r="O146" s="1" t="n">
-        <v>-0.1</v>
+        <v>-10.146</v>
       </c>
       <c r="P146" s="1" t="n">
-        <v>-1.85</v>
+        <v>-4.694</v>
       </c>
       <c r="Q146" s="1" t="n"/>
       <c r="R146" s="1" t="n"/>
@@ -10826,22 +10817,22 @@
         <v>32</v>
       </c>
       <c r="T146" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U146" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V146" s="1" t="n">
-        <v>25.758</v>
+        <v>4.2</v>
       </c>
       <c r="W146" s="1" t="n">
-        <v>33.662</v>
+        <v>-0.342</v>
       </c>
       <c r="X146" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Y146" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z146" s="1" t="n"/>
       <c r="AA146" s="1" t="n"/>
@@ -10853,44 +10844,44 @@
       </c>
       <c r="B147" s="1" t="n"/>
       <c r="C147" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>1</v>
+        <v>-6.95</v>
       </c>
       <c r="E147" s="1" t="n">
-        <v>-2.2</v>
+        <v>-6.519</v>
       </c>
       <c r="F147" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="G147" s="1" t="n">
-        <v>0.5</v>
+        <v>4.506</v>
       </c>
       <c r="H147" s="1" t="n">
-        <v>0.75</v>
+        <v>-7.2</v>
       </c>
       <c r="I147" s="1" t="n">
-        <v>1.25</v>
+        <v>-6.7</v>
       </c>
       <c r="J147" s="1" t="n">
-        <v>-1.95</v>
+        <v>-4.269</v>
       </c>
       <c r="K147" s="1" t="n">
-        <v>-2.45</v>
+        <v>-8.775</v>
       </c>
       <c r="L147" s="1" t="n"/>
       <c r="M147" s="1" t="n">
-        <v>0</v>
+        <v>3.747</v>
       </c>
       <c r="N147" s="1" t="n">
-        <v>0</v>
+        <v>1.816</v>
       </c>
       <c r="O147" s="1" t="n">
-        <v>1</v>
+        <v>-10.697</v>
       </c>
       <c r="P147" s="1" t="n">
-        <v>-2.2</v>
+        <v>-8.335000000000001</v>
       </c>
       <c r="Q147" s="1" t="n"/>
       <c r="R147" s="1" t="n"/>
@@ -10898,22 +10889,22 @@
         <v>32</v>
       </c>
       <c r="T147" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U147" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V147" s="1" t="n">
-        <v>-34.158</v>
+        <v>-4.2</v>
       </c>
       <c r="W147" s="1" t="n">
-        <v>25.152</v>
+        <v>-0.342</v>
       </c>
       <c r="X147" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Y147" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z147" s="1" t="n"/>
       <c r="AA147" s="1" t="n"/>
@@ -10925,44 +10916,44 @@
       </c>
       <c r="B148" s="1" t="n"/>
       <c r="C148" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>1</v>
+        <v>-7.5</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>-2.2</v>
+        <v>-6.675</v>
       </c>
       <c r="F148" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="G148" s="1" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H148" s="1" t="n">
-        <v>0.75</v>
+        <v>-7.75</v>
       </c>
       <c r="I148" s="1" t="n">
-        <v>1.25</v>
+        <v>-7.25</v>
       </c>
       <c r="J148" s="1" t="n">
-        <v>-1.95</v>
+        <v>-4.574999999999999</v>
       </c>
       <c r="K148" s="1" t="n">
-        <v>-2.45</v>
+        <v>-8.775</v>
       </c>
       <c r="L148" s="1" t="n"/>
       <c r="M148" s="1" t="n">
-        <v>0</v>
+        <v>-3.745</v>
       </c>
       <c r="N148" s="1" t="n">
-        <v>0</v>
+        <v>1.967</v>
       </c>
       <c r="O148" s="1" t="n">
-        <v>1</v>
+        <v>-3.755</v>
       </c>
       <c r="P148" s="1" t="n">
-        <v>-2.2</v>
+        <v>-8.641999999999999</v>
       </c>
       <c r="Q148" s="1" t="n"/>
       <c r="R148" s="1" t="n"/>
@@ -10970,22 +10961,22 @@
         <v>32</v>
       </c>
       <c r="T148" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U148" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V148" s="1" t="n">
-        <v>-25.758</v>
+        <v>-4.2</v>
       </c>
       <c r="W148" s="1" t="n">
-        <v>33.662</v>
+        <v>-0.342</v>
       </c>
       <c r="X148" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Y148" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z148" s="1" t="n"/>
       <c r="AA148" s="1" t="n"/>
@@ -10997,44 +10988,44 @@
       </c>
       <c r="B149" s="1" t="n"/>
       <c r="C149" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>1.55</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>-2.2</v>
+        <v>-6.625</v>
       </c>
       <c r="F149" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="G149" s="1" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H149" s="1" t="n">
-        <v>1.3</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="I149" s="1" t="n">
-        <v>1.8</v>
+        <v>-7.800000000000001</v>
       </c>
       <c r="J149" s="1" t="n">
-        <v>-1.95</v>
+        <v>-4.475</v>
       </c>
       <c r="K149" s="1" t="n">
-        <v>-2.45</v>
+        <v>-8.775</v>
       </c>
       <c r="L149" s="1" t="n"/>
       <c r="M149" s="1" t="n">
-        <v>0</v>
+        <v>-3.746</v>
       </c>
       <c r="N149" s="1" t="n">
-        <v>0</v>
+        <v>-1.891</v>
       </c>
       <c r="O149" s="1" t="n">
-        <v>1.55</v>
+        <v>-4.304</v>
       </c>
       <c r="P149" s="1" t="n">
-        <v>-2.2</v>
+        <v>-4.734</v>
       </c>
       <c r="Q149" s="1" t="n"/>
       <c r="R149" s="1" t="n"/>
@@ -11042,22 +11033,22 @@
         <v>32</v>
       </c>
       <c r="T149" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U149" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V149" s="1" t="n">
-        <v>25.758</v>
+        <v>4.2</v>
       </c>
       <c r="W149" s="1" t="n">
-        <v>25.152</v>
+        <v>-0.342</v>
       </c>
       <c r="X149" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Y149" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z149" s="1" t="n"/>
       <c r="AA149" s="1" t="n"/>
@@ -11069,44 +11060,44 @@
       </c>
       <c r="B150" s="1" t="n"/>
       <c r="C150" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>-6.4</v>
+        <v>-0.95</v>
       </c>
       <c r="E150" s="1" t="n">
-        <v>-6.625</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F150" s="1" t="n">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="G150" s="1" t="n">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="H150" s="1" t="n">
-        <v>-6.65</v>
+        <v>-4.95</v>
       </c>
       <c r="I150" s="1" t="n">
-        <v>-6.15</v>
+        <v>3.05</v>
       </c>
       <c r="J150" s="1" t="n">
-        <v>-4.475</v>
+        <v>8.25</v>
       </c>
       <c r="K150" s="1" t="n">
-        <v>-8.775</v>
+        <v>7.850000000000001</v>
       </c>
       <c r="L150" s="1" t="n"/>
       <c r="M150" s="1" t="n">
-        <v>3.746</v>
+        <v>0</v>
       </c>
       <c r="N150" s="1" t="n">
-        <v>-1.931</v>
+        <v>0</v>
       </c>
       <c r="O150" s="1" t="n">
-        <v>-10.146</v>
+        <v>-0.95</v>
       </c>
       <c r="P150" s="1" t="n">
-        <v>-4.694</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Q150" s="1" t="n"/>
       <c r="R150" s="1" t="n"/>
@@ -11117,13 +11108,13 @@
         <v>4</v>
       </c>
       <c r="U150" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V150" s="1" t="n">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="W150" s="1" t="n">
-        <v>-0.342</v>
+        <v>-4.122</v>
       </c>
       <c r="X150" s="1" t="n">
         <v>16.8</v>
@@ -11141,44 +11132,44 @@
       </c>
       <c r="B151" s="1" t="n"/>
       <c r="C151" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>-6.95</v>
+        <v>3.85</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>-6.519</v>
+        <v>-3.9</v>
       </c>
       <c r="F151" s="1" t="n">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="G151" s="1" t="n">
-        <v>4.506</v>
+        <v>0.9</v>
       </c>
       <c r="H151" s="1" t="n">
-        <v>-7.2</v>
+        <v>-1.15</v>
       </c>
       <c r="I151" s="1" t="n">
-        <v>-6.7</v>
+        <v>8.85</v>
       </c>
       <c r="J151" s="1" t="n">
-        <v>-4.269</v>
+        <v>-3.45</v>
       </c>
       <c r="K151" s="1" t="n">
-        <v>-8.775</v>
+        <v>-4.35</v>
       </c>
       <c r="L151" s="1" t="n"/>
       <c r="M151" s="1" t="n">
-        <v>3.747</v>
+        <v>0</v>
       </c>
       <c r="N151" s="1" t="n">
-        <v>1.816</v>
+        <v>-3.943</v>
       </c>
       <c r="O151" s="1" t="n">
-        <v>-10.697</v>
+        <v>3.85</v>
       </c>
       <c r="P151" s="1" t="n">
-        <v>-8.335000000000001</v>
+        <v>0.04300000000000015</v>
       </c>
       <c r="Q151" s="1" t="n"/>
       <c r="R151" s="1" t="n"/>
@@ -11192,7 +11183,7 @@
         <v>8</v>
       </c>
       <c r="V151" s="1" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="W151" s="1" t="n">
         <v>-0.342</v>
@@ -11213,44 +11204,44 @@
       </c>
       <c r="B152" s="1" t="n"/>
       <c r="C152" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>-7.5</v>
+        <v>-0.95</v>
       </c>
       <c r="E152" s="1" t="n">
-        <v>-6.675</v>
+        <v>8.5</v>
       </c>
       <c r="F152" s="1" t="n">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="G152" s="1" t="n">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="H152" s="1" t="n">
-        <v>-7.75</v>
+        <v>-4.95</v>
       </c>
       <c r="I152" s="1" t="n">
-        <v>-7.25</v>
+        <v>3.05</v>
       </c>
       <c r="J152" s="1" t="n">
-        <v>-4.574999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K152" s="1" t="n">
-        <v>-8.775</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L152" s="1" t="n"/>
       <c r="M152" s="1" t="n">
-        <v>-3.745</v>
+        <v>0</v>
       </c>
       <c r="N152" s="1" t="n">
-        <v>1.967</v>
+        <v>0</v>
       </c>
       <c r="O152" s="1" t="n">
-        <v>-3.755</v>
+        <v>-0.95</v>
       </c>
       <c r="P152" s="1" t="n">
-        <v>-8.641999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="Q152" s="1" t="n"/>
       <c r="R152" s="1" t="n"/>
@@ -11261,13 +11252,13 @@
         <v>4</v>
       </c>
       <c r="U152" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V152" s="1" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="W152" s="1" t="n">
-        <v>-0.342</v>
+        <v>3.437</v>
       </c>
       <c r="X152" s="1" t="n">
         <v>16.8</v>
@@ -11285,44 +11276,44 @@
       </c>
       <c r="B153" s="1" t="n"/>
       <c r="C153" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>-8.050000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>-6.625</v>
+        <v>-4.45</v>
       </c>
       <c r="F153" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>4.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H153" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>-7.800000000000001</v>
+        <v>10.15</v>
       </c>
       <c r="J153" s="1" t="n">
-        <v>-4.475</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="K153" s="1" t="n">
-        <v>-8.775</v>
+        <v>-8.850000000000001</v>
       </c>
       <c r="L153" s="1" t="n"/>
       <c r="M153" s="1" t="n">
-        <v>-3.746</v>
+        <v>0</v>
       </c>
       <c r="N153" s="1" t="n">
-        <v>-1.891</v>
+        <v>0</v>
       </c>
       <c r="O153" s="1" t="n">
-        <v>-4.304</v>
+        <v>9.9</v>
       </c>
       <c r="P153" s="1" t="n">
-        <v>-4.734</v>
+        <v>-4.45</v>
       </c>
       <c r="Q153" s="1" t="n"/>
       <c r="R153" s="1" t="n"/>
@@ -11330,19 +11321,19 @@
         <v>32</v>
       </c>
       <c r="T153" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U153" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V153" s="1" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="W153" s="1" t="n">
-        <v>-0.342</v>
+        <v>-0.098</v>
       </c>
       <c r="X153" s="1" t="n">
-        <v>16.8</v>
+        <v>68.316</v>
       </c>
       <c r="Y153" s="1" t="n">
         <v>8.4</v>
@@ -11357,31 +11348,31 @@
       </c>
       <c r="B154" s="1" t="n"/>
       <c r="C154" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>-0.95</v>
+        <v>9.9</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>8.050000000000001</v>
+        <v>-4.45</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>0.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>-4.95</v>
+        <v>9.65</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>3.05</v>
+        <v>10.15</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>8.25</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>7.850000000000001</v>
+        <v>-8.850000000000001</v>
       </c>
       <c r="L154" s="1" t="n"/>
       <c r="M154" s="1" t="n">
@@ -11391,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>-0.95</v>
+        <v>9.9</v>
       </c>
       <c r="P154" s="1" t="n">
-        <v>8.050000000000001</v>
+        <v>-4.45</v>
       </c>
       <c r="Q154" s="1" t="n"/>
       <c r="R154" s="1" t="n"/>
@@ -11402,22 +11393,22 @@
         <v>32</v>
       </c>
       <c r="T154" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U154" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V154" s="1" t="n">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="W154" s="1" t="n">
-        <v>-4.122</v>
+        <v>29.407</v>
       </c>
       <c r="X154" s="1" t="n">
-        <v>16.8</v>
+        <v>51.516</v>
       </c>
       <c r="Y154" s="1" t="n">
-        <v>8.4</v>
+        <v>2.4</v>
       </c>
       <c r="Z154" s="1" t="n"/>
       <c r="AA154" s="1" t="n"/>
@@ -11429,44 +11420,44 @@
       </c>
       <c r="B155" s="1" t="n"/>
       <c r="C155" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>3.85</v>
+        <v>9.25</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>-3.9</v>
+        <v>-4.45</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>0.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>-1.15</v>
+        <v>8.9</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>8.85</v>
+        <v>9.6</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>-3.45</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>-4.35</v>
+        <v>-8.850000000000001</v>
       </c>
       <c r="L155" s="1" t="n"/>
       <c r="M155" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>-3.943</v>
+        <v>0</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>3.85</v>
+        <v>9.25</v>
       </c>
       <c r="P155" s="1" t="n">
-        <v>0.04300000000000015</v>
+        <v>-4.45</v>
       </c>
       <c r="Q155" s="1" t="n"/>
       <c r="R155" s="1" t="n"/>
@@ -11474,22 +11465,22 @@
         <v>32</v>
       </c>
       <c r="T155" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U155" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V155" s="1" t="n">
-        <v>4.2</v>
+        <v>34.158</v>
       </c>
       <c r="W155" s="1" t="n">
-        <v>-0.342</v>
+        <v>4.102</v>
       </c>
       <c r="X155" s="1" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="Y155" s="1" t="n">
         <v>16.8</v>
-      </c>
-      <c r="Y155" s="1" t="n">
-        <v>8.4</v>
       </c>
       <c r="Z155" s="1" t="n"/>
       <c r="AA155" s="1" t="n"/>
@@ -11501,31 +11492,31 @@
       </c>
       <c r="B156" s="1" t="n"/>
       <c r="C156" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>-0.95</v>
+        <v>10.55</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>8.5</v>
+        <v>-4.45</v>
       </c>
       <c r="F156" s="1" t="n">
-        <v>8</v>
+        <v>0.7</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>0.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>-4.95</v>
+        <v>10.2</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>3.05</v>
+        <v>10.9</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>8.699999999999999</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="K156" s="1" t="n">
-        <v>8.300000000000001</v>
+        <v>-8.850000000000001</v>
       </c>
       <c r="L156" s="1" t="n"/>
       <c r="M156" s="1" t="n">
@@ -11535,10 +11526,10 @@
         <v>0</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>-0.95</v>
+        <v>10.55</v>
       </c>
       <c r="P156" s="1" t="n">
-        <v>8.5</v>
+        <v>-4.45</v>
       </c>
       <c r="Q156" s="1" t="n"/>
       <c r="R156" s="1" t="n"/>
@@ -11546,22 +11537,22 @@
         <v>32</v>
       </c>
       <c r="T156" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U156" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V156" s="1" t="n">
-        <v>4.2</v>
+        <v>-34.158</v>
       </c>
       <c r="W156" s="1" t="n">
-        <v>3.437</v>
+        <v>-4.298</v>
       </c>
       <c r="X156" s="1" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="Y156" s="1" t="n">
         <v>16.8</v>
-      </c>
-      <c r="Y156" s="1" t="n">
-        <v>8.4</v>
       </c>
       <c r="Z156" s="1" t="n"/>
       <c r="AA156" s="1" t="n"/>
@@ -11569,48 +11560,48 @@
     </row>
     <row r="157" spans="1:28">
       <c r="A157" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="B157" s="1" t="n"/>
       <c r="C157" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>9.9</v>
+        <v>0.55</v>
       </c>
       <c r="E157" s="1" t="n">
-        <v>-4.45</v>
+        <v>-0.85</v>
       </c>
       <c r="F157" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G157" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="G157" s="1" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="H157" s="1" t="n">
-        <v>9.65</v>
+        <v>0.35</v>
       </c>
       <c r="I157" s="1" t="n">
-        <v>10.15</v>
+        <v>0.75</v>
       </c>
       <c r="J157" s="1" t="n">
-        <v>-0.04999999999999982</v>
+        <v>-0.6</v>
       </c>
       <c r="K157" s="1" t="n">
-        <v>-8.850000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="L157" s="1" t="n"/>
       <c r="M157" s="1" t="n">
-        <v>0</v>
+        <v>1.309</v>
       </c>
       <c r="N157" s="1" t="n">
-        <v>0</v>
+        <v>3.916</v>
       </c>
       <c r="O157" s="1" t="n">
-        <v>9.9</v>
+        <v>-0.7589999999999999</v>
       </c>
       <c r="P157" s="1" t="n">
-        <v>-4.45</v>
+        <v>-4.766</v>
       </c>
       <c r="Q157" s="1" t="n"/>
       <c r="R157" s="1" t="n"/>
@@ -11618,22 +11609,22 @@
         <v>32</v>
       </c>
       <c r="T157" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U157" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V157" s="1" t="n">
-        <v>0</v>
+        <v>29.4</v>
       </c>
       <c r="W157" s="1" t="n">
-        <v>-0.098</v>
+        <v>-4.542</v>
       </c>
       <c r="X157" s="1" t="n">
-        <v>68.316</v>
+        <v>3.788</v>
       </c>
       <c r="Y157" s="1" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="Z157" s="1" t="n"/>
       <c r="AA157" s="1" t="n"/>
@@ -11641,35 +11632,35 @@
     </row>
     <row r="158" spans="1:28">
       <c r="A158" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="B158" s="1" t="n"/>
       <c r="C158" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>9.9</v>
+        <v>0.55</v>
       </c>
       <c r="E158" s="1" t="n">
-        <v>-4.45</v>
+        <v>-0.85</v>
       </c>
       <c r="F158" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G158" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="G158" s="1" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="H158" s="1" t="n">
-        <v>9.65</v>
+        <v>0.35</v>
       </c>
       <c r="I158" s="1" t="n">
-        <v>10.15</v>
+        <v>0.75</v>
       </c>
       <c r="J158" s="1" t="n">
-        <v>-0.04999999999999982</v>
+        <v>-0.6</v>
       </c>
       <c r="K158" s="1" t="n">
-        <v>-8.850000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="L158" s="1" t="n"/>
       <c r="M158" s="1" t="n">
@@ -11679,10 +11670,10 @@
         <v>0</v>
       </c>
       <c r="O158" s="1" t="n">
-        <v>9.9</v>
+        <v>0.55</v>
       </c>
       <c r="P158" s="1" t="n">
-        <v>-4.45</v>
+        <v>-0.85</v>
       </c>
       <c r="Q158" s="1" t="n"/>
       <c r="R158" s="1" t="n"/>
@@ -11690,22 +11681,22 @@
         <v>32</v>
       </c>
       <c r="T158" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U158" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V158" s="1" t="n">
-        <v>0</v>
+        <v>22.309</v>
       </c>
       <c r="W158" s="1" t="n">
-        <v>29.407</v>
+        <v>-33.658</v>
       </c>
       <c r="X158" s="1" t="n">
-        <v>51.516</v>
+        <v>0</v>
       </c>
       <c r="Y158" s="1" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Z158" s="1" t="n"/>
       <c r="AA158" s="1" t="n"/>
@@ -11713,48 +11704,48 @@
     </row>
     <row r="159" spans="1:28">
       <c r="A159" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="B159" s="1" t="n"/>
       <c r="C159" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>9.25</v>
+        <v>0.55</v>
       </c>
       <c r="E159" s="1" t="n">
-        <v>-4.45</v>
+        <v>-0.85</v>
       </c>
       <c r="F159" s="1" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="G159" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H159" s="1" t="n">
-        <v>8.9</v>
+        <v>0.35</v>
       </c>
       <c r="I159" s="1" t="n">
-        <v>9.6</v>
+        <v>0.75</v>
       </c>
       <c r="J159" s="1" t="n">
-        <v>-0.04999999999999982</v>
+        <v>-0.6</v>
       </c>
       <c r="K159" s="1" t="n">
-        <v>-8.850000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="L159" s="1" t="n"/>
       <c r="M159" s="1" t="n">
-        <v>0</v>
+        <v>-1.309</v>
       </c>
       <c r="N159" s="1" t="n">
-        <v>0</v>
+        <v>-3.916</v>
       </c>
       <c r="O159" s="1" t="n">
-        <v>9.25</v>
+        <v>1.859</v>
       </c>
       <c r="P159" s="1" t="n">
-        <v>-4.45</v>
+        <v>3.066</v>
       </c>
       <c r="Q159" s="1" t="n"/>
       <c r="R159" s="1" t="n"/>
@@ -11768,13 +11759,13 @@
         <v>3</v>
       </c>
       <c r="V159" s="1" t="n">
-        <v>34.158</v>
+        <v>-29.4</v>
       </c>
       <c r="W159" s="1" t="n">
-        <v>4.102</v>
+        <v>-4.542</v>
       </c>
       <c r="X159" s="1" t="n">
-        <v>0.068</v>
+        <v>3.788</v>
       </c>
       <c r="Y159" s="1" t="n">
         <v>16.8</v>
@@ -11785,48 +11776,48 @@
     </row>
     <row r="160" spans="1:28">
       <c r="A160" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="B160" s="1" t="n"/>
       <c r="C160" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>10.55</v>
+        <v>6.65</v>
       </c>
       <c r="E160" s="1" t="n">
-        <v>-4.45</v>
+        <v>-4.7</v>
       </c>
       <c r="F160" s="1" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="G160" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H160" s="1" t="n">
-        <v>10.2</v>
+        <v>4.45</v>
       </c>
       <c r="I160" s="1" t="n">
-        <v>10.9</v>
+        <v>8.850000000000001</v>
       </c>
       <c r="J160" s="1" t="n">
-        <v>-0.04999999999999982</v>
+        <v>-4.4</v>
       </c>
       <c r="K160" s="1" t="n">
-        <v>-8.850000000000001</v>
+        <v>-5</v>
       </c>
       <c r="L160" s="1" t="n"/>
       <c r="M160" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N160" s="1" t="n">
-        <v>0</v>
+        <v>-3.916</v>
       </c>
       <c r="O160" s="1" t="n">
-        <v>10.55</v>
+        <v>6.65</v>
       </c>
       <c r="P160" s="1" t="n">
-        <v>-4.45</v>
+        <v>-0.7840000000000003</v>
       </c>
       <c r="Q160" s="1" t="n"/>
       <c r="R160" s="1" t="n"/>
@@ -11834,22 +11825,22 @@
         <v>32</v>
       </c>
       <c r="T160" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U160" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V160" s="1" t="n">
-        <v>-34.158</v>
+        <v>4.2</v>
       </c>
       <c r="W160" s="1" t="n">
-        <v>-4.298</v>
+        <v>-0.342</v>
       </c>
       <c r="X160" s="1" t="n">
-        <v>0.068</v>
+        <v>16.8</v>
       </c>
       <c r="Y160" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z160" s="1" t="n"/>
       <c r="AA160" s="1" t="n"/>
@@ -11857,48 +11848,48 @@
     </row>
     <row r="161" spans="1:28">
       <c r="A161" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B161" s="1" t="n"/>
       <c r="C161" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>0.55</v>
+        <v>-2.02</v>
       </c>
       <c r="E161" s="1" t="n">
-        <v>-0.85</v>
+        <v>-6.2</v>
       </c>
       <c r="F161" s="1" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="G161" s="1" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H161" s="1" t="n">
-        <v>0.35</v>
+        <v>-4.220000000000001</v>
       </c>
       <c r="I161" s="1" t="n">
-        <v>0.75</v>
+        <v>0.1800000000000002</v>
       </c>
       <c r="J161" s="1" t="n">
-        <v>-0.6</v>
+        <v>-5.9</v>
       </c>
       <c r="K161" s="1" t="n">
-        <v>-1.1</v>
+        <v>-6.5</v>
       </c>
       <c r="L161" s="1" t="n"/>
       <c r="M161" s="1" t="n">
-        <v>1.309</v>
+        <v>0</v>
       </c>
       <c r="N161" s="1" t="n">
         <v>3.916</v>
       </c>
       <c r="O161" s="1" t="n">
-        <v>-0.7589999999999999</v>
+        <v>-2.02</v>
       </c>
       <c r="P161" s="1" t="n">
-        <v>-4.766</v>
+        <v>-10.116</v>
       </c>
       <c r="Q161" s="1" t="n"/>
       <c r="R161" s="1" t="n"/>
@@ -11906,22 +11897,22 @@
         <v>32</v>
       </c>
       <c r="T161" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U161" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V161" s="1" t="n">
-        <v>29.4</v>
+        <v>-4.2</v>
       </c>
       <c r="W161" s="1" t="n">
-        <v>-4.542</v>
+        <v>-0.342</v>
       </c>
       <c r="X161" s="1" t="n">
-        <v>3.788</v>
+        <v>16.8</v>
       </c>
       <c r="Y161" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z161" s="1" t="n"/>
       <c r="AA161" s="1" t="n"/>
@@ -11929,48 +11920,48 @@
     </row>
     <row r="162" spans="1:28">
       <c r="A162" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B162" s="1" t="n"/>
       <c r="C162" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>0.55</v>
+        <v>5.65</v>
       </c>
       <c r="E162" s="1" t="n">
-        <v>-0.85</v>
+        <v>-2.25</v>
       </c>
       <c r="F162" s="1" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="G162" s="1" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H162" s="1" t="n">
-        <v>0.35</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="I162" s="1" t="n">
-        <v>0.75</v>
+        <v>6.45</v>
       </c>
       <c r="J162" s="1" t="n">
-        <v>-0.6</v>
+        <v>-1.95</v>
       </c>
       <c r="K162" s="1" t="n">
-        <v>-1.1</v>
+        <v>-2.55</v>
       </c>
       <c r="L162" s="1" t="n"/>
       <c r="M162" s="1" t="n">
-        <v>0</v>
+        <v>-1.629</v>
       </c>
       <c r="N162" s="1" t="n">
-        <v>0</v>
+        <v>-3.916</v>
       </c>
       <c r="O162" s="1" t="n">
-        <v>0.55</v>
+        <v>7.279</v>
       </c>
       <c r="P162" s="1" t="n">
-        <v>-0.85</v>
+        <v>1.666</v>
       </c>
       <c r="Q162" s="1" t="n"/>
       <c r="R162" s="1" t="n"/>
@@ -11981,19 +11972,19 @@
         <v>1</v>
       </c>
       <c r="U162" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V162" s="1" t="n">
-        <v>22.309</v>
+        <v>-29.4</v>
       </c>
       <c r="W162" s="1" t="n">
-        <v>-33.658</v>
+        <v>-4.542</v>
       </c>
       <c r="X162" s="1" t="n">
-        <v>0</v>
+        <v>3.788</v>
       </c>
       <c r="Y162" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Z162" s="1" t="n"/>
       <c r="AA162" s="1" t="n"/>
@@ -12001,48 +11992,48 @@
     </row>
     <row r="163" spans="1:28">
       <c r="A163" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B163" s="1" t="n"/>
       <c r="C163" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>0.55</v>
+        <v>7.3</v>
       </c>
       <c r="E163" s="1" t="n">
-        <v>-0.85</v>
+        <v>-2.25</v>
       </c>
       <c r="F163" s="1" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="G163" s="1" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H163" s="1" t="n">
-        <v>0.35</v>
+        <v>6.5</v>
       </c>
       <c r="I163" s="1" t="n">
-        <v>0.75</v>
+        <v>8.1</v>
       </c>
       <c r="J163" s="1" t="n">
-        <v>-0.6</v>
+        <v>-1.95</v>
       </c>
       <c r="K163" s="1" t="n">
-        <v>-1.1</v>
+        <v>-2.55</v>
       </c>
       <c r="L163" s="1" t="n"/>
       <c r="M163" s="1" t="n">
-        <v>-1.309</v>
+        <v>1.629</v>
       </c>
       <c r="N163" s="1" t="n">
-        <v>-3.916</v>
+        <v>3.916</v>
       </c>
       <c r="O163" s="1" t="n">
-        <v>1.859</v>
+        <v>5.670999999999999</v>
       </c>
       <c r="P163" s="1" t="n">
-        <v>3.066</v>
+        <v>-6.166</v>
       </c>
       <c r="Q163" s="1" t="n"/>
       <c r="R163" s="1" t="n"/>
@@ -12056,7 +12047,7 @@
         <v>3</v>
       </c>
       <c r="V163" s="1" t="n">
-        <v>-29.4</v>
+        <v>29.4</v>
       </c>
       <c r="W163" s="1" t="n">
         <v>-4.542</v>
@@ -12073,48 +12064,48 @@
     </row>
     <row r="164" spans="1:28">
       <c r="A164" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B164" s="1" t="n"/>
       <c r="C164" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>-0.4</v>
+        <v>7.3</v>
       </c>
       <c r="E164" s="1" t="n">
-        <v>-1.35</v>
+        <v>-2.25</v>
       </c>
       <c r="F164" s="1" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="G164" s="1" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H164" s="1" t="n">
-        <v>-0.6000000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="I164" s="1" t="n">
-        <v>-0.2</v>
+        <v>8.1</v>
       </c>
       <c r="J164" s="1" t="n">
-        <v>-1.15</v>
+        <v>-1.95</v>
       </c>
       <c r="K164" s="1" t="n">
-        <v>-1.55</v>
+        <v>-2.55</v>
       </c>
       <c r="L164" s="1" t="n"/>
       <c r="M164" s="1" t="n">
-        <v>1.938</v>
+        <v>0</v>
       </c>
       <c r="N164" s="1" t="n">
-        <v>3.925</v>
+        <v>0</v>
       </c>
       <c r="O164" s="1" t="n">
-        <v>-2.338</v>
+        <v>7.3</v>
       </c>
       <c r="P164" s="1" t="n">
-        <v>-5.275</v>
+        <v>-2.25</v>
       </c>
       <c r="Q164" s="1" t="n"/>
       <c r="R164" s="1" t="n"/>
@@ -12125,19 +12116,19 @@
         <v>1</v>
       </c>
       <c r="U164" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V164" s="1" t="n">
-        <v>29.4</v>
+        <v>22.629</v>
       </c>
       <c r="W164" s="1" t="n">
-        <v>-4.542</v>
+        <v>-33.658</v>
       </c>
       <c r="X164" s="1" t="n">
-        <v>3.788</v>
+        <v>0</v>
       </c>
       <c r="Y164" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Z164" s="1" t="n"/>
       <c r="AA164" s="1" t="n"/>
@@ -12145,48 +12136,48 @@
     </row>
     <row r="165" spans="1:28">
       <c r="A165" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B165" s="1" t="n"/>
       <c r="C165" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>-0.4</v>
+        <v>6.35</v>
       </c>
       <c r="E165" s="1" t="n">
-        <v>-1.35</v>
+        <v>-5.35</v>
       </c>
       <c r="F165" s="1" t="n">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="G165" s="1" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H165" s="1" t="n">
-        <v>-0.6000000000000001</v>
+        <v>3.85</v>
       </c>
       <c r="I165" s="1" t="n">
-        <v>-0.2</v>
+        <v>8.85</v>
       </c>
       <c r="J165" s="1" t="n">
-        <v>-1.15</v>
+        <v>-5.05</v>
       </c>
       <c r="K165" s="1" t="n">
-        <v>-1.55</v>
+        <v>-5.649999999999999</v>
       </c>
       <c r="L165" s="1" t="n"/>
       <c r="M165" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N165" s="1" t="n">
-        <v>0</v>
+        <v>3.916</v>
       </c>
       <c r="O165" s="1" t="n">
-        <v>-0.4</v>
+        <v>6.35</v>
       </c>
       <c r="P165" s="1" t="n">
-        <v>-1.35</v>
+        <v>-9.266</v>
       </c>
       <c r="Q165" s="1" t="n"/>
       <c r="R165" s="1" t="n"/>
@@ -12194,22 +12185,22 @@
         <v>32</v>
       </c>
       <c r="T165" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U165" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V165" s="1" t="n">
-        <v>22.938</v>
+        <v>-4.2</v>
       </c>
       <c r="W165" s="1" t="n">
-        <v>-33.649</v>
+        <v>-0.342</v>
       </c>
       <c r="X165" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Y165" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z165" s="1" t="n"/>
       <c r="AA165" s="1" t="n"/>
@@ -12217,48 +12208,48 @@
     </row>
     <row r="166" spans="1:28">
       <c r="A166" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B166" s="1" t="n"/>
       <c r="C166" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>-0.4</v>
+        <v>6.35</v>
       </c>
       <c r="E166" s="1" t="n">
-        <v>-1.35</v>
+        <v>-5.35</v>
       </c>
       <c r="F166" s="1" t="n">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="G166" s="1" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H166" s="1" t="n">
-        <v>-0.6000000000000001</v>
+        <v>3.85</v>
       </c>
       <c r="I166" s="1" t="n">
-        <v>-0.2</v>
+        <v>8.85</v>
       </c>
       <c r="J166" s="1" t="n">
-        <v>-1.15</v>
+        <v>-5.05</v>
       </c>
       <c r="K166" s="1" t="n">
-        <v>-1.55</v>
+        <v>-5.649999999999999</v>
       </c>
       <c r="L166" s="1" t="n"/>
       <c r="M166" s="1" t="n">
-        <v>-1.938</v>
+        <v>0</v>
       </c>
       <c r="N166" s="1" t="n">
-        <v>-3.907</v>
+        <v>-3.916</v>
       </c>
       <c r="O166" s="1" t="n">
-        <v>1.538</v>
+        <v>6.35</v>
       </c>
       <c r="P166" s="1" t="n">
-        <v>2.557</v>
+        <v>-1.434</v>
       </c>
       <c r="Q166" s="1" t="n"/>
       <c r="R166" s="1" t="n"/>
@@ -12266,22 +12257,22 @@
         <v>32</v>
       </c>
       <c r="T166" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U166" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V166" s="1" t="n">
-        <v>-29.4</v>
+        <v>4.2</v>
       </c>
       <c r="W166" s="1" t="n">
-        <v>-4.542</v>
+        <v>-0.342</v>
       </c>
       <c r="X166" s="1" t="n">
-        <v>3.788</v>
+        <v>16.8</v>
       </c>
       <c r="Y166" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z166" s="1" t="n"/>
       <c r="AA166" s="1" t="n"/>
@@ -12289,48 +12280,48 @@
     </row>
     <row r="167" spans="1:28">
       <c r="A167" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B167" s="1" t="n"/>
       <c r="C167" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>6.65</v>
+        <v>5.85</v>
       </c>
       <c r="E167" s="1" t="n">
-        <v>-4.7</v>
+        <v>-9.475</v>
       </c>
       <c r="F167" s="1" t="n">
-        <v>4.4</v>
+        <v>8.6</v>
       </c>
       <c r="G167" s="1" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="H167" s="1" t="n">
-        <v>4.45</v>
+        <v>1.55</v>
       </c>
       <c r="I167" s="1" t="n">
-        <v>8.850000000000001</v>
+        <v>10.15</v>
       </c>
       <c r="J167" s="1" t="n">
-        <v>-4.4</v>
+        <v>-8.9</v>
       </c>
       <c r="K167" s="1" t="n">
-        <v>-5</v>
+        <v>-10.05</v>
       </c>
       <c r="L167" s="1" t="n"/>
       <c r="M167" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N167" s="1" t="n">
-        <v>-3.916</v>
+        <v>0</v>
       </c>
       <c r="O167" s="1" t="n">
-        <v>6.65</v>
+        <v>5.85</v>
       </c>
       <c r="P167" s="1" t="n">
-        <v>-0.7840000000000003</v>
+        <v>-9.475</v>
       </c>
       <c r="Q167" s="1" t="n"/>
       <c r="R167" s="1" t="n"/>
@@ -12338,22 +12329,22 @@
         <v>32</v>
       </c>
       <c r="T167" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U167" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V167" s="1" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="W167" s="1" t="n">
-        <v>-0.342</v>
+        <v>-35.42</v>
       </c>
       <c r="X167" s="1" t="n">
-        <v>16.8</v>
+        <v>8.1</v>
       </c>
       <c r="Y167" s="1" t="n">
-        <v>8.4</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z167" s="1" t="n"/>
       <c r="AA167" s="1" t="n"/>
@@ -12361,48 +12352,48 @@
     </row>
     <row r="168" spans="1:28">
       <c r="A168" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B168" s="1" t="n"/>
       <c r="C168" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>-2.02</v>
+        <v>-9.84</v>
       </c>
       <c r="E168" s="1" t="n">
-        <v>-6.2</v>
+        <v>1.125</v>
       </c>
       <c r="F168" s="1" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="G168" s="1" t="n">
-        <v>0.6</v>
+        <v>5.9</v>
       </c>
       <c r="H168" s="1" t="n">
-        <v>-4.220000000000001</v>
+        <v>-10.19</v>
       </c>
       <c r="I168" s="1" t="n">
-        <v>0.1800000000000002</v>
+        <v>-9.49</v>
       </c>
       <c r="J168" s="1" t="n">
-        <v>-5.9</v>
+        <v>4.075</v>
       </c>
       <c r="K168" s="1" t="n">
-        <v>-6.5</v>
+        <v>-1.825</v>
       </c>
       <c r="L168" s="1" t="n"/>
       <c r="M168" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N168" s="1" t="n">
-        <v>3.916</v>
+        <v>0</v>
       </c>
       <c r="O168" s="1" t="n">
-        <v>-2.02</v>
+        <v>-9.84</v>
       </c>
       <c r="P168" s="1" t="n">
-        <v>-10.116</v>
+        <v>1.125</v>
       </c>
       <c r="Q168" s="1" t="n"/>
       <c r="R168" s="1" t="n"/>
@@ -12410,776 +12401,56 @@
         <v>32</v>
       </c>
       <c r="T168" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U168" s="1" t="n">
         <v>8</v>
       </c>
       <c r="V168" s="1" t="n">
-        <v>-4.2</v>
+        <v>-36.625</v>
       </c>
       <c r="W168" s="1" t="n">
-        <v>-0.342</v>
+        <v>-0.603</v>
       </c>
       <c r="X168" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Y168" s="1" t="n">
-        <v>8.4</v>
+        <v>5.495</v>
       </c>
       <c r="Z168" s="1" t="n"/>
       <c r="AA168" s="1" t="n"/>
       <c r="AB168" s="1" t="s"/>
     </row>
     <row r="169" spans="1:28">
-      <c r="A169" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="A169" s="1" t="n"/>
       <c r="B169" s="1" t="n"/>
-      <c r="C169" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D169" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E169" s="1" t="n">
-        <v>-1.35</v>
-      </c>
-      <c r="F169" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G169" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H169" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I169" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J169" s="1" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="K169" s="1" t="n">
-        <v>-1.55</v>
-      </c>
+      <c r="C169" s="1" t="n"/>
+      <c r="D169" s="1" t="n"/>
+      <c r="E169" s="1" t="n"/>
+      <c r="F169" s="1" t="n"/>
+      <c r="G169" s="1" t="n"/>
+      <c r="H169" s="1" t="n"/>
+      <c r="I169" s="1" t="n"/>
+      <c r="J169" s="1" t="n"/>
+      <c r="K169" s="1" t="n"/>
       <c r="L169" s="1" t="n"/>
-      <c r="M169" s="1" t="n">
-        <v>1.949</v>
-      </c>
-      <c r="N169" s="1" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="O169" s="1" t="n">
-        <v>-1.449</v>
-      </c>
-      <c r="P169" s="1" t="n">
-        <v>-5.196</v>
-      </c>
+      <c r="M169" s="1" t="n"/>
+      <c r="N169" s="1" t="n"/>
+      <c r="O169" s="1" t="n"/>
+      <c r="P169" s="1" t="n"/>
       <c r="Q169" s="1" t="n"/>
       <c r="R169" s="1" t="n"/>
-      <c r="S169" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T169" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U169" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="V169" s="1" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="W169" s="1" t="n">
-        <v>-4.542</v>
-      </c>
-      <c r="X169" s="1" t="n">
-        <v>3.788</v>
-      </c>
-      <c r="Y169" s="1" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="S169" s="1" t="n"/>
+      <c r="T169" s="1" t="n"/>
+      <c r="U169" s="1" t="n"/>
+      <c r="V169" s="1" t="n"/>
+      <c r="W169" s="1" t="n"/>
+      <c r="X169" s="1" t="n"/>
+      <c r="Y169" s="1" t="n"/>
       <c r="Z169" s="1" t="n"/>
       <c r="AA169" s="1" t="n"/>
-      <c r="AB169" s="1" t="s"/>
-    </row>
-    <row r="170" spans="1:28">
-      <c r="A170" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B170" s="1" t="n"/>
-      <c r="C170" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D170" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E170" s="1" t="n">
-        <v>-1.35</v>
-      </c>
-      <c r="F170" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G170" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H170" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I170" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J170" s="1" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="K170" s="1" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="L170" s="1" t="n"/>
-      <c r="M170" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N170" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O170" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P170" s="1" t="n">
-        <v>-1.35</v>
-      </c>
-      <c r="Q170" s="1" t="n"/>
-      <c r="R170" s="1" t="n"/>
-      <c r="S170" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T170" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U170" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V170" s="1" t="n">
-        <v>22.949</v>
-      </c>
-      <c r="W170" s="1" t="n">
-        <v>-33.588</v>
-      </c>
-      <c r="X170" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y170" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z170" s="1" t="n"/>
-      <c r="AA170" s="1" t="n"/>
-      <c r="AB170" s="1" t="s"/>
-    </row>
-    <row r="171" spans="1:28">
-      <c r="A171" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B171" s="1" t="n"/>
-      <c r="C171" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D171" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E171" s="1" t="n">
-        <v>-1.35</v>
-      </c>
-      <c r="F171" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G171" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H171" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I171" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J171" s="1" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="K171" s="1" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="L171" s="1" t="n"/>
-      <c r="M171" s="1" t="n">
-        <v>-1.949</v>
-      </c>
-      <c r="N171" s="1" t="n">
-        <v>-3.846</v>
-      </c>
-      <c r="O171" s="1" t="n">
-        <v>2.449</v>
-      </c>
-      <c r="P171" s="1" t="n">
-        <v>2.496</v>
-      </c>
-      <c r="Q171" s="1" t="n"/>
-      <c r="R171" s="1" t="n"/>
-      <c r="S171" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T171" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U171" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="V171" s="1" t="n">
-        <v>-29.4</v>
-      </c>
-      <c r="W171" s="1" t="n">
-        <v>-4.542</v>
-      </c>
-      <c r="X171" s="1" t="n">
-        <v>3.788</v>
-      </c>
-      <c r="Y171" s="1" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="Z171" s="1" t="n"/>
-      <c r="AA171" s="1" t="n"/>
-      <c r="AB171" s="1" t="s"/>
-    </row>
-    <row r="172" spans="1:28">
-      <c r="A172" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B172" s="1" t="n"/>
-      <c r="C172" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D172" s="1" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="E172" s="1" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="F172" s="1" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G172" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H172" s="1" t="n">
-        <v>4.850000000000001</v>
-      </c>
-      <c r="I172" s="1" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="J172" s="1" t="n">
-        <v>-1.95</v>
-      </c>
-      <c r="K172" s="1" t="n">
-        <v>-2.55</v>
-      </c>
-      <c r="L172" s="1" t="n"/>
-      <c r="M172" s="1" t="n">
-        <v>-1.629</v>
-      </c>
-      <c r="N172" s="1" t="n">
-        <v>-3.916</v>
-      </c>
-      <c r="O172" s="1" t="n">
-        <v>7.279</v>
-      </c>
-      <c r="P172" s="1" t="n">
-        <v>1.666</v>
-      </c>
-      <c r="Q172" s="1" t="n"/>
-      <c r="R172" s="1" t="n"/>
-      <c r="S172" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T172" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U172" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="V172" s="1" t="n">
-        <v>-29.4</v>
-      </c>
-      <c r="W172" s="1" t="n">
-        <v>-4.542</v>
-      </c>
-      <c r="X172" s="1" t="n">
-        <v>3.788</v>
-      </c>
-      <c r="Y172" s="1" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="Z172" s="1" t="n"/>
-      <c r="AA172" s="1" t="n"/>
-      <c r="AB172" s="1" t="s"/>
-    </row>
-    <row r="173" spans="1:28">
-      <c r="A173" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B173" s="1" t="n"/>
-      <c r="C173" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D173" s="1" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E173" s="1" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="F173" s="1" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G173" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H173" s="1" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I173" s="1" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="J173" s="1" t="n">
-        <v>-1.95</v>
-      </c>
-      <c r="K173" s="1" t="n">
-        <v>-2.55</v>
-      </c>
-      <c r="L173" s="1" t="n"/>
-      <c r="M173" s="1" t="n">
-        <v>1.629</v>
-      </c>
-      <c r="N173" s="1" t="n">
-        <v>3.916</v>
-      </c>
-      <c r="O173" s="1" t="n">
-        <v>5.670999999999999</v>
-      </c>
-      <c r="P173" s="1" t="n">
-        <v>-6.166</v>
-      </c>
-      <c r="Q173" s="1" t="n"/>
-      <c r="R173" s="1" t="n"/>
-      <c r="S173" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T173" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U173" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="V173" s="1" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="W173" s="1" t="n">
-        <v>-4.542</v>
-      </c>
-      <c r="X173" s="1" t="n">
-        <v>3.788</v>
-      </c>
-      <c r="Y173" s="1" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="Z173" s="1" t="n"/>
-      <c r="AA173" s="1" t="n"/>
-      <c r="AB173" s="1" t="s"/>
-    </row>
-    <row r="174" spans="1:28">
-      <c r="A174" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B174" s="1" t="n"/>
-      <c r="C174" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D174" s="1" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E174" s="1" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="F174" s="1" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G174" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H174" s="1" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I174" s="1" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="J174" s="1" t="n">
-        <v>-1.95</v>
-      </c>
-      <c r="K174" s="1" t="n">
-        <v>-2.55</v>
-      </c>
-      <c r="L174" s="1" t="n"/>
-      <c r="M174" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N174" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O174" s="1" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="P174" s="1" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="Q174" s="1" t="n"/>
-      <c r="R174" s="1" t="n"/>
-      <c r="S174" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T174" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U174" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V174" s="1" t="n">
-        <v>22.629</v>
-      </c>
-      <c r="W174" s="1" t="n">
-        <v>-33.658</v>
-      </c>
-      <c r="X174" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y174" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z174" s="1" t="n"/>
-      <c r="AA174" s="1" t="n"/>
-      <c r="AB174" s="1" t="s"/>
-    </row>
-    <row r="175" spans="1:28">
-      <c r="A175" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B175" s="1" t="n"/>
-      <c r="C175" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D175" s="1" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="E175" s="1" t="n">
-        <v>-5.35</v>
-      </c>
-      <c r="F175" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G175" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H175" s="1" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I175" s="1" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="J175" s="1" t="n">
-        <v>-5.05</v>
-      </c>
-      <c r="K175" s="1" t="n">
-        <v>-5.649999999999999</v>
-      </c>
-      <c r="L175" s="1" t="n"/>
-      <c r="M175" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N175" s="1" t="n">
-        <v>3.916</v>
-      </c>
-      <c r="O175" s="1" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="P175" s="1" t="n">
-        <v>-9.266</v>
-      </c>
-      <c r="Q175" s="1" t="n"/>
-      <c r="R175" s="1" t="n"/>
-      <c r="S175" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T175" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="U175" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V175" s="1" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="W175" s="1" t="n">
-        <v>-0.342</v>
-      </c>
-      <c r="X175" s="1" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="Y175" s="1" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z175" s="1" t="n"/>
-      <c r="AA175" s="1" t="n"/>
-      <c r="AB175" s="1" t="s"/>
-    </row>
-    <row r="176" spans="1:28">
-      <c r="A176" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B176" s="1" t="n"/>
-      <c r="C176" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D176" s="1" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="E176" s="1" t="n">
-        <v>-5.35</v>
-      </c>
-      <c r="F176" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G176" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H176" s="1" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I176" s="1" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="J176" s="1" t="n">
-        <v>-5.05</v>
-      </c>
-      <c r="K176" s="1" t="n">
-        <v>-5.649999999999999</v>
-      </c>
-      <c r="L176" s="1" t="n"/>
-      <c r="M176" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N176" s="1" t="n">
-        <v>-3.916</v>
-      </c>
-      <c r="O176" s="1" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="P176" s="1" t="n">
-        <v>-1.434</v>
-      </c>
-      <c r="Q176" s="1" t="n"/>
-      <c r="R176" s="1" t="n"/>
-      <c r="S176" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T176" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="U176" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V176" s="1" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="W176" s="1" t="n">
-        <v>-0.342</v>
-      </c>
-      <c r="X176" s="1" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="Y176" s="1" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z176" s="1" t="n"/>
-      <c r="AA176" s="1" t="n"/>
-      <c r="AB176" s="1" t="s"/>
-    </row>
-    <row r="177" spans="1:28">
-      <c r="A177" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B177" s="1" t="n"/>
-      <c r="C177" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D177" s="1" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="E177" s="1" t="n">
-        <v>-9.475</v>
-      </c>
-      <c r="F177" s="1" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="G177" s="1" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H177" s="1" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="I177" s="1" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="J177" s="1" t="n">
-        <v>-8.9</v>
-      </c>
-      <c r="K177" s="1" t="n">
-        <v>-10.05</v>
-      </c>
-      <c r="L177" s="1" t="n"/>
-      <c r="M177" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N177" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O177" s="1" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="P177" s="1" t="n">
-        <v>-9.475</v>
-      </c>
-      <c r="Q177" s="1" t="n"/>
-      <c r="R177" s="1" t="n"/>
-      <c r="S177" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T177" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="U177" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V177" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W177" s="1" t="n">
-        <v>-35.42</v>
-      </c>
-      <c r="X177" s="1" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="Y177" s="1" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Z177" s="1" t="n"/>
-      <c r="AA177" s="1" t="n"/>
-      <c r="AB177" s="1" t="s"/>
-    </row>
-    <row r="178" spans="1:28">
-      <c r="A178" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B178" s="1" t="n"/>
-      <c r="C178" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D178" s="1" t="n">
-        <v>-9.84</v>
-      </c>
-      <c r="E178" s="1" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="F178" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G178" s="1" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H178" s="1" t="n">
-        <v>-10.19</v>
-      </c>
-      <c r="I178" s="1" t="n">
-        <v>-9.49</v>
-      </c>
-      <c r="J178" s="1" t="n">
-        <v>4.075</v>
-      </c>
-      <c r="K178" s="1" t="n">
-        <v>-1.825</v>
-      </c>
-      <c r="L178" s="1" t="n"/>
-      <c r="M178" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N178" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O178" s="1" t="n">
-        <v>-9.84</v>
-      </c>
-      <c r="P178" s="1" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="Q178" s="1" t="n"/>
-      <c r="R178" s="1" t="n"/>
-      <c r="S178" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T178" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U178" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V178" s="1" t="n">
-        <v>-36.625</v>
-      </c>
-      <c r="W178" s="1" t="n">
-        <v>-0.603</v>
-      </c>
-      <c r="X178" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y178" s="1" t="n">
-        <v>5.495</v>
-      </c>
-      <c r="Z178" s="1" t="n"/>
-      <c r="AA178" s="1" t="n"/>
-      <c r="AB178" s="1" t="s"/>
-    </row>
-    <row r="179" spans="1:28">
-      <c r="A179" s="1" t="n"/>
-      <c r="B179" s="1" t="n"/>
-      <c r="C179" s="1" t="n"/>
-      <c r="D179" s="1" t="n"/>
-      <c r="E179" s="1" t="n"/>
-      <c r="F179" s="1" t="n"/>
-      <c r="G179" s="1" t="n"/>
-      <c r="H179" s="1" t="n"/>
-      <c r="I179" s="1" t="n"/>
-      <c r="J179" s="1" t="n"/>
-      <c r="K179" s="1" t="n"/>
-      <c r="L179" s="1" t="n"/>
-      <c r="M179" s="1" t="n"/>
-      <c r="N179" s="1" t="n"/>
-      <c r="O179" s="1" t="n"/>
-      <c r="P179" s="1" t="n"/>
-      <c r="Q179" s="1" t="n"/>
-      <c r="R179" s="1" t="n"/>
-      <c r="S179" s="1" t="n"/>
-      <c r="T179" s="1" t="n"/>
-      <c r="U179" s="1" t="n"/>
-      <c r="V179" s="1" t="n"/>
-      <c r="W179" s="1" t="n"/>
-      <c r="X179" s="1" t="n"/>
-      <c r="Y179" s="1" t="n"/>
-      <c r="Z179" s="1" t="n"/>
-      <c r="AA179" s="1" t="n"/>
-      <c r="AB179" s="1" t="n"/>
+      <c r="AB169" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13246,39 +12517,39 @@
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="n"/>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
@@ -13292,10 +12563,10 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
@@ -13317,7 +12588,7 @@
       </c>
       <c r="I2" s="1" t="n"/>
       <c r="J2" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
@@ -13330,7 +12601,7 @@
       </c>
       <c r="N2" s="1" t="n"/>
       <c r="O2" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>5</v>
